--- a/database/industries/siman/seshargh/cost/quarterly.xlsx
+++ b/database/industries/siman/seshargh/cost/quarterly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\siman\seshargh\cost\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\siman\seshargh\cost\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ACF0C85-7916-44E6-8CF1-014AB065923B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B9BD201-8516-4602-9DF7-D10EB6AFE27E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="880" uniqueCount="92">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -34,6 +34,21 @@
     <t>بهای تمام شده</t>
   </si>
   <si>
+    <t>فصل چهارم منتهی به 1399/06</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1399/09</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1399/12</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1400/03</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1400/06</t>
+  </si>
+  <si>
     <t>فصل اول منتهی به 1400/09</t>
   </si>
   <si>
@@ -82,6 +97,9 @@
     <t>موجودی کالای ساخته شده پایان دوره</t>
   </si>
   <si>
+    <t>-</t>
+  </si>
+  <si>
     <t>بهای تمام شده کالای فروش رفته</t>
   </si>
   <si>
@@ -98,9 +116,6 @@
   </si>
   <si>
     <t>میلیون ریال</t>
-  </si>
-  <si>
-    <t>-</t>
   </si>
   <si>
     <t>سنگ آهک کارخانه</t>
@@ -736,16 +751,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:I245"/>
+  <dimension ref="B1:N245"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="9" width="20" customWidth="1"/>
+    <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -754,8 +769,13 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -766,8 +786,13 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -778,8 +803,13 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -788,8 +818,13 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+    </row>
+    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -800,8 +835,13 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
-    </row>
-    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+    </row>
+    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -812,8 +852,13 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -822,8 +867,13 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+    </row>
+    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
@@ -844,8 +894,23 @@
       <c r="I8" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -854,98 +919,163 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9">
+        <v>310091</v>
+      </c>
+      <c r="F10" s="9">
+        <v>137492</v>
+      </c>
+      <c r="G10" s="9">
+        <v>123496</v>
+      </c>
+      <c r="H10" s="9">
+        <v>164134</v>
+      </c>
+      <c r="I10" s="9">
+        <v>162045</v>
+      </c>
+      <c r="J10" s="9">
         <v>160248</v>
       </c>
-      <c r="F10" s="9">
+      <c r="K10" s="9">
         <v>229715</v>
       </c>
-      <c r="G10" s="9">
+      <c r="L10" s="9">
         <v>333141</v>
       </c>
-      <c r="H10" s="9">
+      <c r="M10" s="9">
         <v>284010</v>
       </c>
-      <c r="I10" s="9">
+      <c r="N10" s="9">
         <v>380233</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
+        <v>15315</v>
+      </c>
+      <c r="F11" s="11">
+        <v>18348</v>
+      </c>
+      <c r="G11" s="11">
+        <v>20372</v>
+      </c>
+      <c r="H11" s="11">
+        <v>31170</v>
+      </c>
+      <c r="I11" s="11">
+        <v>-702</v>
+      </c>
+      <c r="J11" s="11">
         <v>16921</v>
       </c>
-      <c r="F11" s="11">
+      <c r="K11" s="11">
         <v>17256</v>
       </c>
-      <c r="G11" s="11">
+      <c r="L11" s="11">
         <v>36058</v>
       </c>
-      <c r="H11" s="11">
+      <c r="M11" s="11">
         <v>27430</v>
       </c>
-      <c r="I11" s="11">
+      <c r="N11" s="11">
         <v>35463</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" s="8" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9">
+        <v>418025</v>
+      </c>
+      <c r="F12" s="9">
+        <v>604882</v>
+      </c>
+      <c r="G12" s="9">
+        <v>590930</v>
+      </c>
+      <c r="H12" s="9">
+        <v>813269</v>
+      </c>
+      <c r="I12" s="9">
+        <v>981789</v>
+      </c>
+      <c r="J12" s="9">
         <v>892539</v>
       </c>
-      <c r="F12" s="9">
+      <c r="K12" s="9">
         <v>1268099</v>
       </c>
-      <c r="G12" s="9">
+      <c r="L12" s="9">
         <v>1189387</v>
       </c>
-      <c r="H12" s="9">
+      <c r="M12" s="9">
         <v>1101607</v>
       </c>
-      <c r="I12" s="9">
+      <c r="N12" s="9">
         <v>1305595</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
       <c r="E13" s="13">
+        <v>743431</v>
+      </c>
+      <c r="F13" s="13">
+        <v>760722</v>
+      </c>
+      <c r="G13" s="13">
+        <v>734798</v>
+      </c>
+      <c r="H13" s="13">
+        <v>1008573</v>
+      </c>
+      <c r="I13" s="13">
+        <v>1143132</v>
+      </c>
+      <c r="J13" s="13">
         <v>1069708</v>
       </c>
-      <c r="F13" s="13">
+      <c r="K13" s="13">
         <v>1515070</v>
       </c>
-      <c r="G13" s="13">
+      <c r="L13" s="13">
         <v>1558586</v>
       </c>
-      <c r="H13" s="13">
+      <c r="M13" s="13">
         <v>1413047</v>
       </c>
-      <c r="I13" s="13">
+      <c r="N13" s="13">
         <v>1721291</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" s="8" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
@@ -964,54 +1094,99 @@
       <c r="I14" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J14" s="9">
+        <v>0</v>
+      </c>
+      <c r="K14" s="9">
+        <v>0</v>
+      </c>
+      <c r="L14" s="9">
+        <v>0</v>
+      </c>
+      <c r="M14" s="9">
+        <v>0</v>
+      </c>
+      <c r="N14" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13">
+        <v>743431</v>
+      </c>
+      <c r="F15" s="13">
+        <v>760722</v>
+      </c>
+      <c r="G15" s="13">
+        <v>734798</v>
+      </c>
+      <c r="H15" s="13">
+        <v>1008573</v>
+      </c>
+      <c r="I15" s="13">
+        <v>1143132</v>
+      </c>
+      <c r="J15" s="13">
         <v>1069708</v>
       </c>
-      <c r="F15" s="13">
+      <c r="K15" s="13">
         <v>1515070</v>
       </c>
-      <c r="G15" s="13">
+      <c r="L15" s="13">
         <v>1558586</v>
       </c>
-      <c r="H15" s="13">
+      <c r="M15" s="13">
         <v>1413047</v>
       </c>
-      <c r="I15" s="13">
+      <c r="N15" s="13">
         <v>1721291</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="8" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
       <c r="E16" s="9">
+        <v>-106614</v>
+      </c>
+      <c r="F16" s="9">
+        <v>-55454</v>
+      </c>
+      <c r="G16" s="9">
+        <v>-8061</v>
+      </c>
+      <c r="H16" s="9">
+        <v>-125396</v>
+      </c>
+      <c r="I16" s="9">
+        <v>-113203</v>
+      </c>
+      <c r="J16" s="9">
         <v>-135342</v>
       </c>
-      <c r="F16" s="9">
+      <c r="K16" s="9">
         <v>-323247</v>
       </c>
-      <c r="G16" s="9">
+      <c r="L16" s="9">
         <v>-508589</v>
       </c>
-      <c r="H16" s="9">
+      <c r="M16" s="9">
         <v>-71236</v>
       </c>
-      <c r="I16" s="9">
+      <c r="N16" s="9">
         <v>-189868</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
@@ -1030,98 +1205,173 @@
       <c r="I17" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J17" s="11">
+        <v>0</v>
+      </c>
+      <c r="K17" s="11">
+        <v>0</v>
+      </c>
+      <c r="L17" s="11">
+        <v>0</v>
+      </c>
+      <c r="M17" s="11">
+        <v>0</v>
+      </c>
+      <c r="N17" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="14" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
       <c r="E18" s="15">
+        <v>636817</v>
+      </c>
+      <c r="F18" s="15">
+        <v>705268</v>
+      </c>
+      <c r="G18" s="15">
+        <v>726737</v>
+      </c>
+      <c r="H18" s="15">
+        <v>883177</v>
+      </c>
+      <c r="I18" s="15">
+        <v>1029929</v>
+      </c>
+      <c r="J18" s="15">
         <v>934366</v>
       </c>
-      <c r="F18" s="15">
+      <c r="K18" s="15">
         <v>1191823</v>
       </c>
-      <c r="G18" s="15">
+      <c r="L18" s="15">
         <v>1049997</v>
       </c>
-      <c r="H18" s="15">
+      <c r="M18" s="15">
         <v>1341811</v>
       </c>
-      <c r="I18" s="15">
+      <c r="N18" s="15">
         <v>1531423</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
       <c r="E19" s="11">
+        <v>16043</v>
+      </c>
+      <c r="F19" s="11">
+        <v>67663</v>
+      </c>
+      <c r="G19" s="11">
+        <v>0</v>
+      </c>
+      <c r="H19" s="11">
+        <v>0</v>
+      </c>
+      <c r="I19" s="11">
+        <v>18492</v>
+      </c>
+      <c r="J19" s="11">
         <v>109328</v>
       </c>
-      <c r="F19" s="11">
-        <v>0</v>
-      </c>
-      <c r="G19" s="11">
-        <v>0</v>
-      </c>
-      <c r="H19" s="11">
-        <v>29877</v>
-      </c>
-      <c r="I19" s="11">
+      <c r="K19" s="11">
+        <v>133414</v>
+      </c>
+      <c r="L19" s="11">
+        <v>109328</v>
+      </c>
+      <c r="M19" s="11">
+        <v>61128</v>
+      </c>
+      <c r="N19" s="11">
         <v>60831</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="8" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
-      <c r="E20" s="9">
+      <c r="E20" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F20" s="9">
+        <v>-72207</v>
+      </c>
+      <c r="G20" s="9">
+        <v>-18384</v>
+      </c>
+      <c r="H20" s="9">
+        <v>18492</v>
+      </c>
+      <c r="I20" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="J20" s="9">
         <v>-133414</v>
       </c>
-      <c r="F20" s="9">
-        <v>-12460</v>
-      </c>
-      <c r="G20" s="9">
-        <v>29877</v>
-      </c>
-      <c r="H20" s="9">
-        <v>-60831</v>
-      </c>
-      <c r="I20" s="9">
+      <c r="K20" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L20" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="M20" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N20" s="9">
         <v>-95863</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="12" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
       <c r="E21" s="13">
+        <v>638642</v>
+      </c>
+      <c r="F21" s="13">
+        <v>700724</v>
+      </c>
+      <c r="G21" s="13">
+        <v>708353</v>
+      </c>
+      <c r="H21" s="13">
+        <v>901669</v>
+      </c>
+      <c r="I21" s="13">
+        <v>1003980</v>
+      </c>
+      <c r="J21" s="13">
         <v>910280</v>
       </c>
-      <c r="F21" s="13">
+      <c r="K21" s="13">
         <v>1179363</v>
       </c>
-      <c r="G21" s="13">
+      <c r="L21" s="13">
         <v>1079874</v>
       </c>
-      <c r="H21" s="13">
+      <c r="M21" s="13">
         <v>1348777</v>
       </c>
-      <c r="I21" s="13">
+      <c r="N21" s="13">
         <v>1496391</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="8" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
@@ -1140,30 +1390,60 @@
       <c r="I22" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J22" s="9">
+        <v>0</v>
+      </c>
+      <c r="K22" s="9">
+        <v>0</v>
+      </c>
+      <c r="L22" s="9">
+        <v>0</v>
+      </c>
+      <c r="M22" s="9">
+        <v>0</v>
+      </c>
+      <c r="N22" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="12" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
       <c r="E23" s="13">
+        <v>638642</v>
+      </c>
+      <c r="F23" s="13">
+        <v>700724</v>
+      </c>
+      <c r="G23" s="13">
+        <v>708353</v>
+      </c>
+      <c r="H23" s="13">
+        <v>901669</v>
+      </c>
+      <c r="I23" s="13">
+        <v>1003980</v>
+      </c>
+      <c r="J23" s="13">
         <v>910280</v>
       </c>
-      <c r="F23" s="13">
+      <c r="K23" s="13">
         <v>1179363</v>
       </c>
-      <c r="G23" s="13">
+      <c r="L23" s="13">
         <v>1079874</v>
       </c>
-      <c r="H23" s="13">
+      <c r="M23" s="13">
         <v>1348777</v>
       </c>
-      <c r="I23" s="13">
+      <c r="N23" s="13">
         <v>1496391</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1172,8 +1452,13 @@
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1182,8 +1467,13 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1192,10 +1482,15 @@
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
-    </row>
-    <row r="27" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+    </row>
+    <row r="27" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B27" s="7" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
@@ -1214,8 +1509,23 @@
       <c r="I27" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J27" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K27" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L27" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M27" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N27" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1224,294 +1534,479 @@
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="8" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D29" s="9"/>
       <c r="E29" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H29" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
+      </c>
+      <c r="H29" s="9">
+        <v>0</v>
       </c>
       <c r="I29" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="J29" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K29" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L29" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="M29" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N29" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D30" s="11"/>
       <c r="E30" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G30" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H30" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I30" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="J30" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="K30" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="L30" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="M30" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="N30" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B31" s="8" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D31" s="9"/>
       <c r="E31" s="9">
+        <v>1588</v>
+      </c>
+      <c r="F31" s="9">
+        <v>235720</v>
+      </c>
+      <c r="G31" s="9">
+        <v>197649</v>
+      </c>
+      <c r="H31" s="9">
+        <v>157937</v>
+      </c>
+      <c r="I31" s="9">
+        <v>95149</v>
+      </c>
+      <c r="J31" s="9">
         <v>199423</v>
       </c>
-      <c r="F31" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G31" s="9">
+      <c r="K31" s="9">
+        <v>195823</v>
+      </c>
+      <c r="L31" s="9">
         <v>157436</v>
       </c>
-      <c r="H31" s="9">
+      <c r="M31" s="9">
         <v>116731</v>
       </c>
-      <c r="I31" s="9">
+      <c r="N31" s="9">
         <v>135623</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B32" s="10" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D32" s="11"/>
       <c r="E32" s="11">
+        <v>8404</v>
+      </c>
+      <c r="F32" s="11">
+        <v>8399</v>
+      </c>
+      <c r="G32" s="11">
+        <v>8399</v>
+      </c>
+      <c r="H32" s="11">
+        <v>8400</v>
+      </c>
+      <c r="I32" s="11">
+        <v>8505</v>
+      </c>
+      <c r="J32" s="11">
         <v>3879</v>
       </c>
-      <c r="F32" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G32" s="11">
+      <c r="K32" s="11">
+        <v>3473</v>
+      </c>
+      <c r="L32" s="11">
         <v>3205</v>
       </c>
-      <c r="H32" s="11">
+      <c r="M32" s="11">
         <v>1435</v>
       </c>
-      <c r="I32" s="11">
+      <c r="N32" s="11">
         <v>1313</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B33" s="8" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D33" s="9"/>
       <c r="E33" s="9">
+        <v>168612</v>
+      </c>
+      <c r="F33" s="9">
+        <v>168498</v>
+      </c>
+      <c r="G33" s="9">
+        <v>168498</v>
+      </c>
+      <c r="H33" s="9">
+        <v>168499</v>
+      </c>
+      <c r="I33" s="9">
+        <v>168499</v>
+      </c>
+      <c r="J33" s="9">
         <v>166750</v>
       </c>
-      <c r="F33" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G33" s="9">
+      <c r="K33" s="9">
         <v>166750</v>
       </c>
-      <c r="H33" s="9">
+      <c r="L33" s="9">
         <v>166750</v>
       </c>
-      <c r="I33" s="9">
+      <c r="M33" s="9">
         <v>166750</v>
       </c>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N33" s="9">
+        <v>166750</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B34" s="10" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D34" s="11"/>
       <c r="E34" s="11">
+        <v>5941</v>
+      </c>
+      <c r="F34" s="11">
+        <v>7381</v>
+      </c>
+      <c r="G34" s="11">
+        <v>14637</v>
+      </c>
+      <c r="H34" s="11">
+        <v>33502</v>
+      </c>
+      <c r="I34" s="11">
+        <v>18926</v>
+      </c>
+      <c r="J34" s="11">
         <v>59712</v>
       </c>
-      <c r="F34" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G34" s="11">
+      <c r="K34" s="11">
+        <v>110720</v>
+      </c>
+      <c r="L34" s="11">
         <v>146577</v>
       </c>
-      <c r="H34" s="11">
+      <c r="M34" s="11">
         <v>142671</v>
       </c>
-      <c r="I34" s="11">
+      <c r="N34" s="11">
         <v>160375</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B35" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C35" s="9" t="s">
         <v>33</v>
-      </c>
-      <c r="C35" s="9" t="s">
-        <v>28</v>
       </c>
       <c r="D35" s="9"/>
       <c r="E35" s="9">
+        <v>442888</v>
+      </c>
+      <c r="F35" s="9">
+        <v>398500</v>
+      </c>
+      <c r="G35" s="9">
+        <v>419653</v>
+      </c>
+      <c r="H35" s="9">
+        <v>499694</v>
+      </c>
+      <c r="I35" s="9">
+        <v>489448</v>
+      </c>
+      <c r="J35" s="9">
         <v>535711</v>
       </c>
-      <c r="F35" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G35" s="9">
+      <c r="K35" s="9">
+        <v>628391</v>
+      </c>
+      <c r="L35" s="9">
         <v>626642</v>
       </c>
-      <c r="H35" s="9">
+      <c r="M35" s="9">
         <v>547483</v>
       </c>
-      <c r="I35" s="9">
+      <c r="N35" s="9">
         <v>558578</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B36" s="10" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D36" s="11"/>
       <c r="E36" s="11">
+        <v>6654</v>
+      </c>
+      <c r="F36" s="11">
+        <v>5939</v>
+      </c>
+      <c r="G36" s="11">
+        <v>4469</v>
+      </c>
+      <c r="H36" s="11">
+        <v>446</v>
+      </c>
+      <c r="I36" s="11">
+        <v>12796</v>
+      </c>
+      <c r="J36" s="11">
         <v>6945</v>
       </c>
-      <c r="F36" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G36" s="11">
+      <c r="K36" s="11">
+        <v>27563</v>
+      </c>
+      <c r="L36" s="11">
         <v>20778</v>
       </c>
-      <c r="H36" s="11">
+      <c r="M36" s="11">
         <v>1243</v>
       </c>
-      <c r="I36" s="11">
+      <c r="N36" s="11">
         <v>15736</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B37" s="8" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D37" s="9"/>
       <c r="E37" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F37" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
+      </c>
+      <c r="F37" s="9">
+        <v>0</v>
       </c>
       <c r="G37" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H37" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
+      </c>
+      <c r="H37" s="9">
+        <v>0</v>
       </c>
       <c r="I37" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="J37" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K37" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L37" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="M37" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N37" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B38" s="10" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D38" s="11"/>
       <c r="E38" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F38" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G38" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H38" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="I38" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="F38" s="11">
+        <v>0</v>
+      </c>
+      <c r="G38" s="11">
+        <v>0</v>
+      </c>
+      <c r="H38" s="11">
+        <v>0</v>
+      </c>
+      <c r="I38" s="11">
+        <v>0</v>
+      </c>
+      <c r="J38" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="K38" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="L38" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="M38" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="N38" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B39" s="8" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D39" s="9"/>
-      <c r="E39" s="9">
-        <v>0</v>
+      <c r="E39" s="9" t="s">
+        <v>25</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G39" s="9">
+        <v>25</v>
+      </c>
+      <c r="G39" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H39" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="I39" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="J39" s="9">
+        <v>0</v>
+      </c>
+      <c r="K39" s="9">
+        <v>2950</v>
+      </c>
+      <c r="L39" s="9">
         <v>4300</v>
       </c>
-      <c r="H39" s="9">
+      <c r="M39" s="9">
         <v>4300</v>
       </c>
-      <c r="I39" s="9">
+      <c r="N39" s="9">
         <v>4246</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B40" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C40" s="13"/>
       <c r="D40" s="13"/>
       <c r="E40" s="13">
+        <v>634087</v>
+      </c>
+      <c r="F40" s="13">
+        <v>824437</v>
+      </c>
+      <c r="G40" s="13">
+        <v>813305</v>
+      </c>
+      <c r="H40" s="13">
+        <v>868478</v>
+      </c>
+      <c r="I40" s="13">
+        <v>793323</v>
+      </c>
+      <c r="J40" s="13">
         <v>972420</v>
       </c>
-      <c r="F40" s="13">
-        <v>0</v>
-      </c>
-      <c r="G40" s="13">
+      <c r="K40" s="13">
+        <v>1135670</v>
+      </c>
+      <c r="L40" s="13">
         <v>1125688</v>
       </c>
-      <c r="H40" s="13">
+      <c r="M40" s="13">
         <v>980613</v>
       </c>
-      <c r="I40" s="13">
+      <c r="N40" s="13">
         <v>1042621</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -1520,8 +2015,13 @@
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -1530,8 +2030,13 @@
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -1540,10 +2045,15 @@
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
-    </row>
-    <row r="44" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
+    </row>
+    <row r="44" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B44" s="7" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
@@ -1562,8 +2072,23 @@
       <c r="I44" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J44" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K44" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L44" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M44" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N44" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -1572,109 +2097,174 @@
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B46" s="8" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D46" s="9"/>
       <c r="E46" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F46" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G46" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H46" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
+      </c>
+      <c r="H46" s="9">
+        <v>0</v>
       </c>
       <c r="I46" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="J46" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K46" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L46" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="M46" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N46" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B47" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D47" s="11"/>
       <c r="E47" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F47" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G47" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H47" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I47" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="J47" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="K47" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="L47" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="M47" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="N47" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B48" s="8" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D48" s="9"/>
       <c r="E48" s="9">
+        <v>622603</v>
+      </c>
+      <c r="F48" s="9">
+        <v>278315</v>
+      </c>
+      <c r="G48" s="9">
+        <v>250739</v>
+      </c>
+      <c r="H48" s="9">
+        <v>320068</v>
+      </c>
+      <c r="I48" s="9">
+        <v>305206</v>
+      </c>
+      <c r="J48" s="9">
         <v>301447</v>
       </c>
-      <c r="F48" s="9">
+      <c r="K48" s="9">
         <v>248444</v>
       </c>
-      <c r="G48" s="9">
+      <c r="L48" s="9">
         <v>366633</v>
       </c>
-      <c r="H48" s="9">
+      <c r="M48" s="9">
         <v>381686</v>
       </c>
-      <c r="I48" s="9">
+      <c r="N48" s="9">
         <v>358213</v>
       </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B49" s="10" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D49" s="11"/>
       <c r="E49" s="11">
         <v>0</v>
       </c>
       <c r="F49" s="11">
+        <v>0</v>
+      </c>
+      <c r="G49" s="11">
+        <v>0</v>
+      </c>
+      <c r="H49" s="11">
+        <v>105</v>
+      </c>
+      <c r="I49" s="11">
+        <v>0</v>
+      </c>
+      <c r="J49" s="11">
+        <v>0</v>
+      </c>
+      <c r="K49" s="11">
         <v>213</v>
       </c>
-      <c r="G49" s="11">
-        <v>0</v>
-      </c>
-      <c r="H49" s="11">
-        <v>0</v>
-      </c>
-      <c r="I49" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="L49" s="11">
+        <v>0</v>
+      </c>
+      <c r="M49" s="11">
+        <v>0</v>
+      </c>
+      <c r="N49" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B50" s="8" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D50" s="9"/>
       <c r="E50" s="9">
@@ -1692,174 +2282,294 @@
       <c r="I50" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J50" s="9">
+        <v>0</v>
+      </c>
+      <c r="K50" s="9">
+        <v>0</v>
+      </c>
+      <c r="L50" s="9">
+        <v>0</v>
+      </c>
+      <c r="M50" s="9">
+        <v>0</v>
+      </c>
+      <c r="N50" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B51" s="10" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D51" s="11"/>
       <c r="E51" s="11">
+        <v>26193</v>
+      </c>
+      <c r="F51" s="11">
+        <v>27034</v>
+      </c>
+      <c r="G51" s="11">
+        <v>35906</v>
+      </c>
+      <c r="H51" s="11">
+        <v>11710</v>
+      </c>
+      <c r="I51" s="11">
+        <v>54492</v>
+      </c>
+      <c r="J51" s="11">
         <v>68655</v>
       </c>
-      <c r="F51" s="11">
+      <c r="K51" s="11">
         <v>49388</v>
       </c>
-      <c r="G51" s="11">
+      <c r="L51" s="11">
         <v>10124</v>
       </c>
-      <c r="H51" s="11">
+      <c r="M51" s="11">
         <v>35751</v>
       </c>
-      <c r="I51" s="11">
+      <c r="N51" s="11">
         <v>5868</v>
       </c>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B52" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C52" s="9" t="s">
         <v>33</v>
-      </c>
-      <c r="C52" s="9" t="s">
-        <v>28</v>
       </c>
       <c r="D52" s="9"/>
       <c r="E52" s="9">
+        <v>344979</v>
+      </c>
+      <c r="F52" s="9">
+        <v>454276</v>
+      </c>
+      <c r="G52" s="9">
+        <v>426866</v>
+      </c>
+      <c r="H52" s="9">
+        <v>475932</v>
+      </c>
+      <c r="I52" s="9">
+        <v>807123</v>
+      </c>
+      <c r="J52" s="9">
         <v>491478</v>
       </c>
-      <c r="F52" s="9">
+      <c r="K52" s="9">
         <v>480475</v>
       </c>
-      <c r="G52" s="9">
+      <c r="L52" s="9">
         <v>515996</v>
       </c>
-      <c r="H52" s="9">
+      <c r="M52" s="9">
         <v>519937</v>
       </c>
-      <c r="I52" s="9">
+      <c r="N52" s="9">
         <v>358830</v>
       </c>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B53" s="10" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D53" s="11"/>
       <c r="E53" s="11">
+        <v>17605</v>
+      </c>
+      <c r="F53" s="11">
+        <v>12691</v>
+      </c>
+      <c r="G53" s="11">
+        <v>9610</v>
+      </c>
+      <c r="H53" s="11">
+        <v>30733</v>
+      </c>
+      <c r="I53" s="11">
+        <v>9011</v>
+      </c>
+      <c r="J53" s="11">
         <v>37404</v>
       </c>
-      <c r="F53" s="11">
+      <c r="K53" s="11">
         <v>15076</v>
       </c>
-      <c r="G53" s="11">
+      <c r="L53" s="11">
         <v>8733</v>
       </c>
-      <c r="H53" s="11">
+      <c r="M53" s="11">
         <v>30945</v>
       </c>
-      <c r="I53" s="11">
+      <c r="N53" s="11">
         <v>17002</v>
       </c>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B54" s="8" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D54" s="9"/>
       <c r="E54" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F54" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
+      </c>
+      <c r="F54" s="9">
+        <v>0</v>
       </c>
       <c r="G54" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H54" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
+      </c>
+      <c r="H54" s="9">
+        <v>0</v>
       </c>
       <c r="I54" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="J54" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K54" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L54" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="M54" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N54" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B55" s="10" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D55" s="11"/>
       <c r="E55" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F55" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G55" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H55" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="I55" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="F55" s="11">
+        <v>24653</v>
+      </c>
+      <c r="G55" s="11">
+        <v>0</v>
+      </c>
+      <c r="H55" s="11">
+        <v>0</v>
+      </c>
+      <c r="I55" s="11">
+        <v>0</v>
+      </c>
+      <c r="J55" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="K55" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="L55" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="M55" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="N55" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B56" s="8" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D56" s="9"/>
-      <c r="E56" s="9">
+      <c r="E56" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F56" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G56" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H56" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="I56" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="J56" s="9">
         <v>3195</v>
       </c>
-      <c r="F56" s="9">
+      <c r="K56" s="9">
         <v>1500</v>
       </c>
-      <c r="G56" s="9">
-        <v>0</v>
-      </c>
-      <c r="H56" s="9">
-        <v>0</v>
-      </c>
-      <c r="I56" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="L56" s="9">
+        <v>0</v>
+      </c>
+      <c r="M56" s="9">
+        <v>0</v>
+      </c>
+      <c r="N56" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B57" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C57" s="13"/>
       <c r="D57" s="13"/>
       <c r="E57" s="13">
+        <v>1011380</v>
+      </c>
+      <c r="F57" s="13">
+        <v>796969</v>
+      </c>
+      <c r="G57" s="13">
+        <v>723121</v>
+      </c>
+      <c r="H57" s="13">
+        <v>838548</v>
+      </c>
+      <c r="I57" s="13">
+        <v>1175832</v>
+      </c>
+      <c r="J57" s="13">
         <v>902179</v>
       </c>
-      <c r="F57" s="13">
+      <c r="K57" s="13">
         <v>795096</v>
       </c>
-      <c r="G57" s="13">
+      <c r="L57" s="13">
         <v>901486</v>
       </c>
-      <c r="H57" s="13">
+      <c r="M57" s="13">
         <v>968319</v>
       </c>
-      <c r="I57" s="13">
+      <c r="N57" s="13">
         <v>739913</v>
       </c>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -1868,8 +2578,13 @@
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J58" s="1"/>
+      <c r="K58" s="1"/>
+      <c r="L58" s="1"/>
+      <c r="M58" s="1"/>
+      <c r="N58" s="1"/>
+    </row>
+    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -1878,8 +2593,13 @@
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
-    </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J59" s="1"/>
+      <c r="K59" s="1"/>
+      <c r="L59" s="1"/>
+      <c r="M59" s="1"/>
+      <c r="N59" s="1"/>
+    </row>
+    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -1888,10 +2608,15 @@
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
-    </row>
-    <row r="61" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J60" s="1"/>
+      <c r="K60" s="1"/>
+      <c r="L60" s="1"/>
+      <c r="M60" s="1"/>
+      <c r="N60" s="1"/>
+    </row>
+    <row r="61" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B61" s="7" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C61" s="6"/>
       <c r="D61" s="6"/>
@@ -1910,8 +2635,23 @@
       <c r="I61" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J61" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K61" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L61" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M61" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N61" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
@@ -1920,113 +2660,178 @@
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
-    </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J62" s="1"/>
+      <c r="K62" s="1"/>
+      <c r="L62" s="1"/>
+      <c r="M62" s="1"/>
+      <c r="N62" s="1"/>
+    </row>
+    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B63" s="8" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D63" s="9"/>
       <c r="E63" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F63" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G63" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H63" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
+      </c>
+      <c r="H63" s="9">
+        <v>0</v>
       </c>
       <c r="I63" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="J63" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K63" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L63" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="M63" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N63" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B64" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C64" s="11" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D64" s="11"/>
       <c r="E64" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F64" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G64" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H64" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I64" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="J64" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="K64" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="L64" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="M64" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="N64" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B65" s="8" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D65" s="9"/>
       <c r="E65" s="9">
+        <v>388472</v>
+      </c>
+      <c r="F65" s="9">
+        <v>316386</v>
+      </c>
+      <c r="G65" s="9">
+        <v>290450</v>
+      </c>
+      <c r="H65" s="9">
+        <v>382856</v>
+      </c>
+      <c r="I65" s="9">
+        <v>303492</v>
+      </c>
+      <c r="J65" s="9">
         <v>305047</v>
       </c>
-      <c r="F65" s="9">
+      <c r="K65" s="9">
         <v>286831</v>
       </c>
-      <c r="G65" s="9">
+      <c r="L65" s="9">
         <v>407338</v>
       </c>
-      <c r="H65" s="9">
+      <c r="M65" s="9">
         <v>362794</v>
       </c>
-      <c r="I65" s="9">
+      <c r="N65" s="9">
         <v>383198</v>
       </c>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B66" s="10" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C66" s="11" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D66" s="11"/>
       <c r="E66" s="11">
+        <v>5</v>
+      </c>
+      <c r="F66" s="11">
+        <v>0</v>
+      </c>
+      <c r="G66" s="11">
+        <v>0</v>
+      </c>
+      <c r="H66" s="11">
+        <v>0</v>
+      </c>
+      <c r="I66" s="11">
+        <v>761</v>
+      </c>
+      <c r="J66" s="11">
         <v>406</v>
       </c>
-      <c r="F66" s="11">
+      <c r="K66" s="11">
         <v>481</v>
       </c>
-      <c r="G66" s="11">
+      <c r="L66" s="11">
         <v>1770</v>
       </c>
-      <c r="H66" s="11">
+      <c r="M66" s="11">
         <v>122</v>
       </c>
-      <c r="I66" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N66" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B67" s="8" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D67" s="9"/>
       <c r="E67" s="9">
-        <v>0</v>
+        <v>113</v>
       </c>
       <c r="F67" s="9">
         <v>0</v>
@@ -2040,174 +2845,294 @@
       <c r="I67" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J67" s="9">
+        <v>0</v>
+      </c>
+      <c r="K67" s="9">
+        <v>0</v>
+      </c>
+      <c r="L67" s="9">
+        <v>0</v>
+      </c>
+      <c r="M67" s="9">
+        <v>0</v>
+      </c>
+      <c r="N67" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B68" s="10" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C68" s="11" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D68" s="11"/>
       <c r="E68" s="11">
+        <v>24754</v>
+      </c>
+      <c r="F68" s="11">
+        <v>19778</v>
+      </c>
+      <c r="G68" s="11">
+        <v>17040</v>
+      </c>
+      <c r="H68" s="11">
+        <v>26286</v>
+      </c>
+      <c r="I68" s="11">
+        <v>16013</v>
+      </c>
+      <c r="J68" s="11">
         <v>17647</v>
       </c>
-      <c r="F68" s="11">
+      <c r="K68" s="11">
         <v>13531</v>
       </c>
-      <c r="G68" s="11">
+      <c r="L68" s="11">
         <v>14030</v>
       </c>
-      <c r="H68" s="11">
+      <c r="M68" s="11">
         <v>16095</v>
       </c>
-      <c r="I68" s="11">
+      <c r="N68" s="11">
         <v>17141</v>
       </c>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B69" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C69" s="9" t="s">
         <v>33</v>
-      </c>
-      <c r="C69" s="9" t="s">
-        <v>28</v>
       </c>
       <c r="D69" s="9"/>
       <c r="E69" s="9">
+        <v>389367</v>
+      </c>
+      <c r="F69" s="9">
+        <v>433123</v>
+      </c>
+      <c r="G69" s="9">
+        <v>346826</v>
+      </c>
+      <c r="H69" s="9">
+        <v>486178</v>
+      </c>
+      <c r="I69" s="9">
+        <v>747883</v>
+      </c>
+      <c r="J69" s="9">
         <v>398798</v>
       </c>
-      <c r="F69" s="9">
+      <c r="K69" s="9">
         <v>482224</v>
       </c>
-      <c r="G69" s="9">
+      <c r="L69" s="9">
         <v>595155</v>
       </c>
-      <c r="H69" s="9">
+      <c r="M69" s="9">
         <v>508842</v>
       </c>
-      <c r="I69" s="9">
+      <c r="N69" s="9">
         <v>378882</v>
       </c>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B70" s="10" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C70" s="11" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D70" s="11"/>
       <c r="E70" s="11">
+        <v>18319</v>
+      </c>
+      <c r="F70" s="11">
+        <v>14161</v>
+      </c>
+      <c r="G70" s="11">
+        <v>13634</v>
+      </c>
+      <c r="H70" s="11">
+        <v>18383</v>
+      </c>
+      <c r="I70" s="11">
+        <v>21346</v>
+      </c>
+      <c r="J70" s="11">
         <v>16786</v>
       </c>
-      <c r="F70" s="11">
+      <c r="K70" s="11">
         <v>21861</v>
       </c>
-      <c r="G70" s="11">
+      <c r="L70" s="11">
         <v>28268</v>
       </c>
-      <c r="H70" s="11">
+      <c r="M70" s="11">
         <v>16452</v>
       </c>
-      <c r="I70" s="11">
+      <c r="N70" s="11">
         <v>21962</v>
       </c>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B71" s="8" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D71" s="9"/>
       <c r="E71" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F71" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
+      </c>
+      <c r="F71" s="9">
+        <v>0</v>
       </c>
       <c r="G71" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H71" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
+      </c>
+      <c r="H71" s="9">
+        <v>0</v>
       </c>
       <c r="I71" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="J71" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K71" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L71" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="M71" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N71" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B72" s="10" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C72" s="11" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D72" s="11"/>
       <c r="E72" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F72" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G72" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H72" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="I72" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="F72" s="11">
+        <v>24653</v>
+      </c>
+      <c r="G72" s="11">
+        <v>0</v>
+      </c>
+      <c r="H72" s="11">
+        <v>0</v>
+      </c>
+      <c r="I72" s="11">
+        <v>0</v>
+      </c>
+      <c r="J72" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="K72" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="L72" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="M72" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="N72" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B73" s="8" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D73" s="9"/>
-      <c r="E73" s="9">
+      <c r="E73" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F73" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G73" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H73" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="I73" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="J73" s="9">
         <v>245</v>
       </c>
-      <c r="F73" s="9">
+      <c r="K73" s="9">
         <v>150</v>
       </c>
-      <c r="G73" s="9">
-        <v>0</v>
-      </c>
-      <c r="H73" s="9">
+      <c r="L73" s="9">
+        <v>0</v>
+      </c>
+      <c r="M73" s="9">
         <v>54</v>
       </c>
-      <c r="I73" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N73" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B74" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C74" s="13"/>
       <c r="D74" s="13"/>
       <c r="E74" s="13">
+        <v>821030</v>
+      </c>
+      <c r="F74" s="13">
+        <v>808101</v>
+      </c>
+      <c r="G74" s="13">
+        <v>667950</v>
+      </c>
+      <c r="H74" s="13">
+        <v>913703</v>
+      </c>
+      <c r="I74" s="13">
+        <v>1089495</v>
+      </c>
+      <c r="J74" s="13">
         <v>738929</v>
       </c>
-      <c r="F74" s="13">
+      <c r="K74" s="13">
         <v>805078</v>
       </c>
-      <c r="G74" s="13">
+      <c r="L74" s="13">
         <v>1046561</v>
       </c>
-      <c r="H74" s="13">
+      <c r="M74" s="13">
         <v>904359</v>
       </c>
-      <c r="I74" s="13">
+      <c r="N74" s="13">
         <v>801183</v>
       </c>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
@@ -2216,8 +3141,13 @@
       <c r="G75" s="1"/>
       <c r="H75" s="1"/>
       <c r="I75" s="1"/>
-    </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J75" s="1"/>
+      <c r="K75" s="1"/>
+      <c r="L75" s="1"/>
+      <c r="M75" s="1"/>
+      <c r="N75" s="1"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
@@ -2226,8 +3156,13 @@
       <c r="G76" s="1"/>
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
-    </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J76" s="1"/>
+      <c r="K76" s="1"/>
+      <c r="L76" s="1"/>
+      <c r="M76" s="1"/>
+      <c r="N76" s="1"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
@@ -2236,10 +3171,15 @@
       <c r="G77" s="1"/>
       <c r="H77" s="1"/>
       <c r="I77" s="1"/>
-    </row>
-    <row r="78" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J77" s="1"/>
+      <c r="K77" s="1"/>
+      <c r="L77" s="1"/>
+      <c r="M77" s="1"/>
+      <c r="N77" s="1"/>
+    </row>
+    <row r="78" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B78" s="7" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C78" s="6"/>
       <c r="D78" s="6"/>
@@ -2258,8 +3198,23 @@
       <c r="I78" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J78" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K78" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L78" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M78" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N78" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
@@ -2268,294 +3223,479 @@
       <c r="G79" s="1"/>
       <c r="H79" s="1"/>
       <c r="I79" s="1"/>
-    </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J79" s="1"/>
+      <c r="K79" s="1"/>
+      <c r="L79" s="1"/>
+      <c r="M79" s="1"/>
+      <c r="N79" s="1"/>
+    </row>
+    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B80" s="8" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C80" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D80" s="9"/>
       <c r="E80" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F80" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G80" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H80" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
+      </c>
+      <c r="H80" s="9">
+        <v>0</v>
       </c>
       <c r="I80" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="J80" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K80" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L80" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="M80" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N80" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B81" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C81" s="11" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D81" s="11"/>
       <c r="E81" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F81" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G81" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H81" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I81" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="J81" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="K81" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="L81" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="M81" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="N81" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B82" s="8" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C82" s="9" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D82" s="9"/>
       <c r="E82" s="9">
+        <v>235720</v>
+      </c>
+      <c r="F82" s="9">
+        <v>197649</v>
+      </c>
+      <c r="G82" s="9">
+        <v>157937</v>
+      </c>
+      <c r="H82" s="9">
+        <v>95149</v>
+      </c>
+      <c r="I82" s="9">
+        <v>96863</v>
+      </c>
+      <c r="J82" s="9">
         <v>195823</v>
       </c>
-      <c r="F82" s="9">
+      <c r="K82" s="9">
         <v>157436</v>
       </c>
-      <c r="G82" s="9">
+      <c r="L82" s="9">
         <v>116731</v>
       </c>
-      <c r="H82" s="9">
+      <c r="M82" s="9">
         <v>135623</v>
       </c>
-      <c r="I82" s="9">
+      <c r="N82" s="9">
         <v>110638</v>
       </c>
     </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B83" s="10" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C83" s="11" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D83" s="11"/>
       <c r="E83" s="11">
+        <v>8399</v>
+      </c>
+      <c r="F83" s="11">
+        <v>8399</v>
+      </c>
+      <c r="G83" s="11">
+        <v>8400</v>
+      </c>
+      <c r="H83" s="11">
+        <v>8505</v>
+      </c>
+      <c r="I83" s="11">
+        <v>7744</v>
+      </c>
+      <c r="J83" s="11">
         <v>3473</v>
       </c>
-      <c r="F83" s="11">
+      <c r="K83" s="11">
         <v>3205</v>
       </c>
-      <c r="G83" s="11">
+      <c r="L83" s="11">
         <v>1435</v>
       </c>
-      <c r="H83" s="11">
+      <c r="M83" s="11">
         <v>1313</v>
       </c>
-      <c r="I83" s="11">
+      <c r="N83" s="11">
         <v>1313</v>
       </c>
     </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B84" s="8" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C84" s="9" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D84" s="9"/>
       <c r="E84" s="9">
+        <v>168498</v>
+      </c>
+      <c r="F84" s="9">
+        <v>168498</v>
+      </c>
+      <c r="G84" s="9">
+        <v>168499</v>
+      </c>
+      <c r="H84" s="9">
+        <v>168499</v>
+      </c>
+      <c r="I84" s="9">
+        <v>168499</v>
+      </c>
+      <c r="J84" s="9">
         <v>166750</v>
       </c>
-      <c r="F84" s="9">
+      <c r="K84" s="9">
         <v>166750</v>
       </c>
-      <c r="G84" s="9">
+      <c r="L84" s="9">
         <v>166750</v>
       </c>
-      <c r="H84" s="9">
+      <c r="M84" s="9">
         <v>166750</v>
       </c>
-      <c r="I84" s="9">
+      <c r="N84" s="9">
         <v>166750</v>
       </c>
     </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B85" s="10" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C85" s="11" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D85" s="11"/>
       <c r="E85" s="11">
+        <v>7381</v>
+      </c>
+      <c r="F85" s="11">
+        <v>14637</v>
+      </c>
+      <c r="G85" s="11">
+        <v>33502</v>
+      </c>
+      <c r="H85" s="11">
+        <v>18926</v>
+      </c>
+      <c r="I85" s="11">
+        <v>57405</v>
+      </c>
+      <c r="J85" s="11">
         <v>110720</v>
       </c>
-      <c r="F85" s="11">
+      <c r="K85" s="11">
         <v>146577</v>
       </c>
-      <c r="G85" s="11">
+      <c r="L85" s="11">
         <v>142671</v>
       </c>
-      <c r="H85" s="11">
+      <c r="M85" s="11">
         <v>162327</v>
       </c>
-      <c r="I85" s="11">
+      <c r="N85" s="11">
         <v>149102</v>
       </c>
     </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B86" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C86" s="9" t="s">
         <v>33</v>
-      </c>
-      <c r="C86" s="9" t="s">
-        <v>28</v>
       </c>
       <c r="D86" s="9"/>
       <c r="E86" s="9">
+        <v>398500</v>
+      </c>
+      <c r="F86" s="9">
+        <v>419653</v>
+      </c>
+      <c r="G86" s="9">
+        <v>499694</v>
+      </c>
+      <c r="H86" s="9">
+        <v>489448</v>
+      </c>
+      <c r="I86" s="9">
+        <v>548688</v>
+      </c>
+      <c r="J86" s="9">
         <v>628391</v>
       </c>
-      <c r="F86" s="9">
+      <c r="K86" s="9">
         <v>626642</v>
       </c>
-      <c r="G86" s="9">
+      <c r="L86" s="9">
         <v>547483</v>
       </c>
-      <c r="H86" s="9">
+      <c r="M86" s="9">
         <v>558578</v>
       </c>
-      <c r="I86" s="9">
+      <c r="N86" s="9">
         <v>538526</v>
       </c>
     </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B87" s="10" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C87" s="11" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D87" s="11"/>
       <c r="E87" s="11">
+        <v>5939</v>
+      </c>
+      <c r="F87" s="11">
+        <v>4469</v>
+      </c>
+      <c r="G87" s="11">
+        <v>446</v>
+      </c>
+      <c r="H87" s="11">
+        <v>12796</v>
+      </c>
+      <c r="I87" s="11">
+        <v>461</v>
+      </c>
+      <c r="J87" s="11">
         <v>27563</v>
       </c>
-      <c r="F87" s="11">
+      <c r="K87" s="11">
         <v>20778</v>
       </c>
-      <c r="G87" s="11">
+      <c r="L87" s="11">
         <v>1243</v>
       </c>
-      <c r="H87" s="11">
+      <c r="M87" s="11">
         <v>15736</v>
       </c>
-      <c r="I87" s="11">
+      <c r="N87" s="11">
         <v>10776</v>
       </c>
     </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B88" s="8" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C88" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D88" s="9"/>
       <c r="E88" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F88" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
+      </c>
+      <c r="F88" s="9">
+        <v>0</v>
       </c>
       <c r="G88" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H88" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
+      </c>
+      <c r="H88" s="9">
+        <v>0</v>
       </c>
       <c r="I88" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="J88" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K88" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L88" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="M88" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N88" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B89" s="10" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C89" s="11" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D89" s="11"/>
-      <c r="E89" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F89" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G89" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H89" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="I89" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="E89" s="11">
+        <v>0</v>
+      </c>
+      <c r="F89" s="11">
+        <v>0</v>
+      </c>
+      <c r="G89" s="11">
+        <v>0</v>
+      </c>
+      <c r="H89" s="11">
+        <v>0</v>
+      </c>
+      <c r="I89" s="11">
+        <v>0</v>
+      </c>
+      <c r="J89" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="K89" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="L89" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="M89" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="N89" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B90" s="8" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C90" s="9" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D90" s="9"/>
-      <c r="E90" s="9">
+      <c r="E90" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F90" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G90" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H90" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="I90" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="J90" s="9">
         <v>2950</v>
       </c>
-      <c r="F90" s="9">
+      <c r="K90" s="9">
         <v>4300</v>
       </c>
-      <c r="G90" s="9">
+      <c r="L90" s="9">
         <v>4300</v>
       </c>
-      <c r="H90" s="9">
+      <c r="M90" s="9">
         <v>4246</v>
       </c>
-      <c r="I90" s="9">
+      <c r="N90" s="9">
         <v>4246</v>
       </c>
     </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B91" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C91" s="13"/>
       <c r="D91" s="13"/>
       <c r="E91" s="13">
+        <v>824437</v>
+      </c>
+      <c r="F91" s="13">
+        <v>813305</v>
+      </c>
+      <c r="G91" s="13">
+        <v>868478</v>
+      </c>
+      <c r="H91" s="13">
+        <v>793323</v>
+      </c>
+      <c r="I91" s="13">
+        <v>879660</v>
+      </c>
+      <c r="J91" s="13">
         <v>1135670</v>
       </c>
-      <c r="F91" s="13">
+      <c r="K91" s="13">
         <v>1125688</v>
       </c>
-      <c r="G91" s="13">
+      <c r="L91" s="13">
         <v>980613</v>
       </c>
-      <c r="H91" s="13">
+      <c r="M91" s="13">
         <v>1044573</v>
       </c>
-      <c r="I91" s="13">
+      <c r="N91" s="13">
         <v>981351</v>
       </c>
     </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
@@ -2564,8 +3704,13 @@
       <c r="G92" s="1"/>
       <c r="H92" s="1"/>
       <c r="I92" s="1"/>
-    </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J92" s="1"/>
+      <c r="K92" s="1"/>
+      <c r="L92" s="1"/>
+      <c r="M92" s="1"/>
+      <c r="N92" s="1"/>
+    </row>
+    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
@@ -2574,8 +3719,13 @@
       <c r="G93" s="1"/>
       <c r="H93" s="1"/>
       <c r="I93" s="1"/>
-    </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J93" s="1"/>
+      <c r="K93" s="1"/>
+      <c r="L93" s="1"/>
+      <c r="M93" s="1"/>
+      <c r="N93" s="1"/>
+    </row>
+    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
@@ -2584,10 +3734,15 @@
       <c r="G94" s="1"/>
       <c r="H94" s="1"/>
       <c r="I94" s="1"/>
-    </row>
-    <row r="95" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J94" s="1"/>
+      <c r="K94" s="1"/>
+      <c r="L94" s="1"/>
+      <c r="M94" s="1"/>
+      <c r="N94" s="1"/>
+    </row>
+    <row r="95" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B95" s="7" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C95" s="6"/>
       <c r="D95" s="6"/>
@@ -2606,8 +3761,23 @@
       <c r="I95" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J95" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K95" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L95" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M95" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N95" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
@@ -2616,294 +3786,479 @@
       <c r="G96" s="1"/>
       <c r="H96" s="1"/>
       <c r="I96" s="1"/>
-    </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J96" s="1"/>
+      <c r="K96" s="1"/>
+      <c r="L96" s="1"/>
+      <c r="M96" s="1"/>
+      <c r="N96" s="1"/>
+    </row>
+    <row r="97" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B97" s="8" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C97" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D97" s="9"/>
       <c r="E97" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F97" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G97" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H97" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
+      </c>
+      <c r="H97" s="9">
+        <v>0</v>
       </c>
       <c r="I97" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="J97" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K97" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L97" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="M97" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N97" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B98" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C98" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D98" s="11"/>
       <c r="E98" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F98" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G98" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H98" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I98" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="J98" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="K98" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="L98" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="M98" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="N98" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="99" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B99" s="8" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C99" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D99" s="9"/>
       <c r="E99" s="9">
+        <v>67</v>
+      </c>
+      <c r="F99" s="9">
+        <v>8749</v>
+      </c>
+      <c r="G99" s="9">
+        <v>10902</v>
+      </c>
+      <c r="H99" s="9">
+        <v>12787</v>
+      </c>
+      <c r="I99" s="9">
+        <v>9657</v>
+      </c>
+      <c r="J99" s="9">
         <v>11476</v>
       </c>
-      <c r="F99" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G99" s="9">
+      <c r="K99" s="9">
+        <v>16182</v>
+      </c>
+      <c r="L99" s="9">
         <v>24944</v>
       </c>
-      <c r="H99" s="9">
+      <c r="M99" s="9">
         <v>18700</v>
       </c>
-      <c r="I99" s="9">
+      <c r="N99" s="9">
         <v>24094</v>
       </c>
     </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B100" s="10" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C100" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D100" s="11"/>
       <c r="E100" s="11">
+        <v>5384</v>
+      </c>
+      <c r="F100" s="11">
+        <v>5384</v>
+      </c>
+      <c r="G100" s="11">
+        <v>5384</v>
+      </c>
+      <c r="H100" s="11">
+        <v>5384</v>
+      </c>
+      <c r="I100" s="11">
+        <v>5699</v>
+      </c>
+      <c r="J100" s="11">
         <v>5188</v>
       </c>
-      <c r="F100" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G100" s="11">
+      <c r="K100" s="11">
+        <v>4646</v>
+      </c>
+      <c r="L100" s="11">
         <v>4705</v>
       </c>
-      <c r="H100" s="11">
+      <c r="M100" s="11">
         <v>2107</v>
       </c>
-      <c r="I100" s="11">
+      <c r="N100" s="11">
         <v>1928</v>
       </c>
     </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B101" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C101" s="9" t="s">
         <v>31</v>
-      </c>
-      <c r="C101" s="9" t="s">
-        <v>25</v>
       </c>
       <c r="D101" s="9"/>
       <c r="E101" s="9">
+        <v>159</v>
+      </c>
+      <c r="F101" s="9">
+        <v>159</v>
+      </c>
+      <c r="G101" s="9">
+        <v>159</v>
+      </c>
+      <c r="H101" s="9">
+        <v>159</v>
+      </c>
+      <c r="I101" s="9">
+        <v>159</v>
+      </c>
+      <c r="J101" s="9">
         <v>10022</v>
       </c>
-      <c r="F101" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G101" s="9">
+      <c r="K101" s="9">
+        <v>10022</v>
+      </c>
+      <c r="L101" s="9">
         <v>152</v>
       </c>
-      <c r="H101" s="9">
+      <c r="M101" s="9">
         <v>152</v>
       </c>
-      <c r="I101" s="9">
+      <c r="N101" s="9">
         <v>152</v>
       </c>
     </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B102" s="10" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C102" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D102" s="11"/>
       <c r="E102" s="11">
+        <v>3058</v>
+      </c>
+      <c r="F102" s="11">
+        <v>3982</v>
+      </c>
+      <c r="G102" s="11">
+        <v>9302</v>
+      </c>
+      <c r="H102" s="11">
+        <v>24141</v>
+      </c>
+      <c r="I102" s="11">
+        <v>15971</v>
+      </c>
+      <c r="J102" s="11">
         <v>56587</v>
       </c>
-      <c r="F102" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G102" s="11">
+      <c r="K102" s="11">
+        <v>112535</v>
+      </c>
+      <c r="L102" s="11">
         <v>146710</v>
       </c>
-      <c r="H102" s="11">
+      <c r="M102" s="11">
         <v>141325</v>
       </c>
-      <c r="I102" s="11">
+      <c r="N102" s="11">
         <v>170960</v>
       </c>
     </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B103" s="8" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C103" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D103" s="9"/>
       <c r="E103" s="9">
+        <v>25387</v>
+      </c>
+      <c r="F103" s="9">
+        <v>22731</v>
+      </c>
+      <c r="G103" s="9">
+        <v>36648</v>
+      </c>
+      <c r="H103" s="9">
+        <v>50498</v>
+      </c>
+      <c r="I103" s="9">
+        <v>52517</v>
+      </c>
+      <c r="J103" s="9">
         <v>71185</v>
       </c>
-      <c r="F103" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G103" s="9">
+      <c r="K103" s="9">
+        <v>140457</v>
+      </c>
+      <c r="L103" s="9">
         <v>145597</v>
       </c>
-      <c r="H103" s="9">
+      <c r="M103" s="9">
         <v>201189</v>
       </c>
-      <c r="I103" s="9">
+      <c r="N103" s="9">
         <v>139884</v>
       </c>
     </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B104" s="10" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C104" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D104" s="11"/>
       <c r="E104" s="11">
+        <v>4951</v>
+      </c>
+      <c r="F104" s="11">
+        <v>6358</v>
+      </c>
+      <c r="G104" s="11">
+        <v>6274</v>
+      </c>
+      <c r="H104" s="11">
+        <v>826</v>
+      </c>
+      <c r="I104" s="11">
+        <v>25915</v>
+      </c>
+      <c r="J104" s="11">
         <v>1125</v>
       </c>
-      <c r="F104" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G104" s="11">
+      <c r="K104" s="11">
+        <v>62905</v>
+      </c>
+      <c r="L104" s="11">
         <v>54258</v>
       </c>
-      <c r="H104" s="11">
+      <c r="M104" s="11">
         <v>4695</v>
       </c>
-      <c r="I104" s="11">
+      <c r="N104" s="11">
         <v>94344</v>
       </c>
     </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B105" s="8" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C105" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D105" s="9"/>
       <c r="E105" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F105" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
+      </c>
+      <c r="F105" s="9">
+        <v>0</v>
       </c>
       <c r="G105" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H105" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
+      </c>
+      <c r="H105" s="9">
+        <v>0</v>
       </c>
       <c r="I105" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="J105" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K105" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L105" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="M105" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N105" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="106" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B106" s="10" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C106" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D106" s="11"/>
       <c r="E106" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F106" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G106" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H106" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="I106" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="F106" s="11">
+        <v>0</v>
+      </c>
+      <c r="G106" s="11">
+        <v>0</v>
+      </c>
+      <c r="H106" s="11">
+        <v>0</v>
+      </c>
+      <c r="I106" s="11">
+        <v>0</v>
+      </c>
+      <c r="J106" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="K106" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="L106" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="M106" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="N106" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="107" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B107" s="8" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C107" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D107" s="9"/>
-      <c r="E107" s="9">
-        <v>0</v>
+      <c r="E107" s="9" t="s">
+        <v>25</v>
       </c>
       <c r="F107" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G107" s="9">
+        <v>25</v>
+      </c>
+      <c r="G107" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H107" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="I107" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="J107" s="9">
+        <v>0</v>
+      </c>
+      <c r="K107" s="9">
+        <v>1951</v>
+      </c>
+      <c r="L107" s="9">
         <v>2827</v>
       </c>
-      <c r="H107" s="9">
+      <c r="M107" s="9">
         <v>2827</v>
       </c>
-      <c r="I107" s="9">
+      <c r="N107" s="9">
         <v>2747</v>
       </c>
     </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B108" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C108" s="13"/>
       <c r="D108" s="13"/>
       <c r="E108" s="13">
+        <v>39006</v>
+      </c>
+      <c r="F108" s="13">
+        <v>47363</v>
+      </c>
+      <c r="G108" s="13">
+        <v>68669</v>
+      </c>
+      <c r="H108" s="13">
+        <v>93795</v>
+      </c>
+      <c r="I108" s="13">
+        <v>109918</v>
+      </c>
+      <c r="J108" s="13">
         <v>155583</v>
       </c>
-      <c r="F108" s="13">
-        <v>0</v>
-      </c>
-      <c r="G108" s="13">
+      <c r="K108" s="13">
+        <v>348698</v>
+      </c>
+      <c r="L108" s="13">
         <v>379193</v>
       </c>
-      <c r="H108" s="13">
+      <c r="M108" s="13">
         <v>370995</v>
       </c>
-      <c r="I108" s="13">
+      <c r="N108" s="13">
         <v>434109</v>
       </c>
     </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
@@ -2912,8 +4267,13 @@
       <c r="G109" s="1"/>
       <c r="H109" s="1"/>
       <c r="I109" s="1"/>
-    </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J109" s="1"/>
+      <c r="K109" s="1"/>
+      <c r="L109" s="1"/>
+      <c r="M109" s="1"/>
+      <c r="N109" s="1"/>
+    </row>
+    <row r="110" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
@@ -2922,8 +4282,13 @@
       <c r="G110" s="1"/>
       <c r="H110" s="1"/>
       <c r="I110" s="1"/>
-    </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J110" s="1"/>
+      <c r="K110" s="1"/>
+      <c r="L110" s="1"/>
+      <c r="M110" s="1"/>
+      <c r="N110" s="1"/>
+    </row>
+    <row r="111" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
@@ -2932,10 +4297,15 @@
       <c r="G111" s="1"/>
       <c r="H111" s="1"/>
       <c r="I111" s="1"/>
-    </row>
-    <row r="112" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J111" s="1"/>
+      <c r="K111" s="1"/>
+      <c r="L111" s="1"/>
+      <c r="M111" s="1"/>
+      <c r="N111" s="1"/>
+    </row>
+    <row r="112" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B112" s="7" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C112" s="6"/>
       <c r="D112" s="6"/>
@@ -2954,8 +4324,23 @@
       <c r="I112" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J112" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K112" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L112" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M112" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N112" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="113" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
@@ -2964,109 +4349,174 @@
       <c r="G113" s="1"/>
       <c r="H113" s="1"/>
       <c r="I113" s="1"/>
-    </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J113" s="1"/>
+      <c r="K113" s="1"/>
+      <c r="L113" s="1"/>
+      <c r="M113" s="1"/>
+      <c r="N113" s="1"/>
+    </row>
+    <row r="114" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B114" s="8" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C114" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D114" s="9"/>
       <c r="E114" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F114" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G114" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H114" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
+      </c>
+      <c r="H114" s="9">
+        <v>0</v>
       </c>
       <c r="I114" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="115" spans="2:9" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="J114" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K114" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L114" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="M114" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N114" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="115" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B115" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C115" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D115" s="11"/>
       <c r="E115" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F115" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G115" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H115" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I115" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="J115" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="K115" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="L115" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="M115" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="N115" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="116" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B116" s="8" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C116" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D116" s="9"/>
       <c r="E116" s="9">
+        <v>27003</v>
+      </c>
+      <c r="F116" s="9">
+        <v>18087</v>
+      </c>
+      <c r="G116" s="9">
+        <v>30422</v>
+      </c>
+      <c r="H116" s="9">
+        <v>29529</v>
+      </c>
+      <c r="I116" s="9">
+        <v>52499</v>
+      </c>
+      <c r="J116" s="9">
         <v>28649</v>
       </c>
-      <c r="F116" s="9">
+      <c r="K116" s="9">
         <v>60045</v>
       </c>
-      <c r="G116" s="9">
+      <c r="L116" s="9">
         <v>58847</v>
       </c>
-      <c r="H116" s="9">
+      <c r="M116" s="9">
         <v>102645</v>
       </c>
-      <c r="I116" s="9">
+      <c r="N116" s="9">
         <v>85971</v>
       </c>
     </row>
-    <row r="117" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B117" s="10" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C117" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D117" s="11"/>
       <c r="E117" s="11">
         <v>0</v>
       </c>
       <c r="F117" s="11">
+        <v>0</v>
+      </c>
+      <c r="G117" s="11">
+        <v>0</v>
+      </c>
+      <c r="H117" s="11">
+        <v>315</v>
+      </c>
+      <c r="I117" s="11">
+        <v>1</v>
+      </c>
+      <c r="J117" s="11">
+        <v>0</v>
+      </c>
+      <c r="K117" s="11">
         <v>766</v>
       </c>
-      <c r="G117" s="11">
-        <v>0</v>
-      </c>
-      <c r="H117" s="11">
-        <v>0</v>
-      </c>
-      <c r="I117" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="L117" s="11">
+        <v>0</v>
+      </c>
+      <c r="M117" s="11">
+        <v>0</v>
+      </c>
+      <c r="N117" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B118" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C118" s="9" t="s">
         <v>31</v>
-      </c>
-      <c r="C118" s="9" t="s">
-        <v>25</v>
       </c>
       <c r="D118" s="9"/>
       <c r="E118" s="9">
@@ -3084,174 +4534,294 @@
       <c r="I118" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="119" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J118" s="9">
+        <v>0</v>
+      </c>
+      <c r="K118" s="9">
+        <v>0</v>
+      </c>
+      <c r="L118" s="9">
+        <v>0</v>
+      </c>
+      <c r="M118" s="9">
+        <v>0</v>
+      </c>
+      <c r="N118" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B119" s="10" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C119" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D119" s="11"/>
       <c r="E119" s="11">
+        <v>12213</v>
+      </c>
+      <c r="F119" s="11">
+        <v>16874</v>
+      </c>
+      <c r="G119" s="11">
+        <v>26728</v>
+      </c>
+      <c r="H119" s="11">
+        <v>13652</v>
+      </c>
+      <c r="I119" s="11">
+        <v>56959</v>
+      </c>
+      <c r="J119" s="11">
         <v>70413</v>
       </c>
-      <c r="F119" s="11">
+      <c r="K119" s="11">
         <v>51155</v>
       </c>
-      <c r="G119" s="11">
+      <c r="L119" s="11">
         <v>8764</v>
       </c>
-      <c r="H119" s="11">
+      <c r="M119" s="11">
         <v>48759</v>
       </c>
-      <c r="I119" s="11">
+      <c r="N119" s="11">
         <v>8216</v>
       </c>
     </row>
-    <row r="120" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B120" s="8" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C120" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D120" s="9"/>
       <c r="E120" s="9">
+        <v>33045</v>
+      </c>
+      <c r="F120" s="9">
+        <v>73184</v>
+      </c>
+      <c r="G120" s="9">
+        <v>70495</v>
+      </c>
+      <c r="H120" s="9">
+        <v>83199</v>
+      </c>
+      <c r="I120" s="9">
+        <v>139814</v>
+      </c>
+      <c r="J120" s="9">
         <v>154317</v>
       </c>
-      <c r="F120" s="9">
+      <c r="K120" s="9">
         <v>106710</v>
       </c>
-      <c r="G120" s="9">
+      <c r="L120" s="9">
         <v>203929</v>
       </c>
-      <c r="H120" s="9">
+      <c r="M120" s="9">
         <v>5464</v>
       </c>
-      <c r="I120" s="9">
+      <c r="N120" s="9">
         <v>179366</v>
       </c>
     </row>
-    <row r="121" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B121" s="10" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C121" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D121" s="11"/>
       <c r="E121" s="11">
+        <v>22398</v>
+      </c>
+      <c r="F121" s="11">
+        <v>16564</v>
+      </c>
+      <c r="G121" s="11">
+        <v>20977</v>
+      </c>
+      <c r="H121" s="11">
+        <v>53562</v>
+      </c>
+      <c r="I121" s="11">
+        <v>29808</v>
+      </c>
+      <c r="J121" s="11">
         <v>97875</v>
       </c>
-      <c r="F121" s="11">
+      <c r="K121" s="11">
         <v>50151</v>
       </c>
-      <c r="G121" s="11">
+      <c r="L121" s="11">
         <v>53403</v>
       </c>
-      <c r="H121" s="11">
+      <c r="M121" s="11">
         <v>193052</v>
       </c>
-      <c r="I121" s="11">
+      <c r="N121" s="11">
         <v>84466</v>
       </c>
     </row>
-    <row r="122" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B122" s="8" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C122" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D122" s="9"/>
       <c r="E122" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F122" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
+      </c>
+      <c r="F122" s="9">
+        <v>0</v>
       </c>
       <c r="G122" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H122" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
+      </c>
+      <c r="H122" s="9">
+        <v>0</v>
       </c>
       <c r="I122" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="123" spans="2:9" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="J122" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K122" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L122" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="M122" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N122" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="123" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B123" s="10" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C123" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D123" s="11"/>
       <c r="E123" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F123" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G123" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H123" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="I123" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="124" spans="2:9" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="F123" s="11">
+        <v>34089</v>
+      </c>
+      <c r="G123" s="11">
+        <v>0</v>
+      </c>
+      <c r="H123" s="11">
+        <v>0</v>
+      </c>
+      <c r="I123" s="11">
+        <v>0</v>
+      </c>
+      <c r="J123" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="K123" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="L123" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="M123" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="N123" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="124" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B124" s="8" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C124" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D124" s="9"/>
-      <c r="E124" s="9">
+      <c r="E124" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F124" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G124" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H124" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="I124" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="J124" s="9">
         <v>2109</v>
       </c>
-      <c r="F124" s="9">
+      <c r="K124" s="9">
         <v>975</v>
       </c>
-      <c r="G124" s="9">
-        <v>0</v>
-      </c>
-      <c r="H124" s="9">
+      <c r="L124" s="9">
+        <v>0</v>
+      </c>
+      <c r="M124" s="9">
         <v>-47</v>
       </c>
-      <c r="I124" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N124" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B125" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C125" s="13"/>
       <c r="D125" s="13"/>
       <c r="E125" s="13">
+        <v>94659</v>
+      </c>
+      <c r="F125" s="13">
+        <v>158798</v>
+      </c>
+      <c r="G125" s="13">
+        <v>148622</v>
+      </c>
+      <c r="H125" s="13">
+        <v>180257</v>
+      </c>
+      <c r="I125" s="13">
+        <v>279081</v>
+      </c>
+      <c r="J125" s="13">
         <v>353363</v>
       </c>
-      <c r="F125" s="13">
+      <c r="K125" s="13">
         <v>269802</v>
       </c>
-      <c r="G125" s="13">
+      <c r="L125" s="13">
         <v>324943</v>
       </c>
-      <c r="H125" s="13">
+      <c r="M125" s="13">
         <v>349873</v>
       </c>
-      <c r="I125" s="13">
+      <c r="N125" s="13">
         <v>358019</v>
       </c>
     </row>
-    <row r="126" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
@@ -3260,8 +4830,13 @@
       <c r="G126" s="1"/>
       <c r="H126" s="1"/>
       <c r="I126" s="1"/>
-    </row>
-    <row r="127" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J126" s="1"/>
+      <c r="K126" s="1"/>
+      <c r="L126" s="1"/>
+      <c r="M126" s="1"/>
+      <c r="N126" s="1"/>
+    </row>
+    <row r="127" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
       <c r="D127" s="1"/>
@@ -3270,8 +4845,13 @@
       <c r="G127" s="1"/>
       <c r="H127" s="1"/>
       <c r="I127" s="1"/>
-    </row>
-    <row r="128" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J127" s="1"/>
+      <c r="K127" s="1"/>
+      <c r="L127" s="1"/>
+      <c r="M127" s="1"/>
+      <c r="N127" s="1"/>
+    </row>
+    <row r="128" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
@@ -3280,10 +4860,15 @@
       <c r="G128" s="1"/>
       <c r="H128" s="1"/>
       <c r="I128" s="1"/>
-    </row>
-    <row r="129" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J128" s="1"/>
+      <c r="K128" s="1"/>
+      <c r="L128" s="1"/>
+      <c r="M128" s="1"/>
+      <c r="N128" s="1"/>
+    </row>
+    <row r="129" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B129" s="7" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C129" s="6"/>
       <c r="D129" s="6"/>
@@ -3302,8 +4887,23 @@
       <c r="I129" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="130" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J129" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K129" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L129" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M129" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N129" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="130" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
@@ -3312,109 +4912,174 @@
       <c r="G130" s="1"/>
       <c r="H130" s="1"/>
       <c r="I130" s="1"/>
-    </row>
-    <row r="131" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J130" s="1"/>
+      <c r="K130" s="1"/>
+      <c r="L130" s="1"/>
+      <c r="M130" s="1"/>
+      <c r="N130" s="1"/>
+    </row>
+    <row r="131" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B131" s="8" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C131" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D131" s="9"/>
       <c r="E131" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F131" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G131" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H131" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
+      </c>
+      <c r="H131" s="9">
+        <v>0</v>
       </c>
       <c r="I131" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="132" spans="2:9" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="J131" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K131" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L131" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="M131" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N131" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="132" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B132" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C132" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D132" s="11"/>
       <c r="E132" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F132" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G132" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H132" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I132" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="133" spans="2:9" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="J132" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="K132" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="L132" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="M132" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="N132" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="133" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B133" s="8" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C133" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D133" s="9"/>
       <c r="E133" s="9">
+        <v>18321</v>
+      </c>
+      <c r="F133" s="9">
+        <v>15934</v>
+      </c>
+      <c r="G133" s="9">
+        <v>28537</v>
+      </c>
+      <c r="H133" s="9">
+        <v>32659</v>
+      </c>
+      <c r="I133" s="9">
+        <v>50681</v>
+      </c>
+      <c r="J133" s="9">
         <v>23943</v>
       </c>
-      <c r="F133" s="9">
+      <c r="K133" s="9">
         <v>51283</v>
       </c>
-      <c r="G133" s="9">
+      <c r="L133" s="9">
         <v>65091</v>
       </c>
-      <c r="H133" s="9">
+      <c r="M133" s="9">
         <v>97251</v>
       </c>
-      <c r="I133" s="9">
+      <c r="N133" s="9">
         <v>84209</v>
       </c>
     </row>
-    <row r="134" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="134" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B134" s="10" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C134" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D134" s="11"/>
       <c r="E134" s="11">
+        <v>3</v>
+      </c>
+      <c r="F134" s="11">
+        <v>0</v>
+      </c>
+      <c r="G134" s="11">
+        <v>0</v>
+      </c>
+      <c r="H134" s="11">
+        <v>0</v>
+      </c>
+      <c r="I134" s="11">
+        <v>509</v>
+      </c>
+      <c r="J134" s="11">
         <v>542</v>
       </c>
-      <c r="F134" s="11">
+      <c r="K134" s="11">
         <v>707</v>
       </c>
-      <c r="G134" s="11">
+      <c r="L134" s="11">
         <v>2598</v>
       </c>
-      <c r="H134" s="11">
+      <c r="M134" s="11">
         <v>179</v>
       </c>
-      <c r="I134" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N134" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B135" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C135" s="9" t="s">
         <v>31</v>
-      </c>
-      <c r="C135" s="9" t="s">
-        <v>25</v>
       </c>
       <c r="D135" s="9"/>
       <c r="E135" s="9">
@@ -3432,174 +5097,294 @@
       <c r="I135" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="136" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J135" s="9">
+        <v>0</v>
+      </c>
+      <c r="K135" s="9">
+        <v>0</v>
+      </c>
+      <c r="L135" s="9">
+        <v>0</v>
+      </c>
+      <c r="M135" s="9">
+        <v>0</v>
+      </c>
+      <c r="N135" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B136" s="10" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C136" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D136" s="11"/>
       <c r="E136" s="11">
+        <v>11288</v>
+      </c>
+      <c r="F136" s="11">
+        <v>11554</v>
+      </c>
+      <c r="G136" s="11">
+        <v>11889</v>
+      </c>
+      <c r="H136" s="11">
+        <v>21822</v>
+      </c>
+      <c r="I136" s="11">
+        <v>16537</v>
+      </c>
+      <c r="J136" s="11">
         <v>14465</v>
       </c>
-      <c r="F136" s="11">
+      <c r="K136" s="11">
         <v>16979</v>
       </c>
-      <c r="G136" s="11">
+      <c r="L136" s="11">
         <v>14149</v>
       </c>
-      <c r="H136" s="11">
+      <c r="M136" s="11">
         <v>16657</v>
       </c>
-      <c r="I136" s="11">
+      <c r="N136" s="11">
         <v>18474</v>
       </c>
     </row>
-    <row r="137" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="137" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B137" s="8" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C137" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D137" s="9"/>
       <c r="E137" s="9">
+        <v>35698</v>
+      </c>
+      <c r="F137" s="9">
+        <v>59267</v>
+      </c>
+      <c r="G137" s="9">
+        <v>56645</v>
+      </c>
+      <c r="H137" s="9">
+        <v>81180</v>
+      </c>
+      <c r="I137" s="9">
+        <v>68223</v>
+      </c>
+      <c r="J137" s="9">
         <v>85045</v>
       </c>
-      <c r="F137" s="9">
+      <c r="K137" s="9">
         <v>101849</v>
       </c>
-      <c r="G137" s="9">
+      <c r="L137" s="9">
         <v>148337</v>
       </c>
-      <c r="H137" s="9">
+      <c r="M137" s="9">
         <v>66487</v>
       </c>
-      <c r="I137" s="9">
+      <c r="N137" s="9">
         <v>156047</v>
       </c>
     </row>
-    <row r="138" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="138" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B138" s="10" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C138" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D138" s="11"/>
       <c r="E138" s="11">
+        <v>20992</v>
+      </c>
+      <c r="F138" s="11">
+        <v>16648</v>
+      </c>
+      <c r="G138" s="11">
+        <v>26425</v>
+      </c>
+      <c r="H138" s="11">
+        <v>28473</v>
+      </c>
+      <c r="I138" s="11">
+        <v>54599</v>
+      </c>
+      <c r="J138" s="11">
         <v>36095</v>
       </c>
-      <c r="F138" s="11">
+      <c r="K138" s="11">
         <v>58798</v>
       </c>
-      <c r="G138" s="11">
+      <c r="L138" s="11">
         <v>102966</v>
       </c>
-      <c r="H138" s="11">
+      <c r="M138" s="11">
         <v>103403</v>
       </c>
-      <c r="I138" s="11">
+      <c r="N138" s="11">
         <v>121503</v>
       </c>
     </row>
-    <row r="139" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="139" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B139" s="8" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C139" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D139" s="9"/>
       <c r="E139" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F139" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
+      </c>
+      <c r="F139" s="9">
+        <v>0</v>
       </c>
       <c r="G139" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H139" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
+      </c>
+      <c r="H139" s="9">
+        <v>0</v>
       </c>
       <c r="I139" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="140" spans="2:9" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="J139" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K139" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L139" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="M139" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N139" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="140" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B140" s="10" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C140" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D140" s="11"/>
       <c r="E140" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F140" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G140" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H140" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="I140" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="141" spans="2:9" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="F140" s="11">
+        <v>34089</v>
+      </c>
+      <c r="G140" s="11">
+        <v>0</v>
+      </c>
+      <c r="H140" s="11">
+        <v>0</v>
+      </c>
+      <c r="I140" s="11">
+        <v>0</v>
+      </c>
+      <c r="J140" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="K140" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="L140" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="M140" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="N140" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="141" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B141" s="8" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C141" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D141" s="9"/>
-      <c r="E141" s="9">
+      <c r="E141" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F141" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G141" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H141" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="I141" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="J141" s="9">
         <v>158</v>
       </c>
-      <c r="F141" s="9">
+      <c r="K141" s="9">
         <v>99</v>
       </c>
-      <c r="G141" s="9">
-        <v>0</v>
-      </c>
-      <c r="H141" s="9">
+      <c r="L141" s="9">
+        <v>0</v>
+      </c>
+      <c r="M141" s="9">
         <v>33</v>
       </c>
-      <c r="I141" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N141" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B142" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C142" s="13"/>
       <c r="D142" s="13"/>
       <c r="E142" s="13">
+        <v>86302</v>
+      </c>
+      <c r="F142" s="13">
+        <v>137492</v>
+      </c>
+      <c r="G142" s="13">
+        <v>123496</v>
+      </c>
+      <c r="H142" s="13">
+        <v>164134</v>
+      </c>
+      <c r="I142" s="13">
+        <v>190549</v>
+      </c>
+      <c r="J142" s="13">
         <v>160248</v>
       </c>
-      <c r="F142" s="13">
+      <c r="K142" s="13">
         <v>229715</v>
       </c>
-      <c r="G142" s="13">
+      <c r="L142" s="13">
         <v>333141</v>
       </c>
-      <c r="H142" s="13">
+      <c r="M142" s="13">
         <v>284010</v>
       </c>
-      <c r="I142" s="13">
+      <c r="N142" s="13">
         <v>380233</v>
       </c>
     </row>
-    <row r="143" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="143" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
       <c r="D143" s="1"/>
@@ -3608,8 +5393,13 @@
       <c r="G143" s="1"/>
       <c r="H143" s="1"/>
       <c r="I143" s="1"/>
-    </row>
-    <row r="144" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J143" s="1"/>
+      <c r="K143" s="1"/>
+      <c r="L143" s="1"/>
+      <c r="M143" s="1"/>
+      <c r="N143" s="1"/>
+    </row>
+    <row r="144" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
       <c r="D144" s="1"/>
@@ -3618,8 +5408,13 @@
       <c r="G144" s="1"/>
       <c r="H144" s="1"/>
       <c r="I144" s="1"/>
-    </row>
-    <row r="145" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J144" s="1"/>
+      <c r="K144" s="1"/>
+      <c r="L144" s="1"/>
+      <c r="M144" s="1"/>
+      <c r="N144" s="1"/>
+    </row>
+    <row r="145" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
       <c r="D145" s="1"/>
@@ -3628,10 +5423,15 @@
       <c r="G145" s="1"/>
       <c r="H145" s="1"/>
       <c r="I145" s="1"/>
-    </row>
-    <row r="146" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J145" s="1"/>
+      <c r="K145" s="1"/>
+      <c r="L145" s="1"/>
+      <c r="M145" s="1"/>
+      <c r="N145" s="1"/>
+    </row>
+    <row r="146" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B146" s="7" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C146" s="6"/>
       <c r="D146" s="6"/>
@@ -3650,8 +5450,23 @@
       <c r="I146" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="147" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J146" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K146" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L146" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M146" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N146" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="147" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
       <c r="D147" s="1"/>
@@ -3660,294 +5475,479 @@
       <c r="G147" s="1"/>
       <c r="H147" s="1"/>
       <c r="I147" s="1"/>
-    </row>
-    <row r="148" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J147" s="1"/>
+      <c r="K147" s="1"/>
+      <c r="L147" s="1"/>
+      <c r="M147" s="1"/>
+      <c r="N147" s="1"/>
+    </row>
+    <row r="148" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B148" s="8" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C148" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D148" s="9"/>
       <c r="E148" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F148" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G148" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H148" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
+      </c>
+      <c r="H148" s="9">
+        <v>0</v>
       </c>
       <c r="I148" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="149" spans="2:9" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="J148" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K148" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L148" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="M148" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N148" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="149" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B149" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C149" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D149" s="11"/>
       <c r="E149" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F149" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G149" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H149" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I149" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="150" spans="2:9" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="J149" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="K149" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="L149" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="M149" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="N149" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="150" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B150" s="8" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C150" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D150" s="9"/>
       <c r="E150" s="9">
+        <v>8749</v>
+      </c>
+      <c r="F150" s="9">
+        <v>10902</v>
+      </c>
+      <c r="G150" s="9">
+        <v>12787</v>
+      </c>
+      <c r="H150" s="9">
+        <v>9657</v>
+      </c>
+      <c r="I150" s="9">
+        <v>11475</v>
+      </c>
+      <c r="J150" s="9">
         <v>16182</v>
       </c>
-      <c r="F150" s="9">
+      <c r="K150" s="9">
         <v>24944</v>
       </c>
-      <c r="G150" s="9">
+      <c r="L150" s="9">
         <v>18700</v>
       </c>
-      <c r="H150" s="9">
+      <c r="M150" s="9">
         <v>24093</v>
       </c>
-      <c r="I150" s="9">
+      <c r="N150" s="9">
         <v>25856</v>
       </c>
     </row>
-    <row r="151" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="151" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B151" s="10" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C151" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D151" s="11"/>
       <c r="E151" s="11">
+        <v>5384</v>
+      </c>
+      <c r="F151" s="11">
+        <v>5384</v>
+      </c>
+      <c r="G151" s="11">
+        <v>5384</v>
+      </c>
+      <c r="H151" s="11">
+        <v>5699</v>
+      </c>
+      <c r="I151" s="11">
+        <v>5191</v>
+      </c>
+      <c r="J151" s="11">
         <v>4646</v>
       </c>
-      <c r="F151" s="11">
+      <c r="K151" s="11">
         <v>4705</v>
       </c>
-      <c r="G151" s="11">
+      <c r="L151" s="11">
         <v>2107</v>
       </c>
-      <c r="H151" s="11">
+      <c r="M151" s="11">
         <v>1928</v>
       </c>
-      <c r="I151" s="11">
+      <c r="N151" s="11">
         <v>1928</v>
       </c>
     </row>
-    <row r="152" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="152" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B152" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C152" s="9" t="s">
         <v>31</v>
-      </c>
-      <c r="C152" s="9" t="s">
-        <v>25</v>
       </c>
       <c r="D152" s="9"/>
       <c r="E152" s="9">
+        <v>159</v>
+      </c>
+      <c r="F152" s="9">
+        <v>159</v>
+      </c>
+      <c r="G152" s="9">
+        <v>159</v>
+      </c>
+      <c r="H152" s="9">
+        <v>159</v>
+      </c>
+      <c r="I152" s="9">
+        <v>159</v>
+      </c>
+      <c r="J152" s="9">
         <v>10022</v>
       </c>
-      <c r="F152" s="9">
+      <c r="K152" s="9">
         <v>152</v>
       </c>
-      <c r="G152" s="9">
+      <c r="L152" s="9">
         <v>152</v>
       </c>
-      <c r="H152" s="9">
+      <c r="M152" s="9">
         <v>152</v>
       </c>
-      <c r="I152" s="9">
+      <c r="N152" s="9">
         <v>152</v>
       </c>
     </row>
-    <row r="153" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="153" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B153" s="10" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C153" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D153" s="11"/>
       <c r="E153" s="11">
+        <v>3982</v>
+      </c>
+      <c r="F153" s="11">
+        <v>9302</v>
+      </c>
+      <c r="G153" s="11">
+        <v>24141</v>
+      </c>
+      <c r="H153" s="11">
+        <v>15971</v>
+      </c>
+      <c r="I153" s="11">
+        <v>56393</v>
+      </c>
+      <c r="J153" s="11">
         <v>112535</v>
       </c>
-      <c r="F153" s="11">
+      <c r="K153" s="11">
         <v>146710</v>
       </c>
-      <c r="G153" s="11">
+      <c r="L153" s="11">
         <v>141325</v>
       </c>
-      <c r="H153" s="11">
+      <c r="M153" s="11">
         <v>173428</v>
       </c>
-      <c r="I153" s="11">
+      <c r="N153" s="11">
         <v>160702</v>
       </c>
     </row>
-    <row r="154" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="154" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B154" s="8" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C154" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D154" s="9"/>
       <c r="E154" s="9">
+        <v>22731</v>
+      </c>
+      <c r="F154" s="9">
+        <v>36648</v>
+      </c>
+      <c r="G154" s="9">
+        <v>50498</v>
+      </c>
+      <c r="H154" s="9">
+        <v>52517</v>
+      </c>
+      <c r="I154" s="9">
+        <v>124108</v>
+      </c>
+      <c r="J154" s="9">
         <v>140457</v>
       </c>
-      <c r="F154" s="9">
+      <c r="K154" s="9">
         <v>145597</v>
       </c>
-      <c r="G154" s="9">
+      <c r="L154" s="9">
         <v>201189</v>
       </c>
-      <c r="H154" s="9">
+      <c r="M154" s="9">
         <v>140166</v>
       </c>
-      <c r="I154" s="9">
+      <c r="N154" s="9">
         <v>163203</v>
       </c>
     </row>
-    <row r="155" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="155" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B155" s="10" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C155" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D155" s="11"/>
       <c r="E155" s="11">
+        <v>6358</v>
+      </c>
+      <c r="F155" s="11">
+        <v>6274</v>
+      </c>
+      <c r="G155" s="11">
+        <v>826</v>
+      </c>
+      <c r="H155" s="11">
+        <v>25915</v>
+      </c>
+      <c r="I155" s="11">
+        <v>1124</v>
+      </c>
+      <c r="J155" s="11">
         <v>62905</v>
       </c>
-      <c r="F155" s="11">
+      <c r="K155" s="11">
         <v>54258</v>
       </c>
-      <c r="G155" s="11">
+      <c r="L155" s="11">
         <v>4695</v>
       </c>
-      <c r="H155" s="11">
+      <c r="M155" s="11">
         <v>94344</v>
       </c>
-      <c r="I155" s="11">
+      <c r="N155" s="11">
         <v>57307</v>
       </c>
     </row>
-    <row r="156" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="156" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B156" s="8" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C156" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D156" s="9"/>
       <c r="E156" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F156" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
+      </c>
+      <c r="F156" s="9">
+        <v>0</v>
       </c>
       <c r="G156" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H156" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
+      </c>
+      <c r="H156" s="9">
+        <v>0</v>
       </c>
       <c r="I156" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="157" spans="2:9" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="J156" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K156" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L156" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="M156" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N156" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="157" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B157" s="10" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C157" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D157" s="11"/>
-      <c r="E157" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F157" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G157" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H157" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="I157" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="158" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="E157" s="11">
+        <v>0</v>
+      </c>
+      <c r="F157" s="11">
+        <v>0</v>
+      </c>
+      <c r="G157" s="11">
+        <v>0</v>
+      </c>
+      <c r="H157" s="11">
+        <v>0</v>
+      </c>
+      <c r="I157" s="11">
+        <v>0</v>
+      </c>
+      <c r="J157" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="K157" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="L157" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="M157" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="N157" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="158" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B158" s="8" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C158" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D158" s="9"/>
-      <c r="E158" s="9">
+      <c r="E158" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F158" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G158" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H158" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="I158" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="J158" s="9">
         <v>1951</v>
       </c>
-      <c r="F158" s="9">
+      <c r="K158" s="9">
         <v>2827</v>
       </c>
-      <c r="G158" s="9">
+      <c r="L158" s="9">
         <v>2827</v>
       </c>
-      <c r="H158" s="9">
+      <c r="M158" s="9">
         <v>2747</v>
       </c>
-      <c r="I158" s="9">
+      <c r="N158" s="9">
         <v>2747</v>
       </c>
     </row>
-    <row r="159" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="159" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B159" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C159" s="13"/>
       <c r="D159" s="13"/>
       <c r="E159" s="13">
+        <v>47363</v>
+      </c>
+      <c r="F159" s="13">
+        <v>68669</v>
+      </c>
+      <c r="G159" s="13">
+        <v>93795</v>
+      </c>
+      <c r="H159" s="13">
+        <v>109918</v>
+      </c>
+      <c r="I159" s="13">
+        <v>198450</v>
+      </c>
+      <c r="J159" s="13">
         <v>348698</v>
       </c>
-      <c r="F159" s="13">
+      <c r="K159" s="13">
         <v>379193</v>
       </c>
-      <c r="G159" s="13">
+      <c r="L159" s="13">
         <v>370995</v>
       </c>
-      <c r="H159" s="13">
+      <c r="M159" s="13">
         <v>436858</v>
       </c>
-      <c r="I159" s="13">
+      <c r="N159" s="13">
         <v>411895</v>
       </c>
     </row>
-    <row r="160" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="160" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
       <c r="D160" s="1"/>
@@ -3956,8 +5956,13 @@
       <c r="G160" s="1"/>
       <c r="H160" s="1"/>
       <c r="I160" s="1"/>
-    </row>
-    <row r="161" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J160" s="1"/>
+      <c r="K160" s="1"/>
+      <c r="L160" s="1"/>
+      <c r="M160" s="1"/>
+      <c r="N160" s="1"/>
+    </row>
+    <row r="161" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
       <c r="D161" s="1"/>
@@ -3966,8 +5971,13 @@
       <c r="G161" s="1"/>
       <c r="H161" s="1"/>
       <c r="I161" s="1"/>
-    </row>
-    <row r="162" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J161" s="1"/>
+      <c r="K161" s="1"/>
+      <c r="L161" s="1"/>
+      <c r="M161" s="1"/>
+      <c r="N161" s="1"/>
+    </row>
+    <row r="162" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
       <c r="D162" s="1"/>
@@ -3976,10 +5986,15 @@
       <c r="G162" s="1"/>
       <c r="H162" s="1"/>
       <c r="I162" s="1"/>
-    </row>
-    <row r="163" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J162" s="1"/>
+      <c r="K162" s="1"/>
+      <c r="L162" s="1"/>
+      <c r="M162" s="1"/>
+      <c r="N162" s="1"/>
+    </row>
+    <row r="163" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B163" s="7" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C163" s="6"/>
       <c r="D163" s="6"/>
@@ -3998,8 +6013,23 @@
       <c r="I163" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="164" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J163" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K163" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L163" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M163" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N163" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="164" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
       <c r="D164" s="1"/>
@@ -4008,200 +6038,325 @@
       <c r="G164" s="1"/>
       <c r="H164" s="1"/>
       <c r="I164" s="1"/>
-    </row>
-    <row r="165" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J164" s="1"/>
+      <c r="K164" s="1"/>
+      <c r="L164" s="1"/>
+      <c r="M164" s="1"/>
+      <c r="N164" s="1"/>
+    </row>
+    <row r="165" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B165" s="8" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C165" s="9" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D165" s="9"/>
       <c r="E165" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F165" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G165" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H165" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I165" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="166" spans="2:9" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="J165" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K165" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L165" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="M165" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N165" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="166" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B166" s="10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C166" s="11" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D166" s="11"/>
       <c r="E166" s="11">
+        <v>42191</v>
+      </c>
+      <c r="F166" s="11">
+        <v>37116</v>
+      </c>
+      <c r="G166" s="11">
+        <v>55158</v>
+      </c>
+      <c r="H166" s="11">
+        <v>80963</v>
+      </c>
+      <c r="I166" s="11">
+        <v>101493</v>
+      </c>
+      <c r="J166" s="11">
         <v>57546</v>
       </c>
-      <c r="F166" s="11">
+      <c r="K166" s="11">
         <v>82636</v>
       </c>
-      <c r="G166" s="11">
+      <c r="L166" s="11">
         <v>158439</v>
       </c>
-      <c r="H166" s="11">
+      <c r="M166" s="11">
         <v>160197</v>
       </c>
-      <c r="I166" s="11">
+      <c r="N166" s="11">
         <v>177654</v>
       </c>
     </row>
-    <row r="167" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="167" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B167" s="8" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C167" s="9" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D167" s="9"/>
       <c r="E167" s="9">
+        <v>640647</v>
+      </c>
+      <c r="F167" s="9">
+        <v>641029</v>
+      </c>
+      <c r="G167" s="9">
+        <v>641029</v>
+      </c>
+      <c r="H167" s="9">
+        <v>640952</v>
+      </c>
+      <c r="I167" s="9">
+        <v>670076</v>
+      </c>
+      <c r="J167" s="9">
         <v>1337458</v>
       </c>
-      <c r="F167" s="9">
+      <c r="K167" s="9">
         <v>1337748</v>
       </c>
-      <c r="G167" s="9">
+      <c r="L167" s="9">
         <v>1468019</v>
       </c>
-      <c r="H167" s="9">
+      <c r="M167" s="9">
         <v>1468293</v>
       </c>
-      <c r="I167" s="9">
+      <c r="N167" s="9">
         <v>1468393</v>
       </c>
     </row>
-    <row r="168" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="168" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B168" s="10" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C168" s="11" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D168" s="11"/>
       <c r="E168" s="11">
+        <v>943</v>
+      </c>
+      <c r="F168" s="11">
+        <v>944</v>
+      </c>
+      <c r="G168" s="11">
+        <v>944</v>
+      </c>
+      <c r="H168" s="11">
+        <v>944</v>
+      </c>
+      <c r="I168" s="11">
+        <v>944</v>
+      </c>
+      <c r="J168" s="11">
         <v>60102</v>
       </c>
-      <c r="F168" s="11">
+      <c r="K168" s="11">
         <v>60102</v>
       </c>
-      <c r="G168" s="11">
+      <c r="L168" s="11">
         <v>912</v>
       </c>
-      <c r="H168" s="11">
+      <c r="M168" s="11">
         <v>912</v>
       </c>
-      <c r="I168" s="11">
+      <c r="N168" s="11">
         <v>912</v>
       </c>
     </row>
-    <row r="169" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="169" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B169" s="8" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C169" s="9" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D169" s="9"/>
       <c r="E169" s="9">
+        <v>514728</v>
+      </c>
+      <c r="F169" s="9">
+        <v>539493</v>
+      </c>
+      <c r="G169" s="9">
+        <v>635513</v>
+      </c>
+      <c r="H169" s="9">
+        <v>720584</v>
+      </c>
+      <c r="I169" s="9">
+        <v>843866</v>
+      </c>
+      <c r="J169" s="9">
         <v>947665</v>
       </c>
-      <c r="F169" s="9">
+      <c r="K169" s="9">
         <v>1016393</v>
       </c>
-      <c r="G169" s="9">
+      <c r="L169" s="9">
         <v>1000907</v>
       </c>
-      <c r="H169" s="9">
+      <c r="M169" s="9">
         <v>990566</v>
       </c>
-      <c r="I169" s="9">
+      <c r="N169" s="9">
         <v>1066002</v>
       </c>
     </row>
-    <row r="170" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="170" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B170" s="10" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C170" s="11" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D170" s="11"/>
       <c r="E170" s="11">
+        <v>57321</v>
+      </c>
+      <c r="F170" s="11">
+        <v>57041</v>
+      </c>
+      <c r="G170" s="11">
+        <v>87329</v>
+      </c>
+      <c r="H170" s="11">
+        <v>101058</v>
+      </c>
+      <c r="I170" s="11">
+        <v>107298</v>
+      </c>
+      <c r="J170" s="11">
         <v>132879</v>
       </c>
-      <c r="F170" s="11">
+      <c r="K170" s="11">
         <v>223518</v>
       </c>
-      <c r="G170" s="11">
+      <c r="L170" s="11">
         <v>232345</v>
       </c>
-      <c r="H170" s="11">
+      <c r="M170" s="11">
         <v>367480</v>
       </c>
-      <c r="I170" s="11">
+      <c r="N170" s="11">
         <v>250429</v>
       </c>
     </row>
-    <row r="171" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="171" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B171" s="8" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C171" s="9" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D171" s="9"/>
       <c r="E171" s="9">
+        <v>744064</v>
+      </c>
+      <c r="F171" s="9">
+        <v>1070551</v>
+      </c>
+      <c r="G171" s="9">
+        <v>1403893</v>
+      </c>
+      <c r="H171" s="9">
+        <v>1852018</v>
+      </c>
+      <c r="I171" s="9">
+        <v>2025242</v>
+      </c>
+      <c r="J171" s="9">
         <v>161987</v>
       </c>
-      <c r="F171" s="9">
+      <c r="K171" s="9">
         <v>2282226</v>
       </c>
-      <c r="G171" s="9">
+      <c r="L171" s="9">
         <v>2611320</v>
       </c>
-      <c r="H171" s="9">
+      <c r="M171" s="9">
         <v>3777152</v>
       </c>
-      <c r="I171" s="9">
+      <c r="N171" s="9">
         <v>5995425</v>
       </c>
     </row>
-    <row r="172" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="172" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B172" s="10" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C172" s="11" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D172" s="11"/>
       <c r="E172" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F172" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G172" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H172" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="I172" s="11">
+        <v>25</v>
+      </c>
+      <c r="I172" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="J172" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="K172" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="L172" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="M172" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="N172" s="11">
         <v>646962</v>
       </c>
     </row>
-    <row r="173" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="173" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
       <c r="D173" s="1"/>
@@ -4210,8 +6365,13 @@
       <c r="G173" s="1"/>
       <c r="H173" s="1"/>
       <c r="I173" s="1"/>
-    </row>
-    <row r="174" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J173" s="1"/>
+      <c r="K173" s="1"/>
+      <c r="L173" s="1"/>
+      <c r="M173" s="1"/>
+      <c r="N173" s="1"/>
+    </row>
+    <row r="174" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
       <c r="D174" s="1"/>
@@ -4220,8 +6380,13 @@
       <c r="G174" s="1"/>
       <c r="H174" s="1"/>
       <c r="I174" s="1"/>
-    </row>
-    <row r="175" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J174" s="1"/>
+      <c r="K174" s="1"/>
+      <c r="L174" s="1"/>
+      <c r="M174" s="1"/>
+      <c r="N174" s="1"/>
+    </row>
+    <row r="175" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
       <c r="D175" s="1"/>
@@ -4230,10 +6395,15 @@
       <c r="G175" s="1"/>
       <c r="H175" s="1"/>
       <c r="I175" s="1"/>
-    </row>
-    <row r="176" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J175" s="1"/>
+      <c r="K175" s="1"/>
+      <c r="L175" s="1"/>
+      <c r="M175" s="1"/>
+      <c r="N175" s="1"/>
+    </row>
+    <row r="176" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B176" s="7" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C176" s="6"/>
       <c r="D176" s="6"/>
@@ -4252,8 +6422,23 @@
       <c r="I176" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="177" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J176" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K176" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L176" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M176" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N176" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="177" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
       <c r="D177" s="1"/>
@@ -4262,200 +6447,325 @@
       <c r="G177" s="1"/>
       <c r="H177" s="1"/>
       <c r="I177" s="1"/>
-    </row>
-    <row r="178" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J177" s="1"/>
+      <c r="K177" s="1"/>
+      <c r="L177" s="1"/>
+      <c r="M177" s="1"/>
+      <c r="N177" s="1"/>
+    </row>
+    <row r="178" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B178" s="8" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C178" s="9" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D178" s="9"/>
       <c r="E178" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F178" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G178" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H178" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I178" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="179" spans="2:9" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="J178" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K178" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L178" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="M178" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N178" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="179" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B179" s="10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C179" s="11" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D179" s="11"/>
       <c r="E179" s="11">
+        <v>43371</v>
+      </c>
+      <c r="F179" s="11">
+        <v>64988</v>
+      </c>
+      <c r="G179" s="11">
+        <v>121329</v>
+      </c>
+      <c r="H179" s="11">
+        <v>92259</v>
+      </c>
+      <c r="I179" s="11">
+        <v>172012</v>
+      </c>
+      <c r="J179" s="11">
         <v>95038</v>
       </c>
-      <c r="F179" s="11">
+      <c r="K179" s="11">
         <v>241684</v>
       </c>
-      <c r="G179" s="11">
+      <c r="L179" s="11">
         <v>160507</v>
       </c>
-      <c r="H179" s="11">
+      <c r="M179" s="11">
         <v>268925</v>
       </c>
-      <c r="I179" s="11">
+      <c r="N179" s="11">
         <v>240000</v>
       </c>
     </row>
-    <row r="180" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="180" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B180" s="8" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C180" s="9" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D180" s="9"/>
       <c r="E180" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F180" s="9">
+        <v>25</v>
+      </c>
+      <c r="F180" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G180" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H180" s="9">
+        <v>3000000</v>
+      </c>
+      <c r="I180" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="J180" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K180" s="9">
         <v>3596244</v>
       </c>
-      <c r="G180" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H180" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="I180" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="181" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="L180" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="M180" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N180" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="181" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B181" s="10" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C181" s="11" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D181" s="11"/>
       <c r="E181" s="11">
+        <v>466270</v>
+      </c>
+      <c r="F181" s="11">
+        <v>624177</v>
+      </c>
+      <c r="G181" s="11">
+        <v>744388</v>
+      </c>
+      <c r="H181" s="11">
+        <v>1165841</v>
+      </c>
+      <c r="I181" s="11">
+        <v>1045273</v>
+      </c>
+      <c r="J181" s="11">
         <v>1025606</v>
       </c>
-      <c r="F181" s="11">
+      <c r="K181" s="11">
         <v>1035778</v>
       </c>
-      <c r="G181" s="11">
+      <c r="L181" s="11">
         <v>865666</v>
       </c>
-      <c r="H181" s="11">
+      <c r="M181" s="11">
         <v>1363850</v>
       </c>
-      <c r="I181" s="11">
+      <c r="N181" s="11">
         <v>1400136</v>
       </c>
     </row>
-    <row r="182" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="182" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B182" s="8" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C182" s="9" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D182" s="9"/>
       <c r="E182" s="9">
+        <v>95788</v>
+      </c>
+      <c r="F182" s="9">
+        <v>161100</v>
+      </c>
+      <c r="G182" s="9">
+        <v>165146</v>
+      </c>
+      <c r="H182" s="9">
+        <v>174813</v>
+      </c>
+      <c r="I182" s="9">
+        <v>173225</v>
+      </c>
+      <c r="J182" s="9">
         <v>313986</v>
       </c>
-      <c r="F182" s="9">
+      <c r="K182" s="9">
         <v>222093</v>
       </c>
-      <c r="G182" s="9">
+      <c r="L182" s="9">
         <v>395214</v>
       </c>
-      <c r="H182" s="9">
+      <c r="M182" s="9">
         <v>10509</v>
       </c>
-      <c r="I182" s="9">
+      <c r="N182" s="9">
         <v>499863</v>
       </c>
     </row>
-    <row r="183" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="183" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B183" s="10" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C183" s="11" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D183" s="11"/>
       <c r="E183" s="11">
+        <v>1272252</v>
+      </c>
+      <c r="F183" s="11">
+        <v>1305177</v>
+      </c>
+      <c r="G183" s="11">
+        <v>2182830</v>
+      </c>
+      <c r="H183" s="11">
+        <v>1742817</v>
+      </c>
+      <c r="I183" s="11">
+        <v>3307957</v>
+      </c>
+      <c r="J183" s="11">
         <v>2616699</v>
       </c>
-      <c r="F183" s="11">
+      <c r="K183" s="11">
         <v>3326546</v>
       </c>
-      <c r="G183" s="11">
+      <c r="L183" s="11">
         <v>6115081</v>
       </c>
-      <c r="H183" s="11">
+      <c r="M183" s="11">
         <v>6238552</v>
       </c>
-      <c r="I183" s="11">
+      <c r="N183" s="11">
         <v>4968004</v>
       </c>
     </row>
-    <row r="184" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="184" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B184" s="8" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C184" s="9" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D184" s="9"/>
       <c r="E184" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F184" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
+      </c>
+      <c r="F184" s="9">
+        <v>1382753</v>
       </c>
       <c r="G184" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H184" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I184" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="185" spans="2:9" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="J184" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K184" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L184" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="M184" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N184" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="185" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B185" s="10" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C185" s="11" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D185" s="11"/>
-      <c r="E185" s="11">
+      <c r="E185" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F185" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="G185" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="H185" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="I185" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="J185" s="11">
         <v>660094</v>
       </c>
-      <c r="F185" s="11">
+      <c r="K185" s="11">
         <v>650000</v>
       </c>
-      <c r="G185" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H185" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="I185" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="186" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="L185" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="M185" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="N185" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="186" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
       <c r="D186" s="1"/>
@@ -4464,8 +6774,13 @@
       <c r="G186" s="1"/>
       <c r="H186" s="1"/>
       <c r="I186" s="1"/>
-    </row>
-    <row r="187" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J186" s="1"/>
+      <c r="K186" s="1"/>
+      <c r="L186" s="1"/>
+      <c r="M186" s="1"/>
+      <c r="N186" s="1"/>
+    </row>
+    <row r="187" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
       <c r="D187" s="1"/>
@@ -4474,8 +6789,13 @@
       <c r="G187" s="1"/>
       <c r="H187" s="1"/>
       <c r="I187" s="1"/>
-    </row>
-    <row r="188" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J187" s="1"/>
+      <c r="K187" s="1"/>
+      <c r="L187" s="1"/>
+      <c r="M187" s="1"/>
+      <c r="N187" s="1"/>
+    </row>
+    <row r="188" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
       <c r="D188" s="1"/>
@@ -4484,10 +6804,15 @@
       <c r="G188" s="1"/>
       <c r="H188" s="1"/>
       <c r="I188" s="1"/>
-    </row>
-    <row r="189" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J188" s="1"/>
+      <c r="K188" s="1"/>
+      <c r="L188" s="1"/>
+      <c r="M188" s="1"/>
+      <c r="N188" s="1"/>
+    </row>
+    <row r="189" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B189" s="7" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C189" s="6"/>
       <c r="D189" s="6"/>
@@ -4506,8 +6831,23 @@
       <c r="I189" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="190" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J189" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K189" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L189" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M189" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N189" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="190" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
       <c r="D190" s="1"/>
@@ -4516,224 +6856,364 @@
       <c r="G190" s="1"/>
       <c r="H190" s="1"/>
       <c r="I190" s="1"/>
-    </row>
-    <row r="191" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J190" s="1"/>
+      <c r="K190" s="1"/>
+      <c r="L190" s="1"/>
+      <c r="M190" s="1"/>
+      <c r="N190" s="1"/>
+    </row>
+    <row r="191" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B191" s="8" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C191" s="9" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D191" s="9"/>
       <c r="E191" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F191" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G191" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H191" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I191" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="192" spans="2:9" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="J191" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K191" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L191" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="M191" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N191" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="192" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B192" s="10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C192" s="11" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D192" s="11"/>
       <c r="E192" s="11">
+        <v>47162</v>
+      </c>
+      <c r="F192" s="11">
+        <v>50363</v>
+      </c>
+      <c r="G192" s="11">
+        <v>98251</v>
+      </c>
+      <c r="H192" s="11">
+        <v>85304</v>
+      </c>
+      <c r="I192" s="11">
+        <v>166993</v>
+      </c>
+      <c r="J192" s="11">
         <v>78490</v>
       </c>
-      <c r="F192" s="11">
+      <c r="K192" s="11">
         <v>178792</v>
       </c>
-      <c r="G192" s="11">
+      <c r="L192" s="11">
         <v>159796</v>
       </c>
-      <c r="H192" s="11">
+      <c r="M192" s="11">
         <v>268061</v>
       </c>
-      <c r="I192" s="11">
+      <c r="N192" s="11">
         <v>219753</v>
       </c>
     </row>
-    <row r="193" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="193" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B193" s="8" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C193" s="9" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D193" s="9"/>
       <c r="E193" s="9">
+        <v>600000</v>
+      </c>
+      <c r="F193" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G193" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H193" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="I193" s="9">
+        <v>668857</v>
+      </c>
+      <c r="J193" s="9">
         <v>1334975</v>
       </c>
-      <c r="F193" s="9">
+      <c r="K193" s="9">
         <v>1469854</v>
       </c>
-      <c r="G193" s="9">
+      <c r="L193" s="9">
         <v>1467797</v>
       </c>
-      <c r="H193" s="9">
+      <c r="M193" s="9">
         <v>1467213</v>
       </c>
-      <c r="I193" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="194" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N193" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="194" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B194" s="10" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C194" s="11" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D194" s="11"/>
       <c r="E194" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F194" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G194" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H194" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I194" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="195" spans="2:9" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="J194" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="K194" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="L194" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="M194" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="N194" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="195" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B195" s="8" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C195" s="9" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D195" s="9"/>
       <c r="E195" s="9">
+        <v>456007</v>
+      </c>
+      <c r="F195" s="9">
+        <v>584184</v>
+      </c>
+      <c r="G195" s="9">
+        <v>697711</v>
+      </c>
+      <c r="H195" s="9">
+        <v>830176</v>
+      </c>
+      <c r="I195" s="9">
+        <v>1032723</v>
+      </c>
+      <c r="J195" s="9">
         <v>819686</v>
       </c>
-      <c r="F195" s="9">
+      <c r="K195" s="9">
         <v>1254822</v>
       </c>
-      <c r="G195" s="9">
+      <c r="L195" s="9">
         <v>1008482</v>
       </c>
-      <c r="H195" s="9">
+      <c r="M195" s="9">
         <v>1034918</v>
       </c>
-      <c r="I195" s="9">
+      <c r="N195" s="9">
         <v>1077767</v>
       </c>
     </row>
-    <row r="196" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="196" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B196" s="10" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C196" s="11" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D196" s="11"/>
       <c r="E196" s="11">
+        <v>91682</v>
+      </c>
+      <c r="F196" s="11">
+        <v>136836</v>
+      </c>
+      <c r="G196" s="11">
+        <v>163324</v>
+      </c>
+      <c r="H196" s="11">
+        <v>166976</v>
+      </c>
+      <c r="I196" s="11">
+        <v>91221</v>
+      </c>
+      <c r="J196" s="11">
         <v>213253</v>
       </c>
-      <c r="F196" s="11">
+      <c r="K196" s="11">
         <v>211207</v>
       </c>
-      <c r="G196" s="11">
+      <c r="L196" s="11">
         <v>249241</v>
       </c>
-      <c r="H196" s="11">
+      <c r="M196" s="11">
         <v>130663</v>
       </c>
-      <c r="I196" s="11">
+      <c r="N196" s="11">
         <v>411862</v>
       </c>
     </row>
-    <row r="197" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="197" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B197" s="8" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C197" s="9" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D197" s="9"/>
       <c r="E197" s="9">
+        <v>1145914</v>
+      </c>
+      <c r="F197" s="9">
+        <v>1175623</v>
+      </c>
+      <c r="G197" s="9">
+        <v>1938169</v>
+      </c>
+      <c r="H197" s="9">
+        <v>1548877</v>
+      </c>
+      <c r="I197" s="9">
+        <v>2557809</v>
+      </c>
+      <c r="J197" s="9">
         <v>2150304</v>
       </c>
-      <c r="F197" s="9">
+      <c r="K197" s="9">
         <v>2689630</v>
       </c>
-      <c r="G197" s="9">
+      <c r="L197" s="9">
         <v>3642493</v>
       </c>
-      <c r="H197" s="9">
+      <c r="M197" s="9">
         <v>6285133</v>
       </c>
-      <c r="I197" s="9">
+      <c r="N197" s="9">
         <v>5532420</v>
       </c>
     </row>
-    <row r="198" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="198" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B198" s="10" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C198" s="11" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D198" s="11"/>
       <c r="E198" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F198" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
+      </c>
+      <c r="F198" s="11">
+        <v>1382753</v>
       </c>
       <c r="G198" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H198" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I198" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="199" spans="2:9" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="J198" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="K198" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="L198" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="M198" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="N198" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="199" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B199" s="8" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C199" s="9" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D199" s="9"/>
-      <c r="E199" s="9">
+      <c r="E199" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F199" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G199" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H199" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="I199" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="J199" s="9">
         <v>644898</v>
       </c>
-      <c r="F199" s="9">
+      <c r="K199" s="9">
         <v>660000</v>
       </c>
-      <c r="G199" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H199" s="9">
+      <c r="L199" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="M199" s="9">
         <v>611111</v>
       </c>
-      <c r="I199" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="200" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N199" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="200" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
       <c r="D200" s="1"/>
@@ -4742,8 +7222,13 @@
       <c r="G200" s="1"/>
       <c r="H200" s="1"/>
       <c r="I200" s="1"/>
-    </row>
-    <row r="201" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J200" s="1"/>
+      <c r="K200" s="1"/>
+      <c r="L200" s="1"/>
+      <c r="M200" s="1"/>
+      <c r="N200" s="1"/>
+    </row>
+    <row r="201" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B201" s="1"/>
       <c r="C201" s="1"/>
       <c r="D201" s="1"/>
@@ -4752,8 +7237,13 @@
       <c r="G201" s="1"/>
       <c r="H201" s="1"/>
       <c r="I201" s="1"/>
-    </row>
-    <row r="202" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J201" s="1"/>
+      <c r="K201" s="1"/>
+      <c r="L201" s="1"/>
+      <c r="M201" s="1"/>
+      <c r="N201" s="1"/>
+    </row>
+    <row r="202" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B202" s="1"/>
       <c r="C202" s="1"/>
       <c r="D202" s="1"/>
@@ -4762,10 +7252,15 @@
       <c r="G202" s="1"/>
       <c r="H202" s="1"/>
       <c r="I202" s="1"/>
-    </row>
-    <row r="203" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J202" s="1"/>
+      <c r="K202" s="1"/>
+      <c r="L202" s="1"/>
+      <c r="M202" s="1"/>
+      <c r="N202" s="1"/>
+    </row>
+    <row r="203" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B203" s="7" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C203" s="6"/>
       <c r="D203" s="6"/>
@@ -4784,8 +7279,23 @@
       <c r="I203" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="204" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J203" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K203" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L203" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M203" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N203" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="204" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B204" s="1"/>
       <c r="C204" s="1"/>
       <c r="D204" s="1"/>
@@ -4794,200 +7304,325 @@
       <c r="G204" s="1"/>
       <c r="H204" s="1"/>
       <c r="I204" s="1"/>
-    </row>
-    <row r="205" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J204" s="1"/>
+      <c r="K204" s="1"/>
+      <c r="L204" s="1"/>
+      <c r="M204" s="1"/>
+      <c r="N204" s="1"/>
+    </row>
+    <row r="205" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B205" s="8" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C205" s="9" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D205" s="9"/>
       <c r="E205" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F205" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G205" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H205" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I205" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="206" spans="2:9" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="J205" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K205" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L205" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="M205" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N205" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="206" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B206" s="10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C206" s="11" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D206" s="11"/>
-      <c r="E206" s="11">
+      <c r="E206" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F206" s="11">
+        <v>55158</v>
+      </c>
+      <c r="G206" s="11">
+        <v>80963</v>
+      </c>
+      <c r="H206" s="11">
+        <v>101493</v>
+      </c>
+      <c r="I206" s="11">
+        <v>118466</v>
+      </c>
+      <c r="J206" s="11">
         <v>82636</v>
       </c>
-      <c r="F206" s="11">
+      <c r="K206" s="11">
         <v>158439</v>
       </c>
-      <c r="G206" s="11">
+      <c r="L206" s="11">
         <v>160197</v>
       </c>
-      <c r="H206" s="11">
+      <c r="M206" s="11">
         <v>177647</v>
       </c>
-      <c r="I206" s="11">
+      <c r="N206" s="11">
         <v>233699</v>
       </c>
     </row>
-    <row r="207" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="207" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B207" s="8" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C207" s="9" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D207" s="9"/>
-      <c r="E207" s="9">
+      <c r="E207" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F207" s="9">
+        <v>641029</v>
+      </c>
+      <c r="G207" s="9">
+        <v>640952</v>
+      </c>
+      <c r="H207" s="9">
+        <v>670076</v>
+      </c>
+      <c r="I207" s="9">
+        <v>670325</v>
+      </c>
+      <c r="J207" s="9">
         <v>1337748</v>
       </c>
-      <c r="F207" s="9">
+      <c r="K207" s="9">
         <v>1468019</v>
       </c>
-      <c r="G207" s="9">
+      <c r="L207" s="9">
         <v>1468293</v>
       </c>
-      <c r="H207" s="9">
+      <c r="M207" s="9">
         <v>1468393</v>
       </c>
-      <c r="I207" s="9">
+      <c r="N207" s="9">
         <v>1468393</v>
       </c>
     </row>
-    <row r="208" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="208" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B208" s="10" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C208" s="11" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D208" s="11"/>
-      <c r="E208" s="11">
+      <c r="E208" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F208" s="11">
+        <v>944</v>
+      </c>
+      <c r="G208" s="11">
+        <v>944</v>
+      </c>
+      <c r="H208" s="11">
+        <v>944</v>
+      </c>
+      <c r="I208" s="11">
+        <v>944</v>
+      </c>
+      <c r="J208" s="11">
         <v>60102</v>
       </c>
-      <c r="F208" s="11">
+      <c r="K208" s="11">
         <v>912</v>
       </c>
-      <c r="G208" s="11">
+      <c r="L208" s="11">
         <v>912</v>
       </c>
-      <c r="H208" s="11">
+      <c r="M208" s="11">
         <v>912</v>
       </c>
-      <c r="I208" s="11">
+      <c r="N208" s="11">
         <v>912</v>
       </c>
     </row>
-    <row r="209" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="209" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B209" s="8" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C209" s="9" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D209" s="9"/>
-      <c r="E209" s="9">
+      <c r="E209" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F209" s="9">
+        <v>635513</v>
+      </c>
+      <c r="G209" s="9">
+        <v>720584</v>
+      </c>
+      <c r="H209" s="9">
+        <v>843866</v>
+      </c>
+      <c r="I209" s="9">
+        <v>982371</v>
+      </c>
+      <c r="J209" s="9">
         <v>1016393</v>
       </c>
-      <c r="F209" s="9">
+      <c r="K209" s="9">
         <v>1000907</v>
       </c>
-      <c r="G209" s="9">
+      <c r="L209" s="9">
         <v>990566</v>
       </c>
-      <c r="H209" s="9">
+      <c r="M209" s="9">
         <v>1068387</v>
       </c>
-      <c r="I209" s="9">
+      <c r="N209" s="9">
         <v>1077799</v>
       </c>
     </row>
-    <row r="210" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="210" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B210" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C210" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C210" s="11" t="s">
-        <v>28</v>
-      </c>
       <c r="D210" s="11"/>
-      <c r="E210" s="11">
+      <c r="E210" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F210" s="11">
+        <v>87329</v>
+      </c>
+      <c r="G210" s="11">
+        <v>101058</v>
+      </c>
+      <c r="H210" s="11">
+        <v>107298</v>
+      </c>
+      <c r="I210" s="11">
+        <v>226190</v>
+      </c>
+      <c r="J210" s="11">
         <v>223518</v>
       </c>
-      <c r="F210" s="11">
+      <c r="K210" s="11">
         <v>232345</v>
       </c>
-      <c r="G210" s="11">
+      <c r="L210" s="11">
         <v>367480</v>
       </c>
-      <c r="H210" s="11">
+      <c r="M210" s="11">
         <v>250934</v>
       </c>
-      <c r="I210" s="11">
+      <c r="N210" s="11">
         <v>303055</v>
       </c>
     </row>
-    <row r="211" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="211" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B211" s="8" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C211" s="9" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D211" s="9"/>
-      <c r="E211" s="9">
+      <c r="E211" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F211" s="9">
+        <v>1403893</v>
+      </c>
+      <c r="G211" s="9">
+        <v>1852018</v>
+      </c>
+      <c r="H211" s="9">
+        <v>2025242</v>
+      </c>
+      <c r="I211" s="9">
+        <v>2438178</v>
+      </c>
+      <c r="J211" s="9">
         <v>2282226</v>
       </c>
-      <c r="F211" s="9">
+      <c r="K211" s="9">
         <v>2611320</v>
       </c>
-      <c r="G211" s="9">
+      <c r="L211" s="9">
         <v>3777152</v>
       </c>
-      <c r="H211" s="9">
+      <c r="M211" s="9">
         <v>5995425</v>
       </c>
-      <c r="I211" s="9">
+      <c r="N211" s="9">
         <v>5318022</v>
       </c>
     </row>
-    <row r="212" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="212" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B212" s="10" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C212" s="11" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D212" s="11"/>
-      <c r="E212" s="11">
+      <c r="E212" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F212" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="G212" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="H212" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="I212" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="J212" s="11">
         <v>661356</v>
       </c>
-      <c r="F212" s="11">
+      <c r="K212" s="11">
         <v>657442</v>
       </c>
-      <c r="G212" s="11">
+      <c r="L212" s="11">
         <v>657442</v>
       </c>
-      <c r="H212" s="11">
+      <c r="M212" s="11">
         <v>646962</v>
       </c>
-      <c r="I212" s="11">
+      <c r="N212" s="11">
         <v>646962</v>
       </c>
     </row>
-    <row r="213" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="213" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B213" s="1"/>
       <c r="C213" s="1"/>
       <c r="D213" s="1"/>
@@ -4996,8 +7631,13 @@
       <c r="G213" s="1"/>
       <c r="H213" s="1"/>
       <c r="I213" s="1"/>
-    </row>
-    <row r="214" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J213" s="1"/>
+      <c r="K213" s="1"/>
+      <c r="L213" s="1"/>
+      <c r="M213" s="1"/>
+      <c r="N213" s="1"/>
+    </row>
+    <row r="214" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B214" s="1"/>
       <c r="C214" s="1"/>
       <c r="D214" s="1"/>
@@ -5006,8 +7646,13 @@
       <c r="G214" s="1"/>
       <c r="H214" s="1"/>
       <c r="I214" s="1"/>
-    </row>
-    <row r="215" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J214" s="1"/>
+      <c r="K214" s="1"/>
+      <c r="L214" s="1"/>
+      <c r="M214" s="1"/>
+      <c r="N214" s="1"/>
+    </row>
+    <row r="215" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B215" s="1"/>
       <c r="C215" s="1"/>
       <c r="D215" s="1"/>
@@ -5016,10 +7661,15 @@
       <c r="G215" s="1"/>
       <c r="H215" s="1"/>
       <c r="I215" s="1"/>
-    </row>
-    <row r="216" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J215" s="1"/>
+      <c r="K215" s="1"/>
+      <c r="L215" s="1"/>
+      <c r="M215" s="1"/>
+      <c r="N215" s="1"/>
+    </row>
+    <row r="216" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B216" s="7" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C216" s="6"/>
       <c r="D216" s="6"/>
@@ -5038,8 +7688,23 @@
       <c r="I216" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="217" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J216" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K216" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L216" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M216" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N216" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="217" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B217" s="1"/>
       <c r="C217" s="1"/>
       <c r="D217" s="1"/>
@@ -5048,32 +7713,52 @@
       <c r="G217" s="1"/>
       <c r="H217" s="1"/>
       <c r="I217" s="1"/>
-    </row>
-    <row r="218" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J217" s="1"/>
+      <c r="K217" s="1"/>
+      <c r="L217" s="1"/>
+      <c r="M217" s="1"/>
+      <c r="N217" s="1"/>
+    </row>
+    <row r="218" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B218" s="8" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C218" s="9"/>
       <c r="D218" s="9"/>
       <c r="E218" s="9">
+        <v>25376</v>
+      </c>
+      <c r="F218" s="9">
+        <v>28740</v>
+      </c>
+      <c r="G218" s="9">
+        <v>25307</v>
+      </c>
+      <c r="H218" s="9">
+        <v>2172</v>
+      </c>
+      <c r="I218" s="9">
+        <v>84230</v>
+      </c>
+      <c r="J218" s="9">
         <v>16224</v>
       </c>
-      <c r="F218" s="9">
+      <c r="K218" s="9">
         <v>48145</v>
       </c>
-      <c r="G218" s="9">
+      <c r="L218" s="9">
         <v>36108</v>
       </c>
-      <c r="H218" s="9">
+      <c r="M218" s="9">
         <v>-36108</v>
       </c>
-      <c r="I218" s="9">
+      <c r="N218" s="9">
         <v>25000</v>
       </c>
     </row>
-    <row r="219" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="219" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B219" s="10" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C219" s="11"/>
       <c r="D219" s="11"/>
@@ -5092,10 +7777,25 @@
       <c r="I219" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="220" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J219" s="11">
+        <v>0</v>
+      </c>
+      <c r="K219" s="11">
+        <v>0</v>
+      </c>
+      <c r="L219" s="11">
+        <v>0</v>
+      </c>
+      <c r="M219" s="11">
+        <v>0</v>
+      </c>
+      <c r="N219" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B220" s="8" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C220" s="9"/>
       <c r="D220" s="9"/>
@@ -5114,10 +7814,25 @@
       <c r="I220" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="221" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J220" s="9">
+        <v>0</v>
+      </c>
+      <c r="K220" s="9">
+        <v>0</v>
+      </c>
+      <c r="L220" s="9">
+        <v>0</v>
+      </c>
+      <c r="M220" s="9">
+        <v>0</v>
+      </c>
+      <c r="N220" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B221" s="10" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C221" s="11"/>
       <c r="D221" s="11"/>
@@ -5136,10 +7851,25 @@
       <c r="I221" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="222" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J221" s="11">
+        <v>0</v>
+      </c>
+      <c r="K221" s="11">
+        <v>0</v>
+      </c>
+      <c r="L221" s="11">
+        <v>0</v>
+      </c>
+      <c r="M221" s="11">
+        <v>0</v>
+      </c>
+      <c r="N221" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B222" s="8" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C222" s="9"/>
       <c r="D222" s="9"/>
@@ -5158,76 +7888,136 @@
       <c r="I222" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="223" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J222" s="9">
+        <v>0</v>
+      </c>
+      <c r="K222" s="9">
+        <v>0</v>
+      </c>
+      <c r="L222" s="9">
+        <v>0</v>
+      </c>
+      <c r="M222" s="9">
+        <v>0</v>
+      </c>
+      <c r="N222" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B223" s="10" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C223" s="11"/>
       <c r="D223" s="11"/>
       <c r="E223" s="11">
+        <v>99584</v>
+      </c>
+      <c r="F223" s="11">
+        <v>85303</v>
+      </c>
+      <c r="G223" s="11">
+        <v>62402</v>
+      </c>
+      <c r="H223" s="11">
+        <v>188735</v>
+      </c>
+      <c r="I223" s="11">
+        <v>213700</v>
+      </c>
+      <c r="J223" s="11">
         <v>227997</v>
       </c>
-      <c r="F223" s="11">
+      <c r="K223" s="11">
         <v>358828</v>
       </c>
-      <c r="G223" s="11">
+      <c r="L223" s="11">
         <v>369304</v>
       </c>
-      <c r="H223" s="11">
+      <c r="M223" s="11">
         <v>-369304</v>
       </c>
-      <c r="I223" s="11">
+      <c r="N223" s="11">
         <v>453276</v>
       </c>
     </row>
-    <row r="224" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="224" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B224" s="8" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C224" s="9"/>
       <c r="D224" s="9"/>
       <c r="E224" s="9">
+        <v>23636</v>
+      </c>
+      <c r="F224" s="9">
+        <v>23346</v>
+      </c>
+      <c r="G224" s="9">
+        <v>23499</v>
+      </c>
+      <c r="H224" s="9">
+        <v>23794</v>
+      </c>
+      <c r="I224" s="9">
+        <v>21089</v>
+      </c>
+      <c r="J224" s="9">
         <v>23961</v>
       </c>
-      <c r="F224" s="9">
+      <c r="K224" s="9">
         <v>23580</v>
       </c>
-      <c r="G224" s="9">
+      <c r="L224" s="9">
         <v>24531</v>
       </c>
-      <c r="H224" s="9">
+      <c r="M224" s="9">
         <v>-24531</v>
       </c>
-      <c r="I224" s="9">
+      <c r="N224" s="9">
         <v>22770</v>
       </c>
     </row>
-    <row r="225" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="225" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B225" s="10" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C225" s="11"/>
       <c r="D225" s="11"/>
       <c r="E225" s="11">
+        <v>137652</v>
+      </c>
+      <c r="F225" s="11">
+        <v>107614</v>
+      </c>
+      <c r="G225" s="11">
+        <v>220824</v>
+      </c>
+      <c r="H225" s="11">
+        <v>216800</v>
+      </c>
+      <c r="I225" s="11">
+        <v>-10332</v>
+      </c>
+      <c r="J225" s="11">
         <v>118185</v>
       </c>
-      <c r="F225" s="11">
+      <c r="K225" s="11">
         <v>148767</v>
       </c>
-      <c r="G225" s="11">
+      <c r="L225" s="11">
         <v>214593</v>
       </c>
-      <c r="H225" s="11">
+      <c r="M225" s="11">
         <v>267891</v>
       </c>
-      <c r="I225" s="11">
+      <c r="N225" s="11">
         <v>234659</v>
       </c>
     </row>
-    <row r="226" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="226" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B226" s="8" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C226" s="9"/>
       <c r="D226" s="9"/>
@@ -5246,52 +8036,97 @@
       <c r="I226" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="227" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J226" s="9">
+        <v>0</v>
+      </c>
+      <c r="K226" s="9">
+        <v>0</v>
+      </c>
+      <c r="L226" s="9">
+        <v>0</v>
+      </c>
+      <c r="M226" s="9">
+        <v>0</v>
+      </c>
+      <c r="N226" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B227" s="10" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C227" s="11"/>
       <c r="D227" s="11"/>
       <c r="E227" s="11">
+        <v>131777</v>
+      </c>
+      <c r="F227" s="11">
+        <v>359879</v>
+      </c>
+      <c r="G227" s="11">
+        <v>258898</v>
+      </c>
+      <c r="H227" s="11">
+        <v>381768</v>
+      </c>
+      <c r="I227" s="11">
+        <v>673102</v>
+      </c>
+      <c r="J227" s="11">
         <v>506172</v>
       </c>
-      <c r="F227" s="11">
+      <c r="K227" s="11">
         <v>688779</v>
       </c>
-      <c r="G227" s="11">
+      <c r="L227" s="11">
         <v>544851</v>
       </c>
-      <c r="H227" s="11">
+      <c r="M227" s="11">
         <v>1263659</v>
       </c>
-      <c r="I227" s="11">
+      <c r="N227" s="11">
         <v>569890</v>
       </c>
     </row>
-    <row r="228" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="228" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B228" s="14" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C228" s="15"/>
       <c r="D228" s="15"/>
       <c r="E228" s="15">
+        <v>418025</v>
+      </c>
+      <c r="F228" s="15">
+        <v>604882</v>
+      </c>
+      <c r="G228" s="15">
+        <v>590930</v>
+      </c>
+      <c r="H228" s="15">
+        <v>813269</v>
+      </c>
+      <c r="I228" s="15">
+        <v>981789</v>
+      </c>
+      <c r="J228" s="15">
         <v>892539</v>
       </c>
-      <c r="F228" s="15">
+      <c r="K228" s="15">
         <v>1268099</v>
       </c>
-      <c r="G228" s="15">
+      <c r="L228" s="15">
         <v>1189387</v>
       </c>
-      <c r="H228" s="15">
+      <c r="M228" s="15">
         <v>1101607</v>
       </c>
-      <c r="I228" s="15">
+      <c r="N228" s="15">
         <v>1305595</v>
       </c>
     </row>
-    <row r="229" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="229" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B229" s="1"/>
       <c r="C229" s="1"/>
       <c r="D229" s="1"/>
@@ -5300,8 +8135,13 @@
       <c r="G229" s="1"/>
       <c r="H229" s="1"/>
       <c r="I229" s="1"/>
-    </row>
-    <row r="230" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J229" s="1"/>
+      <c r="K229" s="1"/>
+      <c r="L229" s="1"/>
+      <c r="M229" s="1"/>
+      <c r="N229" s="1"/>
+    </row>
+    <row r="230" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B230" s="1"/>
       <c r="C230" s="1"/>
       <c r="D230" s="1"/>
@@ -5310,8 +8150,13 @@
       <c r="G230" s="1"/>
       <c r="H230" s="1"/>
       <c r="I230" s="1"/>
-    </row>
-    <row r="231" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J230" s="1"/>
+      <c r="K230" s="1"/>
+      <c r="L230" s="1"/>
+      <c r="M230" s="1"/>
+      <c r="N230" s="1"/>
+    </row>
+    <row r="231" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B231" s="1"/>
       <c r="C231" s="1"/>
       <c r="D231" s="1"/>
@@ -5320,10 +8165,15 @@
       <c r="G231" s="1"/>
       <c r="H231" s="1"/>
       <c r="I231" s="1"/>
-    </row>
-    <row r="232" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J231" s="1"/>
+      <c r="K231" s="1"/>
+      <c r="L231" s="1"/>
+      <c r="M231" s="1"/>
+      <c r="N231" s="1"/>
+    </row>
+    <row r="232" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B232" s="7" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C232" s="6"/>
       <c r="D232" s="6"/>
@@ -5332,8 +8182,13 @@
       <c r="G232" s="1"/>
       <c r="H232" s="1"/>
       <c r="I232" s="1"/>
-    </row>
-    <row r="233" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J232" s="1"/>
+      <c r="K232" s="1"/>
+      <c r="L232" s="1"/>
+      <c r="M232" s="1"/>
+      <c r="N232" s="1"/>
+    </row>
+    <row r="233" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B233" s="1"/>
       <c r="C233" s="1"/>
       <c r="D233" s="1"/>
@@ -5342,13 +8197,18 @@
       <c r="G233" s="1"/>
       <c r="H233" s="1"/>
       <c r="I233" s="1"/>
-    </row>
-    <row r="234" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J233" s="1"/>
+      <c r="K233" s="1"/>
+      <c r="L233" s="1"/>
+      <c r="M233" s="1"/>
+      <c r="N233" s="1"/>
+    </row>
+    <row r="234" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B234" s="8" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C234" s="9" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="D234" s="9"/>
       <c r="E234" s="9"/>
@@ -5356,123 +8216,128 @@
       <c r="G234" s="1"/>
       <c r="H234" s="1"/>
       <c r="I234" s="1"/>
-    </row>
-    <row r="235" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J234" s="1"/>
+      <c r="K234" s="1"/>
+      <c r="L234" s="1"/>
+      <c r="M234" s="1"/>
+      <c r="N234" s="1"/>
+    </row>
+    <row r="235" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B235" s="10" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C235" s="11" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="D235" s="11"/>
       <c r="E235" s="11"/>
       <c r="F235" s="11"/>
     </row>
-    <row r="236" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="236" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B236" s="8" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C236" s="9" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="D236" s="9"/>
       <c r="E236" s="9"/>
       <c r="F236" s="9"/>
     </row>
-    <row r="237" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="237" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B237" s="10" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C237" s="11" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D237" s="11"/>
       <c r="E237" s="11"/>
       <c r="F237" s="11"/>
     </row>
-    <row r="238" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="238" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B238" s="8" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C238" s="9" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="D238" s="9"/>
       <c r="E238" s="9"/>
       <c r="F238" s="9"/>
     </row>
-    <row r="239" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="239" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B239" s="10" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C239" s="11" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="D239" s="11"/>
       <c r="E239" s="11"/>
       <c r="F239" s="11"/>
     </row>
-    <row r="240" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="240" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B240" s="8" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C240" s="9" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="D240" s="9"/>
       <c r="E240" s="9"/>
       <c r="F240" s="9"/>
     </row>
-    <row r="241" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="241" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B241" s="10" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C241" s="11" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="D241" s="11"/>
       <c r="E241" s="11"/>
       <c r="F241" s="11"/>
     </row>
-    <row r="242" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="242" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B242" s="8" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C242" s="9" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="D242" s="9"/>
       <c r="E242" s="9"/>
       <c r="F242" s="9"/>
     </row>
-    <row r="243" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="243" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B243" s="10" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C243" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="D243" s="11"/>
       <c r="E243" s="11"/>
       <c r="F243" s="11"/>
     </row>
-    <row r="244" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="244" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B244" s="8" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C244" s="9" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="D244" s="9"/>
       <c r="E244" s="9"/>
       <c r="F244" s="9"/>
     </row>
-    <row r="245" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="245" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B245" s="10" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="C245" s="11" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="D245" s="11"/>
       <c r="E245" s="11"/>

--- a/database/industries/siman/seshargh/cost/quarterly.xlsx
+++ b/database/industries/siman/seshargh/cost/quarterly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\siman\seshargh\cost\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\siman\seshargh\cost\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B9BD201-8516-4602-9DF7-D10EB6AFE27E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{612F9DCA-1829-42BD-BB8E-7DDB279544D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="880" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="862" uniqueCount="92">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -34,9 +34,6 @@
     <t>بهای تمام شده</t>
   </si>
   <si>
-    <t>فصل چهارم منتهی به 1399/06</t>
-  </si>
-  <si>
     <t>فصل اول منتهی به 1399/09</t>
   </si>
   <si>
@@ -64,6 +61,9 @@
     <t>فصل اول منتهی به 1401/09</t>
   </si>
   <si>
+    <t>فصل دوم منتهی به 1401/12</t>
+  </si>
+  <si>
     <t>مواد مستقیم مصرفی</t>
   </si>
   <si>
@@ -97,25 +97,25 @@
     <t>موجودی کالای ساخته شده پایان دوره</t>
   </si>
   <si>
+    <t>بهای تمام شده کالای فروش رفته</t>
+  </si>
+  <si>
+    <t>بهای تمام شده خدمات ارایه شده</t>
+  </si>
+  <si>
+    <t>جمع بهای تمام شده</t>
+  </si>
+  <si>
+    <t>مقدار موجودی اول دوره</t>
+  </si>
+  <si>
+    <t>مواد اولیه وارداتی</t>
+  </si>
+  <si>
+    <t>میلیون ریال</t>
+  </si>
+  <si>
     <t>-</t>
-  </si>
-  <si>
-    <t>بهای تمام شده کالای فروش رفته</t>
-  </si>
-  <si>
-    <t>بهای تمام شده خدمات ارایه شده</t>
-  </si>
-  <si>
-    <t>جمع بهای تمام شده</t>
-  </si>
-  <si>
-    <t>مقدار موجودی اول دوره</t>
-  </si>
-  <si>
-    <t>مواد اولیه وارداتی</t>
-  </si>
-  <si>
-    <t>میلیون ریال</t>
   </si>
   <si>
     <t>سنگ آهک کارخانه</t>
@@ -755,12 +755,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -775,7 +775,7 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -792,7 +792,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -809,7 +809,7 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -824,7 +824,7 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -841,7 +841,7 @@
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
     </row>
-    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -858,7 +858,7 @@
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -873,7 +873,7 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
@@ -910,7 +910,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -925,155 +925,155 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9">
-        <v>310091</v>
+        <v>137492</v>
       </c>
       <c r="F10" s="9">
-        <v>137492</v>
+        <v>123496</v>
       </c>
       <c r="G10" s="9">
-        <v>123496</v>
+        <v>164134</v>
       </c>
       <c r="H10" s="9">
-        <v>164134</v>
+        <v>162045</v>
       </c>
       <c r="I10" s="9">
-        <v>162045</v>
+        <v>160248</v>
       </c>
       <c r="J10" s="9">
-        <v>160248</v>
+        <v>229715</v>
       </c>
       <c r="K10" s="9">
-        <v>229715</v>
+        <v>333141</v>
       </c>
       <c r="L10" s="9">
-        <v>333141</v>
+        <v>284010</v>
       </c>
       <c r="M10" s="9">
-        <v>284010</v>
+        <v>380233</v>
       </c>
       <c r="N10" s="9">
-        <v>380233</v>
-      </c>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+        <v>295154</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>15</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
-        <v>15315</v>
+        <v>18348</v>
       </c>
       <c r="F11" s="11">
-        <v>18348</v>
+        <v>20372</v>
       </c>
       <c r="G11" s="11">
-        <v>20372</v>
+        <v>31170</v>
       </c>
       <c r="H11" s="11">
-        <v>31170</v>
+        <v>-702</v>
       </c>
       <c r="I11" s="11">
-        <v>-702</v>
+        <v>16921</v>
       </c>
       <c r="J11" s="11">
-        <v>16921</v>
+        <v>17256</v>
       </c>
       <c r="K11" s="11">
-        <v>17256</v>
+        <v>36058</v>
       </c>
       <c r="L11" s="11">
-        <v>36058</v>
+        <v>27430</v>
       </c>
       <c r="M11" s="11">
-        <v>27430</v>
+        <v>35463</v>
       </c>
       <c r="N11" s="11">
-        <v>35463</v>
-      </c>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+        <v>42690</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>16</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9">
-        <v>418025</v>
+        <v>604882</v>
       </c>
       <c r="F12" s="9">
-        <v>604882</v>
+        <v>590930</v>
       </c>
       <c r="G12" s="9">
-        <v>590930</v>
+        <v>813269</v>
       </c>
       <c r="H12" s="9">
-        <v>813269</v>
+        <v>981789</v>
       </c>
       <c r="I12" s="9">
-        <v>981789</v>
+        <v>892539</v>
       </c>
       <c r="J12" s="9">
-        <v>892539</v>
+        <v>1268099</v>
       </c>
       <c r="K12" s="9">
-        <v>1268099</v>
+        <v>1189387</v>
       </c>
       <c r="L12" s="9">
-        <v>1189387</v>
+        <v>1101607</v>
       </c>
       <c r="M12" s="9">
-        <v>1101607</v>
+        <v>1305595</v>
       </c>
       <c r="N12" s="9">
-        <v>1305595</v>
-      </c>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1265872</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B13" s="12" t="s">
         <v>17</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
       <c r="E13" s="13">
-        <v>743431</v>
+        <v>760722</v>
       </c>
       <c r="F13" s="13">
-        <v>760722</v>
+        <v>734798</v>
       </c>
       <c r="G13" s="13">
-        <v>734798</v>
+        <v>1008573</v>
       </c>
       <c r="H13" s="13">
-        <v>1008573</v>
+        <v>1143132</v>
       </c>
       <c r="I13" s="13">
-        <v>1143132</v>
+        <v>1069708</v>
       </c>
       <c r="J13" s="13">
-        <v>1069708</v>
+        <v>1515070</v>
       </c>
       <c r="K13" s="13">
-        <v>1515070</v>
+        <v>1558586</v>
       </c>
       <c r="L13" s="13">
-        <v>1558586</v>
+        <v>1413047</v>
       </c>
       <c r="M13" s="13">
-        <v>1413047</v>
+        <v>1721291</v>
       </c>
       <c r="N13" s="13">
-        <v>1721291</v>
-      </c>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1603716</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
         <v>18</v>
       </c>
@@ -1110,81 +1110,81 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
         <v>19</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13">
-        <v>743431</v>
+        <v>760722</v>
       </c>
       <c r="F15" s="13">
-        <v>760722</v>
+        <v>734798</v>
       </c>
       <c r="G15" s="13">
-        <v>734798</v>
+        <v>1008573</v>
       </c>
       <c r="H15" s="13">
-        <v>1008573</v>
+        <v>1143132</v>
       </c>
       <c r="I15" s="13">
-        <v>1143132</v>
+        <v>1069708</v>
       </c>
       <c r="J15" s="13">
-        <v>1069708</v>
+        <v>1515070</v>
       </c>
       <c r="K15" s="13">
-        <v>1515070</v>
+        <v>1558586</v>
       </c>
       <c r="L15" s="13">
-        <v>1558586</v>
+        <v>1413047</v>
       </c>
       <c r="M15" s="13">
-        <v>1413047</v>
+        <v>1721291</v>
       </c>
       <c r="N15" s="13">
-        <v>1721291</v>
-      </c>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1603716</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
         <v>20</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
       <c r="E16" s="9">
-        <v>-106614</v>
+        <v>-55454</v>
       </c>
       <c r="F16" s="9">
-        <v>-55454</v>
+        <v>-8061</v>
       </c>
       <c r="G16" s="9">
-        <v>-8061</v>
+        <v>-125396</v>
       </c>
       <c r="H16" s="9">
-        <v>-125396</v>
+        <v>-113203</v>
       </c>
       <c r="I16" s="9">
-        <v>-113203</v>
+        <v>-135342</v>
       </c>
       <c r="J16" s="9">
-        <v>-135342</v>
+        <v>-323247</v>
       </c>
       <c r="K16" s="9">
-        <v>-323247</v>
+        <v>-508589</v>
       </c>
       <c r="L16" s="9">
-        <v>-508589</v>
+        <v>-71236</v>
       </c>
       <c r="M16" s="9">
-        <v>-71236</v>
+        <v>-189868</v>
       </c>
       <c r="N16" s="9">
-        <v>-189868</v>
-      </c>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-93288</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>21</v>
       </c>
@@ -1221,157 +1221,157 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B18" s="14" t="s">
         <v>22</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
       <c r="E18" s="15">
-        <v>636817</v>
+        <v>705268</v>
       </c>
       <c r="F18" s="15">
-        <v>705268</v>
+        <v>726737</v>
       </c>
       <c r="G18" s="15">
-        <v>726737</v>
+        <v>883177</v>
       </c>
       <c r="H18" s="15">
-        <v>883177</v>
+        <v>1029929</v>
       </c>
       <c r="I18" s="15">
-        <v>1029929</v>
+        <v>934366</v>
       </c>
       <c r="J18" s="15">
-        <v>934366</v>
+        <v>1191823</v>
       </c>
       <c r="K18" s="15">
-        <v>1191823</v>
+        <v>1049997</v>
       </c>
       <c r="L18" s="15">
-        <v>1049997</v>
+        <v>1341811</v>
       </c>
       <c r="M18" s="15">
-        <v>1341811</v>
+        <v>1531423</v>
       </c>
       <c r="N18" s="15">
-        <v>1531423</v>
-      </c>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1510428</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>23</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
       <c r="E19" s="11">
-        <v>16043</v>
+        <v>67663</v>
       </c>
       <c r="F19" s="11">
-        <v>67663</v>
+        <v>0</v>
       </c>
       <c r="G19" s="11">
         <v>0</v>
       </c>
       <c r="H19" s="11">
-        <v>0</v>
+        <v>72099</v>
       </c>
       <c r="I19" s="11">
-        <v>18492</v>
+        <v>109328</v>
       </c>
       <c r="J19" s="11">
-        <v>109328</v>
+        <v>133414</v>
       </c>
       <c r="K19" s="11">
-        <v>133414</v>
+        <v>145874</v>
       </c>
       <c r="L19" s="11">
-        <v>109328</v>
+        <v>115997</v>
       </c>
       <c r="M19" s="11">
-        <v>61128</v>
+        <v>60831</v>
       </c>
       <c r="N19" s="11">
-        <v>60831</v>
-      </c>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+        <v>95863</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
-      <c r="E20" s="9" t="s">
+      <c r="E20" s="9">
+        <v>-72207</v>
+      </c>
+      <c r="F20" s="9">
+        <v>-18384</v>
+      </c>
+      <c r="G20" s="9">
+        <v>18492</v>
+      </c>
+      <c r="H20" s="9">
+        <v>-61128</v>
+      </c>
+      <c r="I20" s="9">
+        <v>-133414</v>
+      </c>
+      <c r="J20" s="9">
+        <v>-145874</v>
+      </c>
+      <c r="K20" s="9">
+        <v>-115997</v>
+      </c>
+      <c r="L20" s="9">
+        <v>-60831</v>
+      </c>
+      <c r="M20" s="9">
+        <v>-95863</v>
+      </c>
+      <c r="N20" s="9">
+        <v>-94748</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B21" s="12" t="s">
         <v>25</v>
-      </c>
-      <c r="F20" s="9">
-        <v>-72207</v>
-      </c>
-      <c r="G20" s="9">
-        <v>-18384</v>
-      </c>
-      <c r="H20" s="9">
-        <v>18492</v>
-      </c>
-      <c r="I20" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="J20" s="9">
-        <v>-133414</v>
-      </c>
-      <c r="K20" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="L20" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="M20" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="N20" s="9">
-        <v>-95863</v>
-      </c>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B21" s="12" t="s">
-        <v>26</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
       <c r="E21" s="13">
-        <v>638642</v>
+        <v>700724</v>
       </c>
       <c r="F21" s="13">
-        <v>700724</v>
+        <v>708353</v>
       </c>
       <c r="G21" s="13">
-        <v>708353</v>
+        <v>901669</v>
       </c>
       <c r="H21" s="13">
-        <v>901669</v>
+        <v>1003980</v>
       </c>
       <c r="I21" s="13">
-        <v>1003980</v>
+        <v>910280</v>
       </c>
       <c r="J21" s="13">
-        <v>910280</v>
+        <v>1179363</v>
       </c>
       <c r="K21" s="13">
-        <v>1179363</v>
+        <v>1079874</v>
       </c>
       <c r="L21" s="13">
-        <v>1079874</v>
+        <v>1348777</v>
       </c>
       <c r="M21" s="13">
-        <v>1348777</v>
+        <v>1496391</v>
       </c>
       <c r="N21" s="13">
-        <v>1496391</v>
-      </c>
-    </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1511543</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
@@ -1406,44 +1406,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
       <c r="E23" s="13">
-        <v>638642</v>
+        <v>700724</v>
       </c>
       <c r="F23" s="13">
-        <v>700724</v>
+        <v>708353</v>
       </c>
       <c r="G23" s="13">
-        <v>708353</v>
+        <v>901669</v>
       </c>
       <c r="H23" s="13">
-        <v>901669</v>
+        <v>1003980</v>
       </c>
       <c r="I23" s="13">
-        <v>1003980</v>
+        <v>910280</v>
       </c>
       <c r="J23" s="13">
-        <v>910280</v>
+        <v>1179363</v>
       </c>
       <c r="K23" s="13">
-        <v>1179363</v>
+        <v>1079874</v>
       </c>
       <c r="L23" s="13">
-        <v>1079874</v>
+        <v>1348777</v>
       </c>
       <c r="M23" s="13">
-        <v>1348777</v>
+        <v>1496391</v>
       </c>
       <c r="N23" s="13">
-        <v>1496391</v>
-      </c>
-    </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1511543</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1458,7 +1458,7 @@
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1473,7 +1473,7 @@
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1488,9 +1488,9 @@
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
     </row>
-    <row r="27" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B27" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
@@ -1525,7 +1525,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1540,46 +1540,46 @@
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B29" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" s="9" t="s">
         <v>30</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>31</v>
       </c>
       <c r="D29" s="9"/>
       <c r="E29" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="G29" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="H29" s="9">
-        <v>0</v>
+        <v>31</v>
+      </c>
+      <c r="G29" s="9">
+        <v>0</v>
+      </c>
+      <c r="H29" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="I29" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J29" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K29" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L29" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M29" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N29" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B30" s="10" t="s">
         <v>32</v>
       </c>
@@ -1588,37 +1588,37 @@
       </c>
       <c r="D30" s="11"/>
       <c r="E30" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="G30" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="H30" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I30" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J30" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K30" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L30" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M30" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N30" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B31" s="8" t="s">
         <v>34</v>
       </c>
@@ -1627,37 +1627,37 @@
       </c>
       <c r="D31" s="9"/>
       <c r="E31" s="9">
-        <v>1588</v>
+        <v>235720</v>
       </c>
       <c r="F31" s="9">
-        <v>235720</v>
+        <v>197649</v>
       </c>
       <c r="G31" s="9">
-        <v>197649</v>
+        <v>157937</v>
       </c>
       <c r="H31" s="9">
-        <v>157937</v>
+        <v>95149</v>
       </c>
       <c r="I31" s="9">
-        <v>95149</v>
+        <v>199423</v>
       </c>
       <c r="J31" s="9">
-        <v>199423</v>
+        <v>195823</v>
       </c>
       <c r="K31" s="9">
-        <v>195823</v>
+        <v>157436</v>
       </c>
       <c r="L31" s="9">
-        <v>157436</v>
+        <v>116731</v>
       </c>
       <c r="M31" s="9">
-        <v>116731</v>
+        <v>135623</v>
       </c>
       <c r="N31" s="9">
-        <v>135623</v>
-      </c>
-    </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+        <v>110638</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B32" s="10" t="s">
         <v>35</v>
       </c>
@@ -1666,37 +1666,37 @@
       </c>
       <c r="D32" s="11"/>
       <c r="E32" s="11">
-        <v>8404</v>
+        <v>8399</v>
       </c>
       <c r="F32" s="11">
         <v>8399</v>
       </c>
       <c r="G32" s="11">
-        <v>8399</v>
+        <v>8400</v>
       </c>
       <c r="H32" s="11">
-        <v>8400</v>
+        <v>8505</v>
       </c>
       <c r="I32" s="11">
-        <v>8505</v>
+        <v>3879</v>
       </c>
       <c r="J32" s="11">
-        <v>3879</v>
+        <v>3473</v>
       </c>
       <c r="K32" s="11">
-        <v>3473</v>
+        <v>3205</v>
       </c>
       <c r="L32" s="11">
-        <v>3205</v>
+        <v>1435</v>
       </c>
       <c r="M32" s="11">
-        <v>1435</v>
+        <v>1313</v>
       </c>
       <c r="N32" s="11">
         <v>1313</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B33" s="8" t="s">
         <v>36</v>
       </c>
@@ -1705,19 +1705,19 @@
       </c>
       <c r="D33" s="9"/>
       <c r="E33" s="9">
-        <v>168612</v>
+        <v>168498</v>
       </c>
       <c r="F33" s="9">
         <v>168498</v>
       </c>
       <c r="G33" s="9">
-        <v>168498</v>
+        <v>168499</v>
       </c>
       <c r="H33" s="9">
         <v>168499</v>
       </c>
       <c r="I33" s="9">
-        <v>168499</v>
+        <v>166750</v>
       </c>
       <c r="J33" s="9">
         <v>166750</v>
@@ -1735,7 +1735,7 @@
         <v>166750</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B34" s="10" t="s">
         <v>37</v>
       </c>
@@ -1744,37 +1744,37 @@
       </c>
       <c r="D34" s="11"/>
       <c r="E34" s="11">
-        <v>5941</v>
+        <v>7381</v>
       </c>
       <c r="F34" s="11">
-        <v>7381</v>
+        <v>14637</v>
       </c>
       <c r="G34" s="11">
-        <v>14637</v>
+        <v>33502</v>
       </c>
       <c r="H34" s="11">
-        <v>33502</v>
+        <v>18926</v>
       </c>
       <c r="I34" s="11">
-        <v>18926</v>
+        <v>59712</v>
       </c>
       <c r="J34" s="11">
-        <v>59712</v>
+        <v>110720</v>
       </c>
       <c r="K34" s="11">
-        <v>110720</v>
+        <v>146577</v>
       </c>
       <c r="L34" s="11">
-        <v>146577</v>
+        <v>142671</v>
       </c>
       <c r="M34" s="11">
-        <v>142671</v>
+        <v>160375</v>
       </c>
       <c r="N34" s="11">
-        <v>160375</v>
-      </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+        <v>149102</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B35" s="8" t="s">
         <v>38</v>
       </c>
@@ -1783,37 +1783,37 @@
       </c>
       <c r="D35" s="9"/>
       <c r="E35" s="9">
-        <v>442888</v>
+        <v>398500</v>
       </c>
       <c r="F35" s="9">
-        <v>398500</v>
+        <v>419653</v>
       </c>
       <c r="G35" s="9">
-        <v>419653</v>
+        <v>499694</v>
       </c>
       <c r="H35" s="9">
-        <v>499694</v>
+        <v>489448</v>
       </c>
       <c r="I35" s="9">
-        <v>489448</v>
+        <v>535711</v>
       </c>
       <c r="J35" s="9">
-        <v>535711</v>
+        <v>628391</v>
       </c>
       <c r="K35" s="9">
-        <v>628391</v>
+        <v>626642</v>
       </c>
       <c r="L35" s="9">
-        <v>626642</v>
+        <v>547483</v>
       </c>
       <c r="M35" s="9">
-        <v>547483</v>
+        <v>558578</v>
       </c>
       <c r="N35" s="9">
-        <v>558578</v>
-      </c>
-    </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+        <v>538526</v>
+      </c>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B36" s="10" t="s">
         <v>39</v>
       </c>
@@ -1822,76 +1822,76 @@
       </c>
       <c r="D36" s="11"/>
       <c r="E36" s="11">
-        <v>6654</v>
+        <v>5939</v>
       </c>
       <c r="F36" s="11">
-        <v>5939</v>
+        <v>4469</v>
       </c>
       <c r="G36" s="11">
-        <v>4469</v>
+        <v>446</v>
       </c>
       <c r="H36" s="11">
-        <v>446</v>
+        <v>12796</v>
       </c>
       <c r="I36" s="11">
-        <v>12796</v>
+        <v>6945</v>
       </c>
       <c r="J36" s="11">
-        <v>6945</v>
+        <v>27563</v>
       </c>
       <c r="K36" s="11">
-        <v>27563</v>
+        <v>20778</v>
       </c>
       <c r="L36" s="11">
-        <v>20778</v>
+        <v>1243</v>
       </c>
       <c r="M36" s="11">
-        <v>1243</v>
+        <v>15736</v>
       </c>
       <c r="N36" s="11">
-        <v>15736</v>
-      </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+        <v>10776</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B37" s="8" t="s">
         <v>40</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D37" s="9"/>
-      <c r="E37" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F37" s="9">
-        <v>0</v>
-      </c>
-      <c r="G37" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="H37" s="9">
-        <v>0</v>
+      <c r="E37" s="9">
+        <v>0</v>
+      </c>
+      <c r="F37" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G37" s="9">
+        <v>0</v>
+      </c>
+      <c r="H37" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="I37" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J37" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K37" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L37" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M37" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N37" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B38" s="10" t="s">
         <v>41</v>
       </c>
@@ -1899,8 +1899,8 @@
         <v>33</v>
       </c>
       <c r="D38" s="11"/>
-      <c r="E38" s="11" t="s">
-        <v>25</v>
+      <c r="E38" s="11">
+        <v>0</v>
       </c>
       <c r="F38" s="11">
         <v>0</v>
@@ -1911,26 +1911,26 @@
       <c r="H38" s="11">
         <v>0</v>
       </c>
-      <c r="I38" s="11">
-        <v>0</v>
+      <c r="I38" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="J38" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K38" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L38" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M38" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N38" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B39" s="8" t="s">
         <v>42</v>
       </c>
@@ -1939,74 +1939,74 @@
       </c>
       <c r="D39" s="9"/>
       <c r="E39" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="G39" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="H39" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="I39" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
+      </c>
+      <c r="I39" s="9">
+        <v>0</v>
       </c>
       <c r="J39" s="9">
-        <v>0</v>
+        <v>2950</v>
       </c>
       <c r="K39" s="9">
-        <v>2950</v>
+        <v>4300</v>
       </c>
       <c r="L39" s="9">
         <v>4300</v>
       </c>
       <c r="M39" s="9">
-        <v>4300</v>
+        <v>4246</v>
       </c>
       <c r="N39" s="9">
         <v>4246</v>
       </c>
     </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B40" s="12" t="s">
         <v>17</v>
       </c>
       <c r="C40" s="13"/>
       <c r="D40" s="13"/>
       <c r="E40" s="13">
-        <v>634087</v>
+        <v>824437</v>
       </c>
       <c r="F40" s="13">
-        <v>824437</v>
+        <v>813305</v>
       </c>
       <c r="G40" s="13">
-        <v>813305</v>
+        <v>868478</v>
       </c>
       <c r="H40" s="13">
-        <v>868478</v>
+        <v>793323</v>
       </c>
       <c r="I40" s="13">
-        <v>793323</v>
+        <v>972420</v>
       </c>
       <c r="J40" s="13">
-        <v>972420</v>
+        <v>1135670</v>
       </c>
       <c r="K40" s="13">
-        <v>1135670</v>
+        <v>1125688</v>
       </c>
       <c r="L40" s="13">
-        <v>1125688</v>
+        <v>980613</v>
       </c>
       <c r="M40" s="13">
-        <v>980613</v>
+        <v>1042621</v>
       </c>
       <c r="N40" s="13">
-        <v>1042621</v>
-      </c>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+        <v>981351</v>
+      </c>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -2021,7 +2021,7 @@
       <c r="M41" s="1"/>
       <c r="N41" s="1"/>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -2036,7 +2036,7 @@
       <c r="M42" s="1"/>
       <c r="N42" s="1"/>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -2051,7 +2051,7 @@
       <c r="M43" s="1"/>
       <c r="N43" s="1"/>
     </row>
-    <row r="44" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B44" s="7" t="s">
         <v>43</v>
       </c>
@@ -2088,7 +2088,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -2103,46 +2103,46 @@
       <c r="M45" s="1"/>
       <c r="N45" s="1"/>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B46" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C46" s="9" t="s">
         <v>44</v>
       </c>
       <c r="D46" s="9"/>
       <c r="E46" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F46" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="G46" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="H46" s="9">
-        <v>0</v>
+        <v>31</v>
+      </c>
+      <c r="G46" s="9">
+        <v>0</v>
+      </c>
+      <c r="H46" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="I46" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J46" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K46" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L46" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M46" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N46" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B47" s="10" t="s">
         <v>32</v>
       </c>
@@ -2151,37 +2151,37 @@
       </c>
       <c r="D47" s="11"/>
       <c r="E47" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F47" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="G47" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="H47" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I47" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J47" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K47" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L47" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M47" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N47" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B48" s="8" t="s">
         <v>34</v>
       </c>
@@ -2190,37 +2190,37 @@
       </c>
       <c r="D48" s="9"/>
       <c r="E48" s="9">
-        <v>622603</v>
+        <v>278315</v>
       </c>
       <c r="F48" s="9">
-        <v>278315</v>
+        <v>250739</v>
       </c>
       <c r="G48" s="9">
-        <v>250739</v>
+        <v>320068</v>
       </c>
       <c r="H48" s="9">
-        <v>320068</v>
+        <v>305206</v>
       </c>
       <c r="I48" s="9">
-        <v>305206</v>
+        <v>301447</v>
       </c>
       <c r="J48" s="9">
-        <v>301447</v>
+        <v>248444</v>
       </c>
       <c r="K48" s="9">
-        <v>248444</v>
+        <v>366633</v>
       </c>
       <c r="L48" s="9">
-        <v>366633</v>
+        <v>381686</v>
       </c>
       <c r="M48" s="9">
-        <v>381686</v>
+        <v>358213</v>
       </c>
       <c r="N48" s="9">
-        <v>358213</v>
-      </c>
-    </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
+        <v>281983</v>
+      </c>
+    </row>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B49" s="10" t="s">
         <v>35</v>
       </c>
@@ -2235,19 +2235,19 @@
         <v>0</v>
       </c>
       <c r="G49" s="11">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="H49" s="11">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="I49" s="11">
         <v>0</v>
       </c>
       <c r="J49" s="11">
-        <v>0</v>
+        <v>213</v>
       </c>
       <c r="K49" s="11">
-        <v>213</v>
+        <v>0</v>
       </c>
       <c r="L49" s="11">
         <v>0</v>
@@ -2259,7 +2259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B50" s="8" t="s">
         <v>36</v>
       </c>
@@ -2298,7 +2298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B51" s="10" t="s">
         <v>37</v>
       </c>
@@ -2307,37 +2307,37 @@
       </c>
       <c r="D51" s="11"/>
       <c r="E51" s="11">
-        <v>26193</v>
+        <v>27034</v>
       </c>
       <c r="F51" s="11">
-        <v>27034</v>
+        <v>35906</v>
       </c>
       <c r="G51" s="11">
-        <v>35906</v>
+        <v>11710</v>
       </c>
       <c r="H51" s="11">
-        <v>11710</v>
+        <v>54492</v>
       </c>
       <c r="I51" s="11">
-        <v>54492</v>
+        <v>68655</v>
       </c>
       <c r="J51" s="11">
-        <v>68655</v>
+        <v>49388</v>
       </c>
       <c r="K51" s="11">
-        <v>49388</v>
+        <v>10124</v>
       </c>
       <c r="L51" s="11">
-        <v>10124</v>
+        <v>35751</v>
       </c>
       <c r="M51" s="11">
-        <v>35751</v>
+        <v>5868</v>
       </c>
       <c r="N51" s="11">
-        <v>5868</v>
-      </c>
-    </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
+        <v>22498</v>
+      </c>
+    </row>
+    <row r="52" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B52" s="8" t="s">
         <v>38</v>
       </c>
@@ -2346,37 +2346,37 @@
       </c>
       <c r="D52" s="9"/>
       <c r="E52" s="9">
-        <v>344979</v>
+        <v>454276</v>
       </c>
       <c r="F52" s="9">
-        <v>454276</v>
+        <v>426866</v>
       </c>
       <c r="G52" s="9">
-        <v>426866</v>
+        <v>475932</v>
       </c>
       <c r="H52" s="9">
-        <v>475932</v>
+        <v>807123</v>
       </c>
       <c r="I52" s="9">
-        <v>807123</v>
+        <v>491478</v>
       </c>
       <c r="J52" s="9">
-        <v>491478</v>
+        <v>480475</v>
       </c>
       <c r="K52" s="9">
-        <v>480475</v>
+        <v>515996</v>
       </c>
       <c r="L52" s="9">
-        <v>515996</v>
+        <v>519937</v>
       </c>
       <c r="M52" s="9">
-        <v>519937</v>
+        <v>358830</v>
       </c>
       <c r="N52" s="9">
-        <v>358830</v>
-      </c>
-    </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
+        <v>386620</v>
+      </c>
+    </row>
+    <row r="53" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B53" s="10" t="s">
         <v>39</v>
       </c>
@@ -2385,37 +2385,37 @@
       </c>
       <c r="D53" s="11"/>
       <c r="E53" s="11">
-        <v>17605</v>
+        <v>12691</v>
       </c>
       <c r="F53" s="11">
-        <v>12691</v>
+        <v>9610</v>
       </c>
       <c r="G53" s="11">
-        <v>9610</v>
+        <v>30733</v>
       </c>
       <c r="H53" s="11">
-        <v>30733</v>
+        <v>9011</v>
       </c>
       <c r="I53" s="11">
-        <v>9011</v>
+        <v>37404</v>
       </c>
       <c r="J53" s="11">
-        <v>37404</v>
+        <v>15076</v>
       </c>
       <c r="K53" s="11">
-        <v>15076</v>
+        <v>8733</v>
       </c>
       <c r="L53" s="11">
-        <v>8733</v>
+        <v>30945</v>
       </c>
       <c r="M53" s="11">
-        <v>30945</v>
+        <v>17002</v>
       </c>
       <c r="N53" s="11">
-        <v>17002</v>
-      </c>
-    </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
+        <v>55613</v>
+      </c>
+    </row>
+    <row r="54" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B54" s="8" t="s">
         <v>40</v>
       </c>
@@ -2423,38 +2423,38 @@
         <v>44</v>
       </c>
       <c r="D54" s="9"/>
-      <c r="E54" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F54" s="9">
-        <v>0</v>
-      </c>
-      <c r="G54" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="H54" s="9">
-        <v>0</v>
+      <c r="E54" s="9">
+        <v>0</v>
+      </c>
+      <c r="F54" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G54" s="9">
+        <v>0</v>
+      </c>
+      <c r="H54" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="I54" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J54" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K54" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L54" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M54" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N54" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="55" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B55" s="10" t="s">
         <v>41</v>
       </c>
@@ -2462,11 +2462,11 @@
         <v>33</v>
       </c>
       <c r="D55" s="11"/>
-      <c r="E55" s="11" t="s">
-        <v>25</v>
+      <c r="E55" s="11">
+        <v>24653</v>
       </c>
       <c r="F55" s="11">
-        <v>24653</v>
+        <v>0</v>
       </c>
       <c r="G55" s="11">
         <v>0</v>
@@ -2474,26 +2474,26 @@
       <c r="H55" s="11">
         <v>0</v>
       </c>
-      <c r="I55" s="11">
-        <v>0</v>
+      <c r="I55" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="J55" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K55" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L55" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M55" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N55" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="56" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B56" s="8" t="s">
         <v>42</v>
       </c>
@@ -2502,25 +2502,25 @@
       </c>
       <c r="D56" s="9"/>
       <c r="E56" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F56" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="G56" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="H56" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="I56" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
+      </c>
+      <c r="I56" s="9">
+        <v>3195</v>
       </c>
       <c r="J56" s="9">
-        <v>3195</v>
+        <v>1500</v>
       </c>
       <c r="K56" s="9">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="L56" s="9">
         <v>0</v>
@@ -2532,44 +2532,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B57" s="12" t="s">
         <v>17</v>
       </c>
       <c r="C57" s="13"/>
       <c r="D57" s="13"/>
       <c r="E57" s="13">
-        <v>1011380</v>
+        <v>796969</v>
       </c>
       <c r="F57" s="13">
-        <v>796969</v>
+        <v>723121</v>
       </c>
       <c r="G57" s="13">
-        <v>723121</v>
+        <v>838548</v>
       </c>
       <c r="H57" s="13">
-        <v>838548</v>
+        <v>1175832</v>
       </c>
       <c r="I57" s="13">
-        <v>1175832</v>
+        <v>902179</v>
       </c>
       <c r="J57" s="13">
-        <v>902179</v>
+        <v>795096</v>
       </c>
       <c r="K57" s="13">
-        <v>795096</v>
+        <v>901486</v>
       </c>
       <c r="L57" s="13">
-        <v>901486</v>
+        <v>968319</v>
       </c>
       <c r="M57" s="13">
-        <v>968319</v>
+        <v>739913</v>
       </c>
       <c r="N57" s="13">
-        <v>739913</v>
-      </c>
-    </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
+        <v>746714</v>
+      </c>
+    </row>
+    <row r="58" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -2584,7 +2584,7 @@
       <c r="M58" s="1"/>
       <c r="N58" s="1"/>
     </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -2599,7 +2599,7 @@
       <c r="M59" s="1"/>
       <c r="N59" s="1"/>
     </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -2614,7 +2614,7 @@
       <c r="M60" s="1"/>
       <c r="N60" s="1"/>
     </row>
-    <row r="61" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B61" s="7" t="s">
         <v>45</v>
       </c>
@@ -2651,7 +2651,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
@@ -2666,46 +2666,46 @@
       <c r="M62" s="1"/>
       <c r="N62" s="1"/>
     </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B63" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C63" s="9" t="s">
         <v>44</v>
       </c>
       <c r="D63" s="9"/>
       <c r="E63" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F63" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="G63" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="H63" s="9">
-        <v>0</v>
+        <v>31</v>
+      </c>
+      <c r="G63" s="9">
+        <v>0</v>
+      </c>
+      <c r="H63" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="I63" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J63" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K63" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L63" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M63" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N63" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="64" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B64" s="10" t="s">
         <v>32</v>
       </c>
@@ -2714,37 +2714,37 @@
       </c>
       <c r="D64" s="11"/>
       <c r="E64" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F64" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="G64" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="H64" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I64" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J64" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K64" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L64" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M64" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N64" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B65" s="8" t="s">
         <v>34</v>
       </c>
@@ -2753,37 +2753,37 @@
       </c>
       <c r="D65" s="9"/>
       <c r="E65" s="9">
-        <v>388472</v>
+        <v>316386</v>
       </c>
       <c r="F65" s="9">
-        <v>316386</v>
+        <v>290450</v>
       </c>
       <c r="G65" s="9">
-        <v>290450</v>
+        <v>382856</v>
       </c>
       <c r="H65" s="9">
-        <v>382856</v>
+        <v>303492</v>
       </c>
       <c r="I65" s="9">
-        <v>303492</v>
+        <v>305047</v>
       </c>
       <c r="J65" s="9">
-        <v>305047</v>
+        <v>286831</v>
       </c>
       <c r="K65" s="9">
-        <v>286831</v>
+        <v>407338</v>
       </c>
       <c r="L65" s="9">
-        <v>407338</v>
+        <v>362794</v>
       </c>
       <c r="M65" s="9">
-        <v>362794</v>
+        <v>383198</v>
       </c>
       <c r="N65" s="9">
-        <v>383198</v>
-      </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
+        <v>268655</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B66" s="10" t="s">
         <v>35</v>
       </c>
@@ -2792,7 +2792,7 @@
       </c>
       <c r="D66" s="11"/>
       <c r="E66" s="11">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F66" s="11">
         <v>0</v>
@@ -2801,28 +2801,28 @@
         <v>0</v>
       </c>
       <c r="H66" s="11">
-        <v>0</v>
+        <v>761</v>
       </c>
       <c r="I66" s="11">
-        <v>761</v>
+        <v>406</v>
       </c>
       <c r="J66" s="11">
-        <v>406</v>
+        <v>481</v>
       </c>
       <c r="K66" s="11">
-        <v>481</v>
+        <v>1770</v>
       </c>
       <c r="L66" s="11">
-        <v>1770</v>
+        <v>122</v>
       </c>
       <c r="M66" s="11">
-        <v>122</v>
+        <v>0</v>
       </c>
       <c r="N66" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B67" s="8" t="s">
         <v>36</v>
       </c>
@@ -2831,7 +2831,7 @@
       </c>
       <c r="D67" s="9"/>
       <c r="E67" s="9">
-        <v>113</v>
+        <v>0</v>
       </c>
       <c r="F67" s="9">
         <v>0</v>
@@ -2861,7 +2861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B68" s="10" t="s">
         <v>37</v>
       </c>
@@ -2870,37 +2870,37 @@
       </c>
       <c r="D68" s="11"/>
       <c r="E68" s="11">
-        <v>24754</v>
+        <v>19778</v>
       </c>
       <c r="F68" s="11">
-        <v>19778</v>
+        <v>17040</v>
       </c>
       <c r="G68" s="11">
-        <v>17040</v>
+        <v>26286</v>
       </c>
       <c r="H68" s="11">
-        <v>26286</v>
+        <v>16013</v>
       </c>
       <c r="I68" s="11">
-        <v>16013</v>
+        <v>17647</v>
       </c>
       <c r="J68" s="11">
-        <v>17647</v>
+        <v>13531</v>
       </c>
       <c r="K68" s="11">
-        <v>13531</v>
+        <v>14030</v>
       </c>
       <c r="L68" s="11">
-        <v>14030</v>
+        <v>16095</v>
       </c>
       <c r="M68" s="11">
-        <v>16095</v>
+        <v>17141</v>
       </c>
       <c r="N68" s="11">
-        <v>17141</v>
-      </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
+        <v>17591</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B69" s="8" t="s">
         <v>38</v>
       </c>
@@ -2909,37 +2909,37 @@
       </c>
       <c r="D69" s="9"/>
       <c r="E69" s="9">
-        <v>389367</v>
+        <v>433123</v>
       </c>
       <c r="F69" s="9">
-        <v>433123</v>
+        <v>346826</v>
       </c>
       <c r="G69" s="9">
-        <v>346826</v>
+        <v>486178</v>
       </c>
       <c r="H69" s="9">
-        <v>486178</v>
+        <v>747883</v>
       </c>
       <c r="I69" s="9">
-        <v>747883</v>
+        <v>398798</v>
       </c>
       <c r="J69" s="9">
-        <v>398798</v>
+        <v>482224</v>
       </c>
       <c r="K69" s="9">
-        <v>482224</v>
+        <v>595155</v>
       </c>
       <c r="L69" s="9">
-        <v>595155</v>
+        <v>508842</v>
       </c>
       <c r="M69" s="9">
-        <v>508842</v>
+        <v>378882</v>
       </c>
       <c r="N69" s="9">
-        <v>378882</v>
-      </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
+        <v>236476</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B70" s="10" t="s">
         <v>39</v>
       </c>
@@ -2948,37 +2948,37 @@
       </c>
       <c r="D70" s="11"/>
       <c r="E70" s="11">
-        <v>18319</v>
+        <v>14161</v>
       </c>
       <c r="F70" s="11">
-        <v>14161</v>
+        <v>13634</v>
       </c>
       <c r="G70" s="11">
-        <v>13634</v>
+        <v>18383</v>
       </c>
       <c r="H70" s="11">
-        <v>18383</v>
+        <v>21346</v>
       </c>
       <c r="I70" s="11">
-        <v>21346</v>
+        <v>16786</v>
       </c>
       <c r="J70" s="11">
-        <v>16786</v>
+        <v>21861</v>
       </c>
       <c r="K70" s="11">
-        <v>21861</v>
+        <v>28268</v>
       </c>
       <c r="L70" s="11">
-        <v>28268</v>
+        <v>16452</v>
       </c>
       <c r="M70" s="11">
-        <v>16452</v>
+        <v>21962</v>
       </c>
       <c r="N70" s="11">
-        <v>21962</v>
-      </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
+        <v>15008</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B71" s="8" t="s">
         <v>40</v>
       </c>
@@ -2986,38 +2986,38 @@
         <v>44</v>
       </c>
       <c r="D71" s="9"/>
-      <c r="E71" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F71" s="9">
-        <v>0</v>
-      </c>
-      <c r="G71" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="H71" s="9">
-        <v>0</v>
+      <c r="E71" s="9">
+        <v>0</v>
+      </c>
+      <c r="F71" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G71" s="9">
+        <v>0</v>
+      </c>
+      <c r="H71" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="I71" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J71" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K71" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L71" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M71" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N71" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B72" s="10" t="s">
         <v>41</v>
       </c>
@@ -3025,11 +3025,11 @@
         <v>33</v>
       </c>
       <c r="D72" s="11"/>
-      <c r="E72" s="11" t="s">
-        <v>25</v>
+      <c r="E72" s="11">
+        <v>24653</v>
       </c>
       <c r="F72" s="11">
-        <v>24653</v>
+        <v>0</v>
       </c>
       <c r="G72" s="11">
         <v>0</v>
@@ -3037,26 +3037,26 @@
       <c r="H72" s="11">
         <v>0</v>
       </c>
-      <c r="I72" s="11">
-        <v>0</v>
+      <c r="I72" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="J72" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K72" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L72" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M72" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N72" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B73" s="8" t="s">
         <v>42</v>
       </c>
@@ -3065,74 +3065,74 @@
       </c>
       <c r="D73" s="9"/>
       <c r="E73" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F73" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="G73" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="H73" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="I73" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
+      </c>
+      <c r="I73" s="9">
+        <v>245</v>
       </c>
       <c r="J73" s="9">
-        <v>245</v>
+        <v>150</v>
       </c>
       <c r="K73" s="9">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="L73" s="9">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="M73" s="9">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="N73" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B74" s="12" t="s">
         <v>17</v>
       </c>
       <c r="C74" s="13"/>
       <c r="D74" s="13"/>
       <c r="E74" s="13">
-        <v>821030</v>
+        <v>808101</v>
       </c>
       <c r="F74" s="13">
-        <v>808101</v>
+        <v>667950</v>
       </c>
       <c r="G74" s="13">
-        <v>667950</v>
+        <v>913703</v>
       </c>
       <c r="H74" s="13">
-        <v>913703</v>
+        <v>1089495</v>
       </c>
       <c r="I74" s="13">
-        <v>1089495</v>
+        <v>738929</v>
       </c>
       <c r="J74" s="13">
-        <v>738929</v>
+        <v>805078</v>
       </c>
       <c r="K74" s="13">
-        <v>805078</v>
+        <v>1046561</v>
       </c>
       <c r="L74" s="13">
-        <v>1046561</v>
+        <v>904359</v>
       </c>
       <c r="M74" s="13">
-        <v>904359</v>
+        <v>801183</v>
       </c>
       <c r="N74" s="13">
-        <v>801183</v>
-      </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
+        <v>537730</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
@@ -3147,7 +3147,7 @@
       <c r="M75" s="1"/>
       <c r="N75" s="1"/>
     </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
@@ -3162,7 +3162,7 @@
       <c r="M76" s="1"/>
       <c r="N76" s="1"/>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
@@ -3177,7 +3177,7 @@
       <c r="M77" s="1"/>
       <c r="N77" s="1"/>
     </row>
-    <row r="78" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B78" s="7" t="s">
         <v>46</v>
       </c>
@@ -3214,7 +3214,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
@@ -3229,46 +3229,46 @@
       <c r="M79" s="1"/>
       <c r="N79" s="1"/>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B80" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C80" s="9" t="s">
         <v>30</v>
-      </c>
-      <c r="C80" s="9" t="s">
-        <v>31</v>
       </c>
       <c r="D80" s="9"/>
       <c r="E80" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F80" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="G80" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="H80" s="9">
-        <v>0</v>
+        <v>31</v>
+      </c>
+      <c r="G80" s="9">
+        <v>0</v>
+      </c>
+      <c r="H80" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="I80" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J80" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K80" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L80" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M80" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N80" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="81" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B81" s="10" t="s">
         <v>32</v>
       </c>
@@ -3277,37 +3277,37 @@
       </c>
       <c r="D81" s="11"/>
       <c r="E81" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F81" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="G81" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="H81" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I81" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J81" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K81" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L81" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M81" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N81" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="82" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B82" s="8" t="s">
         <v>34</v>
       </c>
@@ -3316,37 +3316,37 @@
       </c>
       <c r="D82" s="9"/>
       <c r="E82" s="9">
-        <v>235720</v>
+        <v>197649</v>
       </c>
       <c r="F82" s="9">
-        <v>197649</v>
+        <v>157937</v>
       </c>
       <c r="G82" s="9">
-        <v>157937</v>
+        <v>95149</v>
       </c>
       <c r="H82" s="9">
-        <v>95149</v>
+        <v>96863</v>
       </c>
       <c r="I82" s="9">
-        <v>96863</v>
+        <v>195823</v>
       </c>
       <c r="J82" s="9">
-        <v>195823</v>
+        <v>157436</v>
       </c>
       <c r="K82" s="9">
-        <v>157436</v>
+        <v>116731</v>
       </c>
       <c r="L82" s="9">
-        <v>116731</v>
+        <v>135623</v>
       </c>
       <c r="M82" s="9">
-        <v>135623</v>
+        <v>110638</v>
       </c>
       <c r="N82" s="9">
-        <v>110638</v>
-      </c>
-    </row>
-    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
+        <v>123966</v>
+      </c>
+    </row>
+    <row r="83" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B83" s="10" t="s">
         <v>35</v>
       </c>
@@ -3358,25 +3358,25 @@
         <v>8399</v>
       </c>
       <c r="F83" s="11">
-        <v>8399</v>
+        <v>8400</v>
       </c>
       <c r="G83" s="11">
-        <v>8400</v>
+        <v>8505</v>
       </c>
       <c r="H83" s="11">
-        <v>8505</v>
+        <v>7744</v>
       </c>
       <c r="I83" s="11">
-        <v>7744</v>
+        <v>3473</v>
       </c>
       <c r="J83" s="11">
-        <v>3473</v>
+        <v>3205</v>
       </c>
       <c r="K83" s="11">
-        <v>3205</v>
+        <v>1435</v>
       </c>
       <c r="L83" s="11">
-        <v>1435</v>
+        <v>1313</v>
       </c>
       <c r="M83" s="11">
         <v>1313</v>
@@ -3385,7 +3385,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B84" s="8" t="s">
         <v>36</v>
       </c>
@@ -3397,7 +3397,7 @@
         <v>168498</v>
       </c>
       <c r="F84" s="9">
-        <v>168498</v>
+        <v>168499</v>
       </c>
       <c r="G84" s="9">
         <v>168499</v>
@@ -3406,7 +3406,7 @@
         <v>168499</v>
       </c>
       <c r="I84" s="9">
-        <v>168499</v>
+        <v>166750</v>
       </c>
       <c r="J84" s="9">
         <v>166750</v>
@@ -3424,7 +3424,7 @@
         <v>166750</v>
       </c>
     </row>
-    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B85" s="10" t="s">
         <v>37</v>
       </c>
@@ -3433,37 +3433,37 @@
       </c>
       <c r="D85" s="11"/>
       <c r="E85" s="11">
-        <v>7381</v>
+        <v>14637</v>
       </c>
       <c r="F85" s="11">
-        <v>14637</v>
+        <v>33502</v>
       </c>
       <c r="G85" s="11">
-        <v>33502</v>
+        <v>18926</v>
       </c>
       <c r="H85" s="11">
-        <v>18926</v>
+        <v>57405</v>
       </c>
       <c r="I85" s="11">
-        <v>57405</v>
+        <v>110720</v>
       </c>
       <c r="J85" s="11">
-        <v>110720</v>
+        <v>146577</v>
       </c>
       <c r="K85" s="11">
-        <v>146577</v>
+        <v>142671</v>
       </c>
       <c r="L85" s="11">
-        <v>142671</v>
+        <v>162327</v>
       </c>
       <c r="M85" s="11">
-        <v>162327</v>
+        <v>149102</v>
       </c>
       <c r="N85" s="11">
-        <v>149102</v>
-      </c>
-    </row>
-    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
+        <v>154009</v>
+      </c>
+    </row>
+    <row r="86" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B86" s="8" t="s">
         <v>38</v>
       </c>
@@ -3472,37 +3472,37 @@
       </c>
       <c r="D86" s="9"/>
       <c r="E86" s="9">
-        <v>398500</v>
+        <v>419653</v>
       </c>
       <c r="F86" s="9">
-        <v>419653</v>
+        <v>499694</v>
       </c>
       <c r="G86" s="9">
-        <v>499694</v>
+        <v>489448</v>
       </c>
       <c r="H86" s="9">
-        <v>489448</v>
+        <v>548688</v>
       </c>
       <c r="I86" s="9">
-        <v>548688</v>
+        <v>628391</v>
       </c>
       <c r="J86" s="9">
-        <v>628391</v>
+        <v>626642</v>
       </c>
       <c r="K86" s="9">
-        <v>626642</v>
+        <v>547483</v>
       </c>
       <c r="L86" s="9">
-        <v>547483</v>
+        <v>558578</v>
       </c>
       <c r="M86" s="9">
-        <v>558578</v>
+        <v>538526</v>
       </c>
       <c r="N86" s="9">
-        <v>538526</v>
-      </c>
-    </row>
-    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
+        <v>688670</v>
+      </c>
+    </row>
+    <row r="87" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B87" s="10" t="s">
         <v>39</v>
       </c>
@@ -3511,76 +3511,76 @@
       </c>
       <c r="D87" s="11"/>
       <c r="E87" s="11">
-        <v>5939</v>
+        <v>4469</v>
       </c>
       <c r="F87" s="11">
-        <v>4469</v>
+        <v>446</v>
       </c>
       <c r="G87" s="11">
-        <v>446</v>
+        <v>12796</v>
       </c>
       <c r="H87" s="11">
-        <v>12796</v>
+        <v>461</v>
       </c>
       <c r="I87" s="11">
-        <v>461</v>
+        <v>27563</v>
       </c>
       <c r="J87" s="11">
-        <v>27563</v>
+        <v>20778</v>
       </c>
       <c r="K87" s="11">
-        <v>20778</v>
+        <v>1243</v>
       </c>
       <c r="L87" s="11">
-        <v>1243</v>
+        <v>15736</v>
       </c>
       <c r="M87" s="11">
-        <v>15736</v>
+        <v>10776</v>
       </c>
       <c r="N87" s="11">
-        <v>10776</v>
-      </c>
-    </row>
-    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
+        <v>51381</v>
+      </c>
+    </row>
+    <row r="88" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B88" s="8" t="s">
         <v>40</v>
       </c>
       <c r="C88" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D88" s="9"/>
-      <c r="E88" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F88" s="9">
-        <v>0</v>
-      </c>
-      <c r="G88" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="H88" s="9">
-        <v>0</v>
+      <c r="E88" s="9">
+        <v>0</v>
+      </c>
+      <c r="F88" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G88" s="9">
+        <v>0</v>
+      </c>
+      <c r="H88" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="I88" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J88" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K88" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L88" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M88" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N88" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="89" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B89" s="10" t="s">
         <v>41</v>
       </c>
@@ -3600,26 +3600,26 @@
       <c r="H89" s="11">
         <v>0</v>
       </c>
-      <c r="I89" s="11">
-        <v>0</v>
+      <c r="I89" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="J89" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K89" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L89" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M89" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N89" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="90" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B90" s="8" t="s">
         <v>42</v>
       </c>
@@ -3628,28 +3628,28 @@
       </c>
       <c r="D90" s="9"/>
       <c r="E90" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F90" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="G90" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="H90" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="I90" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
+      </c>
+      <c r="I90" s="9">
+        <v>2950</v>
       </c>
       <c r="J90" s="9">
-        <v>2950</v>
+        <v>4300</v>
       </c>
       <c r="K90" s="9">
         <v>4300</v>
       </c>
       <c r="L90" s="9">
-        <v>4300</v>
+        <v>4246</v>
       </c>
       <c r="M90" s="9">
         <v>4246</v>
@@ -3658,44 +3658,44 @@
         <v>4246</v>
       </c>
     </row>
-    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B91" s="12" t="s">
         <v>17</v>
       </c>
       <c r="C91" s="13"/>
       <c r="D91" s="13"/>
       <c r="E91" s="13">
-        <v>824437</v>
+        <v>813305</v>
       </c>
       <c r="F91" s="13">
-        <v>813305</v>
+        <v>868478</v>
       </c>
       <c r="G91" s="13">
-        <v>868478</v>
+        <v>793323</v>
       </c>
       <c r="H91" s="13">
-        <v>793323</v>
+        <v>879660</v>
       </c>
       <c r="I91" s="13">
-        <v>879660</v>
+        <v>1135670</v>
       </c>
       <c r="J91" s="13">
-        <v>1135670</v>
+        <v>1125688</v>
       </c>
       <c r="K91" s="13">
-        <v>1125688</v>
+        <v>980613</v>
       </c>
       <c r="L91" s="13">
-        <v>980613</v>
+        <v>1044573</v>
       </c>
       <c r="M91" s="13">
-        <v>1044573</v>
+        <v>981351</v>
       </c>
       <c r="N91" s="13">
-        <v>981351</v>
-      </c>
-    </row>
-    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1190335</v>
+      </c>
+    </row>
+    <row r="92" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
@@ -3710,7 +3710,7 @@
       <c r="M92" s="1"/>
       <c r="N92" s="1"/>
     </row>
-    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
@@ -3725,7 +3725,7 @@
       <c r="M93" s="1"/>
       <c r="N93" s="1"/>
     </row>
-    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
@@ -3740,7 +3740,7 @@
       <c r="M94" s="1"/>
       <c r="N94" s="1"/>
     </row>
-    <row r="95" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B95" s="7" t="s">
         <v>47</v>
       </c>
@@ -3777,7 +3777,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
@@ -3792,129 +3792,129 @@
       <c r="M96" s="1"/>
       <c r="N96" s="1"/>
     </row>
-    <row r="97" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B97" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C97" s="9" t="s">
         <v>30</v>
-      </c>
-      <c r="C97" s="9" t="s">
-        <v>31</v>
       </c>
       <c r="D97" s="9"/>
       <c r="E97" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F97" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="G97" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="H97" s="9">
-        <v>0</v>
+        <v>31</v>
+      </c>
+      <c r="G97" s="9">
+        <v>0</v>
+      </c>
+      <c r="H97" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="I97" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J97" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K97" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L97" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M97" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N97" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="98" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B98" s="10" t="s">
         <v>32</v>
       </c>
       <c r="C98" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D98" s="11"/>
       <c r="E98" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F98" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="G98" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="H98" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I98" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J98" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K98" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L98" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M98" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N98" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="99" spans="2:14" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="99" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B99" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C99" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D99" s="9"/>
       <c r="E99" s="9">
-        <v>67</v>
+        <v>8749</v>
       </c>
       <c r="F99" s="9">
-        <v>8749</v>
+        <v>10902</v>
       </c>
       <c r="G99" s="9">
-        <v>10902</v>
+        <v>12787</v>
       </c>
       <c r="H99" s="9">
-        <v>12787</v>
+        <v>9657</v>
       </c>
       <c r="I99" s="9">
-        <v>9657</v>
+        <v>11476</v>
       </c>
       <c r="J99" s="9">
-        <v>11476</v>
+        <v>16182</v>
       </c>
       <c r="K99" s="9">
-        <v>16182</v>
+        <v>24944</v>
       </c>
       <c r="L99" s="9">
-        <v>24944</v>
+        <v>18700</v>
       </c>
       <c r="M99" s="9">
-        <v>18700</v>
+        <v>24094</v>
       </c>
       <c r="N99" s="9">
-        <v>24094</v>
-      </c>
-    </row>
-    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
+        <v>25856</v>
+      </c>
+    </row>
+    <row r="100" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B100" s="10" t="s">
         <v>35</v>
       </c>
       <c r="C100" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D100" s="11"/>
       <c r="E100" s="11">
@@ -3927,33 +3927,33 @@
         <v>5384</v>
       </c>
       <c r="H100" s="11">
-        <v>5384</v>
+        <v>5699</v>
       </c>
       <c r="I100" s="11">
-        <v>5699</v>
+        <v>5188</v>
       </c>
       <c r="J100" s="11">
-        <v>5188</v>
+        <v>4646</v>
       </c>
       <c r="K100" s="11">
-        <v>4646</v>
+        <v>4705</v>
       </c>
       <c r="L100" s="11">
-        <v>4705</v>
+        <v>2107</v>
       </c>
       <c r="M100" s="11">
-        <v>2107</v>
+        <v>1928</v>
       </c>
       <c r="N100" s="11">
         <v>1928</v>
       </c>
     </row>
-    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B101" s="8" t="s">
         <v>36</v>
       </c>
       <c r="C101" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D101" s="9"/>
       <c r="E101" s="9">
@@ -3969,13 +3969,13 @@
         <v>159</v>
       </c>
       <c r="I101" s="9">
-        <v>159</v>
+        <v>10022</v>
       </c>
       <c r="J101" s="9">
         <v>10022</v>
       </c>
       <c r="K101" s="9">
-        <v>10022</v>
+        <v>152</v>
       </c>
       <c r="L101" s="9">
         <v>152</v>
@@ -3987,172 +3987,172 @@
         <v>152</v>
       </c>
     </row>
-    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B102" s="10" t="s">
         <v>37</v>
       </c>
       <c r="C102" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D102" s="11"/>
       <c r="E102" s="11">
-        <v>3058</v>
+        <v>3982</v>
       </c>
       <c r="F102" s="11">
-        <v>3982</v>
+        <v>9302</v>
       </c>
       <c r="G102" s="11">
-        <v>9302</v>
+        <v>24141</v>
       </c>
       <c r="H102" s="11">
-        <v>24141</v>
+        <v>15971</v>
       </c>
       <c r="I102" s="11">
-        <v>15971</v>
+        <v>56587</v>
       </c>
       <c r="J102" s="11">
-        <v>56587</v>
+        <v>112535</v>
       </c>
       <c r="K102" s="11">
-        <v>112535</v>
+        <v>146710</v>
       </c>
       <c r="L102" s="11">
-        <v>146710</v>
+        <v>141325</v>
       </c>
       <c r="M102" s="11">
-        <v>141325</v>
+        <v>170960</v>
       </c>
       <c r="N102" s="11">
-        <v>170960</v>
-      </c>
-    </row>
-    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
+        <v>160702</v>
+      </c>
+    </row>
+    <row r="103" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B103" s="8" t="s">
         <v>38</v>
       </c>
       <c r="C103" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D103" s="9"/>
       <c r="E103" s="9">
-        <v>25387</v>
+        <v>22731</v>
       </c>
       <c r="F103" s="9">
-        <v>22731</v>
+        <v>36648</v>
       </c>
       <c r="G103" s="9">
-        <v>36648</v>
+        <v>50498</v>
       </c>
       <c r="H103" s="9">
-        <v>50498</v>
+        <v>52517</v>
       </c>
       <c r="I103" s="9">
-        <v>52517</v>
+        <v>71185</v>
       </c>
       <c r="J103" s="9">
-        <v>71185</v>
+        <v>140457</v>
       </c>
       <c r="K103" s="9">
-        <v>140457</v>
+        <v>145597</v>
       </c>
       <c r="L103" s="9">
-        <v>145597</v>
+        <v>201189</v>
       </c>
       <c r="M103" s="9">
-        <v>201189</v>
+        <v>139884</v>
       </c>
       <c r="N103" s="9">
-        <v>139884</v>
-      </c>
-    </row>
-    <row r="104" spans="2:14" x14ac:dyDescent="0.25">
+        <v>163203</v>
+      </c>
+    </row>
+    <row r="104" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B104" s="10" t="s">
         <v>39</v>
       </c>
       <c r="C104" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D104" s="11"/>
       <c r="E104" s="11">
-        <v>4951</v>
+        <v>6358</v>
       </c>
       <c r="F104" s="11">
-        <v>6358</v>
+        <v>6274</v>
       </c>
       <c r="G104" s="11">
-        <v>6274</v>
+        <v>826</v>
       </c>
       <c r="H104" s="11">
-        <v>826</v>
+        <v>25915</v>
       </c>
       <c r="I104" s="11">
-        <v>25915</v>
+        <v>1125</v>
       </c>
       <c r="J104" s="11">
-        <v>1125</v>
+        <v>62905</v>
       </c>
       <c r="K104" s="11">
-        <v>62905</v>
+        <v>54258</v>
       </c>
       <c r="L104" s="11">
-        <v>54258</v>
+        <v>4695</v>
       </c>
       <c r="M104" s="11">
-        <v>4695</v>
+        <v>94344</v>
       </c>
       <c r="N104" s="11">
-        <v>94344</v>
-      </c>
-    </row>
-    <row r="105" spans="2:14" x14ac:dyDescent="0.25">
+        <v>57307</v>
+      </c>
+    </row>
+    <row r="105" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B105" s="8" t="s">
         <v>40</v>
       </c>
       <c r="C105" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D105" s="9"/>
-      <c r="E105" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F105" s="9">
-        <v>0</v>
-      </c>
-      <c r="G105" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="H105" s="9">
-        <v>0</v>
+      <c r="E105" s="9">
+        <v>0</v>
+      </c>
+      <c r="F105" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G105" s="9">
+        <v>0</v>
+      </c>
+      <c r="H105" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="I105" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J105" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K105" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L105" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M105" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N105" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="106" spans="2:14" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="106" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B106" s="10" t="s">
         <v>41</v>
       </c>
       <c r="C106" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D106" s="11"/>
-      <c r="E106" s="11" t="s">
-        <v>25</v>
+      <c r="E106" s="11">
+        <v>0</v>
       </c>
       <c r="F106" s="11">
         <v>0</v>
@@ -4163,102 +4163,102 @@
       <c r="H106" s="11">
         <v>0</v>
       </c>
-      <c r="I106" s="11">
-        <v>0</v>
+      <c r="I106" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="J106" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K106" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L106" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M106" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N106" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="107" spans="2:14" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="107" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B107" s="8" t="s">
         <v>42</v>
       </c>
       <c r="C107" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D107" s="9"/>
       <c r="E107" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F107" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="G107" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="H107" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="I107" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
+      </c>
+      <c r="I107" s="9">
+        <v>0</v>
       </c>
       <c r="J107" s="9">
-        <v>0</v>
+        <v>1951</v>
       </c>
       <c r="K107" s="9">
-        <v>1951</v>
+        <v>2827</v>
       </c>
       <c r="L107" s="9">
         <v>2827</v>
       </c>
       <c r="M107" s="9">
-        <v>2827</v>
+        <v>2747</v>
       </c>
       <c r="N107" s="9">
         <v>2747</v>
       </c>
     </row>
-    <row r="108" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B108" s="12" t="s">
         <v>17</v>
       </c>
       <c r="C108" s="13"/>
       <c r="D108" s="13"/>
       <c r="E108" s="13">
-        <v>39006</v>
+        <v>47363</v>
       </c>
       <c r="F108" s="13">
-        <v>47363</v>
+        <v>68669</v>
       </c>
       <c r="G108" s="13">
-        <v>68669</v>
+        <v>93795</v>
       </c>
       <c r="H108" s="13">
-        <v>93795</v>
+        <v>109918</v>
       </c>
       <c r="I108" s="13">
-        <v>109918</v>
+        <v>155583</v>
       </c>
       <c r="J108" s="13">
-        <v>155583</v>
+        <v>348698</v>
       </c>
       <c r="K108" s="13">
-        <v>348698</v>
+        <v>379193</v>
       </c>
       <c r="L108" s="13">
-        <v>379193</v>
+        <v>370995</v>
       </c>
       <c r="M108" s="13">
-        <v>370995</v>
+        <v>434109</v>
       </c>
       <c r="N108" s="13">
-        <v>434109</v>
-      </c>
-    </row>
-    <row r="109" spans="2:14" x14ac:dyDescent="0.25">
+        <v>411895</v>
+      </c>
+    </row>
+    <row r="109" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
@@ -4273,7 +4273,7 @@
       <c r="M109" s="1"/>
       <c r="N109" s="1"/>
     </row>
-    <row r="110" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
@@ -4288,7 +4288,7 @@
       <c r="M110" s="1"/>
       <c r="N110" s="1"/>
     </row>
-    <row r="111" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
@@ -4303,7 +4303,7 @@
       <c r="M111" s="1"/>
       <c r="N111" s="1"/>
     </row>
-    <row r="112" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B112" s="7" t="s">
         <v>48</v>
       </c>
@@ -4340,7 +4340,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="113" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
@@ -4355,129 +4355,129 @@
       <c r="M113" s="1"/>
       <c r="N113" s="1"/>
     </row>
-    <row r="114" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B114" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C114" s="9" t="s">
         <v>30</v>
-      </c>
-      <c r="C114" s="9" t="s">
-        <v>31</v>
       </c>
       <c r="D114" s="9"/>
       <c r="E114" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F114" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="G114" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="H114" s="9">
-        <v>0</v>
+        <v>31</v>
+      </c>
+      <c r="G114" s="9">
+        <v>0</v>
+      </c>
+      <c r="H114" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="I114" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J114" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K114" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L114" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M114" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N114" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="115" spans="2:14" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="115" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B115" s="10" t="s">
         <v>32</v>
       </c>
       <c r="C115" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D115" s="11"/>
       <c r="E115" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F115" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="G115" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="H115" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I115" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J115" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K115" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L115" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M115" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N115" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="116" spans="2:14" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="116" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B116" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C116" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D116" s="9"/>
       <c r="E116" s="9">
-        <v>27003</v>
+        <v>18087</v>
       </c>
       <c r="F116" s="9">
-        <v>18087</v>
+        <v>30422</v>
       </c>
       <c r="G116" s="9">
-        <v>30422</v>
+        <v>29529</v>
       </c>
       <c r="H116" s="9">
-        <v>29529</v>
+        <v>52499</v>
       </c>
       <c r="I116" s="9">
-        <v>52499</v>
+        <v>28649</v>
       </c>
       <c r="J116" s="9">
-        <v>28649</v>
+        <v>60045</v>
       </c>
       <c r="K116" s="9">
-        <v>60045</v>
+        <v>58847</v>
       </c>
       <c r="L116" s="9">
-        <v>58847</v>
+        <v>102645</v>
       </c>
       <c r="M116" s="9">
-        <v>102645</v>
+        <v>85971</v>
       </c>
       <c r="N116" s="9">
-        <v>85971</v>
-      </c>
-    </row>
-    <row r="117" spans="2:14" x14ac:dyDescent="0.25">
+        <v>70112</v>
+      </c>
+    </row>
+    <row r="117" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B117" s="10" t="s">
         <v>35</v>
       </c>
       <c r="C117" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D117" s="11"/>
       <c r="E117" s="11">
@@ -4487,19 +4487,19 @@
         <v>0</v>
       </c>
       <c r="G117" s="11">
-        <v>0</v>
+        <v>315</v>
       </c>
       <c r="H117" s="11">
-        <v>315</v>
+        <v>1</v>
       </c>
       <c r="I117" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J117" s="11">
-        <v>0</v>
+        <v>766</v>
       </c>
       <c r="K117" s="11">
-        <v>766</v>
+        <v>0</v>
       </c>
       <c r="L117" s="11">
         <v>0</v>
@@ -4511,12 +4511,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B118" s="8" t="s">
         <v>36</v>
       </c>
       <c r="C118" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D118" s="9"/>
       <c r="E118" s="9">
@@ -4550,175 +4550,175 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B119" s="10" t="s">
         <v>37</v>
       </c>
       <c r="C119" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D119" s="11"/>
       <c r="E119" s="11">
-        <v>12213</v>
+        <v>16874</v>
       </c>
       <c r="F119" s="11">
-        <v>16874</v>
+        <v>26728</v>
       </c>
       <c r="G119" s="11">
-        <v>26728</v>
+        <v>13652</v>
       </c>
       <c r="H119" s="11">
-        <v>13652</v>
+        <v>56959</v>
       </c>
       <c r="I119" s="11">
-        <v>56959</v>
+        <v>70413</v>
       </c>
       <c r="J119" s="11">
-        <v>70413</v>
+        <v>51155</v>
       </c>
       <c r="K119" s="11">
-        <v>51155</v>
+        <v>8764</v>
       </c>
       <c r="L119" s="11">
-        <v>8764</v>
+        <v>48759</v>
       </c>
       <c r="M119" s="11">
-        <v>48759</v>
+        <v>8216</v>
       </c>
       <c r="N119" s="11">
-        <v>8216</v>
-      </c>
-    </row>
-    <row r="120" spans="2:14" x14ac:dyDescent="0.25">
+        <v>31496</v>
+      </c>
+    </row>
+    <row r="120" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B120" s="8" t="s">
         <v>38</v>
       </c>
       <c r="C120" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D120" s="9"/>
       <c r="E120" s="9">
-        <v>33045</v>
+        <v>73184</v>
       </c>
       <c r="F120" s="9">
-        <v>73184</v>
+        <v>70495</v>
       </c>
       <c r="G120" s="9">
-        <v>70495</v>
+        <v>83199</v>
       </c>
       <c r="H120" s="9">
-        <v>83199</v>
+        <v>139814</v>
       </c>
       <c r="I120" s="9">
-        <v>139814</v>
+        <v>154317</v>
       </c>
       <c r="J120" s="9">
-        <v>154317</v>
+        <v>106710</v>
       </c>
       <c r="K120" s="9">
-        <v>106710</v>
+        <v>203929</v>
       </c>
       <c r="L120" s="9">
-        <v>203929</v>
+        <v>5464</v>
       </c>
       <c r="M120" s="9">
-        <v>5464</v>
+        <v>179366</v>
       </c>
       <c r="N120" s="9">
-        <v>179366</v>
-      </c>
-    </row>
-    <row r="121" spans="2:14" x14ac:dyDescent="0.25">
+        <v>179153</v>
+      </c>
+    </row>
+    <row r="121" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B121" s="10" t="s">
         <v>39</v>
       </c>
       <c r="C121" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D121" s="11"/>
       <c r="E121" s="11">
-        <v>22398</v>
+        <v>16564</v>
       </c>
       <c r="F121" s="11">
-        <v>16564</v>
+        <v>20977</v>
       </c>
       <c r="G121" s="11">
-        <v>20977</v>
+        <v>53562</v>
       </c>
       <c r="H121" s="11">
-        <v>53562</v>
+        <v>29808</v>
       </c>
       <c r="I121" s="11">
-        <v>29808</v>
+        <v>97875</v>
       </c>
       <c r="J121" s="11">
-        <v>97875</v>
+        <v>50151</v>
       </c>
       <c r="K121" s="11">
-        <v>50151</v>
+        <v>53403</v>
       </c>
       <c r="L121" s="11">
-        <v>53403</v>
+        <v>193052</v>
       </c>
       <c r="M121" s="11">
-        <v>193052</v>
+        <v>84466</v>
       </c>
       <c r="N121" s="11">
-        <v>84466</v>
-      </c>
-    </row>
-    <row r="122" spans="2:14" x14ac:dyDescent="0.25">
+        <v>366409</v>
+      </c>
+    </row>
+    <row r="122" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B122" s="8" t="s">
         <v>40</v>
       </c>
       <c r="C122" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D122" s="9"/>
-      <c r="E122" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F122" s="9">
-        <v>0</v>
-      </c>
-      <c r="G122" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="H122" s="9">
-        <v>0</v>
+      <c r="E122" s="9">
+        <v>0</v>
+      </c>
+      <c r="F122" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G122" s="9">
+        <v>0</v>
+      </c>
+      <c r="H122" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="I122" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J122" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K122" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L122" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M122" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N122" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="123" spans="2:14" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="123" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B123" s="10" t="s">
         <v>41</v>
       </c>
       <c r="C123" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D123" s="11"/>
-      <c r="E123" s="11" t="s">
-        <v>25</v>
+      <c r="E123" s="11">
+        <v>34089</v>
       </c>
       <c r="F123" s="11">
-        <v>34089</v>
+        <v>0</v>
       </c>
       <c r="G123" s="11">
         <v>0</v>
@@ -4726,102 +4726,102 @@
       <c r="H123" s="11">
         <v>0</v>
       </c>
-      <c r="I123" s="11">
-        <v>0</v>
+      <c r="I123" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="J123" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K123" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L123" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M123" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N123" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="124" spans="2:14" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="124" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B124" s="8" t="s">
         <v>42</v>
       </c>
       <c r="C124" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D124" s="9"/>
       <c r="E124" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F124" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="G124" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="H124" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="I124" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
+      </c>
+      <c r="I124" s="9">
+        <v>2109</v>
       </c>
       <c r="J124" s="9">
-        <v>2109</v>
+        <v>975</v>
       </c>
       <c r="K124" s="9">
-        <v>975</v>
+        <v>0</v>
       </c>
       <c r="L124" s="9">
-        <v>0</v>
+        <v>-47</v>
       </c>
       <c r="M124" s="9">
-        <v>-47</v>
+        <v>0</v>
       </c>
       <c r="N124" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B125" s="12" t="s">
         <v>17</v>
       </c>
       <c r="C125" s="13"/>
       <c r="D125" s="13"/>
       <c r="E125" s="13">
-        <v>94659</v>
+        <v>158798</v>
       </c>
       <c r="F125" s="13">
-        <v>158798</v>
+        <v>148622</v>
       </c>
       <c r="G125" s="13">
-        <v>148622</v>
+        <v>180257</v>
       </c>
       <c r="H125" s="13">
-        <v>180257</v>
+        <v>279081</v>
       </c>
       <c r="I125" s="13">
-        <v>279081</v>
+        <v>353363</v>
       </c>
       <c r="J125" s="13">
-        <v>353363</v>
+        <v>269802</v>
       </c>
       <c r="K125" s="13">
-        <v>269802</v>
+        <v>324943</v>
       </c>
       <c r="L125" s="13">
-        <v>324943</v>
+        <v>349873</v>
       </c>
       <c r="M125" s="13">
-        <v>349873</v>
+        <v>358019</v>
       </c>
       <c r="N125" s="13">
-        <v>358019</v>
-      </c>
-    </row>
-    <row r="126" spans="2:14" x14ac:dyDescent="0.25">
+        <v>647170</v>
+      </c>
+    </row>
+    <row r="126" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
@@ -4836,7 +4836,7 @@
       <c r="M126" s="1"/>
       <c r="N126" s="1"/>
     </row>
-    <row r="127" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
       <c r="D127" s="1"/>
@@ -4851,7 +4851,7 @@
       <c r="M127" s="1"/>
       <c r="N127" s="1"/>
     </row>
-    <row r="128" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
@@ -4866,7 +4866,7 @@
       <c r="M128" s="1"/>
       <c r="N128" s="1"/>
     </row>
-    <row r="129" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B129" s="7" t="s">
         <v>49</v>
       </c>
@@ -4903,7 +4903,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="130" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
@@ -4918,133 +4918,133 @@
       <c r="M130" s="1"/>
       <c r="N130" s="1"/>
     </row>
-    <row r="131" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B131" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C131" s="9" t="s">
         <v>30</v>
-      </c>
-      <c r="C131" s="9" t="s">
-        <v>31</v>
       </c>
       <c r="D131" s="9"/>
       <c r="E131" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F131" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="G131" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="H131" s="9">
-        <v>0</v>
+        <v>31</v>
+      </c>
+      <c r="G131" s="9">
+        <v>0</v>
+      </c>
+      <c r="H131" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="I131" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J131" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K131" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L131" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M131" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N131" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="132" spans="2:14" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="132" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B132" s="10" t="s">
         <v>32</v>
       </c>
       <c r="C132" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D132" s="11"/>
       <c r="E132" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F132" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="G132" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="H132" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I132" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J132" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K132" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L132" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M132" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N132" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="133" spans="2:14" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="133" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B133" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C133" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D133" s="9"/>
       <c r="E133" s="9">
-        <v>18321</v>
+        <v>15934</v>
       </c>
       <c r="F133" s="9">
-        <v>15934</v>
+        <v>28537</v>
       </c>
       <c r="G133" s="9">
-        <v>28537</v>
+        <v>32659</v>
       </c>
       <c r="H133" s="9">
-        <v>32659</v>
+        <v>50681</v>
       </c>
       <c r="I133" s="9">
-        <v>50681</v>
+        <v>23943</v>
       </c>
       <c r="J133" s="9">
-        <v>23943</v>
+        <v>51283</v>
       </c>
       <c r="K133" s="9">
-        <v>51283</v>
+        <v>65091</v>
       </c>
       <c r="L133" s="9">
-        <v>65091</v>
+        <v>97251</v>
       </c>
       <c r="M133" s="9">
-        <v>97251</v>
+        <v>84209</v>
       </c>
       <c r="N133" s="9">
-        <v>84209</v>
-      </c>
-    </row>
-    <row r="134" spans="2:14" x14ac:dyDescent="0.25">
+        <v>66294</v>
+      </c>
+    </row>
+    <row r="134" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B134" s="10" t="s">
         <v>35</v>
       </c>
       <c r="C134" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D134" s="11"/>
       <c r="E134" s="11">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F134" s="11">
         <v>0</v>
@@ -5053,33 +5053,33 @@
         <v>0</v>
       </c>
       <c r="H134" s="11">
-        <v>0</v>
+        <v>509</v>
       </c>
       <c r="I134" s="11">
-        <v>509</v>
+        <v>542</v>
       </c>
       <c r="J134" s="11">
-        <v>542</v>
+        <v>707</v>
       </c>
       <c r="K134" s="11">
-        <v>707</v>
+        <v>2598</v>
       </c>
       <c r="L134" s="11">
-        <v>2598</v>
+        <v>179</v>
       </c>
       <c r="M134" s="11">
-        <v>179</v>
+        <v>0</v>
       </c>
       <c r="N134" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B135" s="8" t="s">
         <v>36</v>
       </c>
       <c r="C135" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D135" s="9"/>
       <c r="E135" s="9">
@@ -5113,175 +5113,175 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B136" s="10" t="s">
         <v>37</v>
       </c>
       <c r="C136" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D136" s="11"/>
       <c r="E136" s="11">
-        <v>11288</v>
+        <v>11554</v>
       </c>
       <c r="F136" s="11">
-        <v>11554</v>
+        <v>11889</v>
       </c>
       <c r="G136" s="11">
-        <v>11889</v>
+        <v>21822</v>
       </c>
       <c r="H136" s="11">
-        <v>21822</v>
+        <v>16537</v>
       </c>
       <c r="I136" s="11">
-        <v>16537</v>
+        <v>14465</v>
       </c>
       <c r="J136" s="11">
-        <v>14465</v>
+        <v>16979</v>
       </c>
       <c r="K136" s="11">
-        <v>16979</v>
+        <v>14149</v>
       </c>
       <c r="L136" s="11">
-        <v>14149</v>
+        <v>16657</v>
       </c>
       <c r="M136" s="11">
-        <v>16657</v>
+        <v>18474</v>
       </c>
       <c r="N136" s="11">
-        <v>18474</v>
-      </c>
-    </row>
-    <row r="137" spans="2:14" x14ac:dyDescent="0.25">
+        <v>19520</v>
+      </c>
+    </row>
+    <row r="137" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B137" s="8" t="s">
         <v>38</v>
       </c>
       <c r="C137" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D137" s="9"/>
       <c r="E137" s="9">
-        <v>35698</v>
+        <v>59267</v>
       </c>
       <c r="F137" s="9">
-        <v>59267</v>
+        <v>56645</v>
       </c>
       <c r="G137" s="9">
-        <v>56645</v>
+        <v>81180</v>
       </c>
       <c r="H137" s="9">
-        <v>81180</v>
+        <v>68223</v>
       </c>
       <c r="I137" s="9">
-        <v>68223</v>
+        <v>85045</v>
       </c>
       <c r="J137" s="9">
-        <v>85045</v>
+        <v>101849</v>
       </c>
       <c r="K137" s="9">
-        <v>101849</v>
+        <v>148337</v>
       </c>
       <c r="L137" s="9">
-        <v>148337</v>
+        <v>66487</v>
       </c>
       <c r="M137" s="9">
-        <v>66487</v>
+        <v>156047</v>
       </c>
       <c r="N137" s="9">
-        <v>156047</v>
-      </c>
-    </row>
-    <row r="138" spans="2:14" x14ac:dyDescent="0.25">
+        <v>111882</v>
+      </c>
+    </row>
+    <row r="138" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B138" s="10" t="s">
         <v>39</v>
       </c>
       <c r="C138" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D138" s="11"/>
       <c r="E138" s="11">
-        <v>20992</v>
+        <v>16648</v>
       </c>
       <c r="F138" s="11">
-        <v>16648</v>
+        <v>26425</v>
       </c>
       <c r="G138" s="11">
-        <v>26425</v>
+        <v>28473</v>
       </c>
       <c r="H138" s="11">
-        <v>28473</v>
+        <v>54599</v>
       </c>
       <c r="I138" s="11">
-        <v>54599</v>
+        <v>36095</v>
       </c>
       <c r="J138" s="11">
-        <v>36095</v>
+        <v>58798</v>
       </c>
       <c r="K138" s="11">
-        <v>58798</v>
+        <v>102966</v>
       </c>
       <c r="L138" s="11">
-        <v>102966</v>
+        <v>103403</v>
       </c>
       <c r="M138" s="11">
-        <v>103403</v>
+        <v>121503</v>
       </c>
       <c r="N138" s="11">
-        <v>121503</v>
-      </c>
-    </row>
-    <row r="139" spans="2:14" x14ac:dyDescent="0.25">
+        <v>97458</v>
+      </c>
+    </row>
+    <row r="139" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B139" s="8" t="s">
         <v>40</v>
       </c>
       <c r="C139" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D139" s="9"/>
-      <c r="E139" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F139" s="9">
-        <v>0</v>
-      </c>
-      <c r="G139" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="H139" s="9">
-        <v>0</v>
+      <c r="E139" s="9">
+        <v>0</v>
+      </c>
+      <c r="F139" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G139" s="9">
+        <v>0</v>
+      </c>
+      <c r="H139" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="I139" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J139" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K139" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L139" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M139" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N139" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="140" spans="2:14" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="140" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B140" s="10" t="s">
         <v>41</v>
       </c>
       <c r="C140" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D140" s="11"/>
-      <c r="E140" s="11" t="s">
-        <v>25</v>
+      <c r="E140" s="11">
+        <v>34089</v>
       </c>
       <c r="F140" s="11">
-        <v>34089</v>
+        <v>0</v>
       </c>
       <c r="G140" s="11">
         <v>0</v>
@@ -5289,102 +5289,102 @@
       <c r="H140" s="11">
         <v>0</v>
       </c>
-      <c r="I140" s="11">
-        <v>0</v>
+      <c r="I140" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="J140" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K140" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L140" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M140" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N140" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="141" spans="2:14" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="141" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B141" s="8" t="s">
         <v>42</v>
       </c>
       <c r="C141" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D141" s="9"/>
       <c r="E141" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F141" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="G141" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="H141" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="I141" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
+      </c>
+      <c r="I141" s="9">
+        <v>158</v>
       </c>
       <c r="J141" s="9">
-        <v>158</v>
+        <v>99</v>
       </c>
       <c r="K141" s="9">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="L141" s="9">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="M141" s="9">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="N141" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B142" s="12" t="s">
         <v>17</v>
       </c>
       <c r="C142" s="13"/>
       <c r="D142" s="13"/>
       <c r="E142" s="13">
-        <v>86302</v>
+        <v>137492</v>
       </c>
       <c r="F142" s="13">
-        <v>137492</v>
+        <v>123496</v>
       </c>
       <c r="G142" s="13">
-        <v>123496</v>
+        <v>164134</v>
       </c>
       <c r="H142" s="13">
-        <v>164134</v>
+        <v>190549</v>
       </c>
       <c r="I142" s="13">
-        <v>190549</v>
+        <v>160248</v>
       </c>
       <c r="J142" s="13">
-        <v>160248</v>
+        <v>229715</v>
       </c>
       <c r="K142" s="13">
-        <v>229715</v>
+        <v>333141</v>
       </c>
       <c r="L142" s="13">
-        <v>333141</v>
+        <v>284010</v>
       </c>
       <c r="M142" s="13">
-        <v>284010</v>
+        <v>380233</v>
       </c>
       <c r="N142" s="13">
-        <v>380233</v>
-      </c>
-    </row>
-    <row r="143" spans="2:14" x14ac:dyDescent="0.25">
+        <v>295154</v>
+      </c>
+    </row>
+    <row r="143" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
       <c r="D143" s="1"/>
@@ -5399,7 +5399,7 @@
       <c r="M143" s="1"/>
       <c r="N143" s="1"/>
     </row>
-    <row r="144" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
       <c r="D144" s="1"/>
@@ -5414,7 +5414,7 @@
       <c r="M144" s="1"/>
       <c r="N144" s="1"/>
     </row>
-    <row r="145" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
       <c r="D145" s="1"/>
@@ -5429,7 +5429,7 @@
       <c r="M145" s="1"/>
       <c r="N145" s="1"/>
     </row>
-    <row r="146" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B146" s="7" t="s">
         <v>50</v>
       </c>
@@ -5466,7 +5466,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="147" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
       <c r="D147" s="1"/>
@@ -5481,129 +5481,129 @@
       <c r="M147" s="1"/>
       <c r="N147" s="1"/>
     </row>
-    <row r="148" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B148" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C148" s="9" t="s">
         <v>30</v>
-      </c>
-      <c r="C148" s="9" t="s">
-        <v>31</v>
       </c>
       <c r="D148" s="9"/>
       <c r="E148" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F148" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="G148" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="H148" s="9">
-        <v>0</v>
+        <v>31</v>
+      </c>
+      <c r="G148" s="9">
+        <v>0</v>
+      </c>
+      <c r="H148" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="I148" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J148" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K148" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L148" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M148" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N148" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="149" spans="2:14" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="149" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B149" s="10" t="s">
         <v>32</v>
       </c>
       <c r="C149" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D149" s="11"/>
       <c r="E149" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F149" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="G149" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="H149" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I149" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J149" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K149" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L149" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M149" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N149" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="150" spans="2:14" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="150" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B150" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C150" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D150" s="9"/>
       <c r="E150" s="9">
-        <v>8749</v>
+        <v>10902</v>
       </c>
       <c r="F150" s="9">
-        <v>10902</v>
+        <v>12787</v>
       </c>
       <c r="G150" s="9">
-        <v>12787</v>
+        <v>9657</v>
       </c>
       <c r="H150" s="9">
-        <v>9657</v>
+        <v>11475</v>
       </c>
       <c r="I150" s="9">
-        <v>11475</v>
+        <v>16182</v>
       </c>
       <c r="J150" s="9">
-        <v>16182</v>
+        <v>24944</v>
       </c>
       <c r="K150" s="9">
-        <v>24944</v>
+        <v>18700</v>
       </c>
       <c r="L150" s="9">
-        <v>18700</v>
+        <v>24093</v>
       </c>
       <c r="M150" s="9">
-        <v>24093</v>
+        <v>25856</v>
       </c>
       <c r="N150" s="9">
-        <v>25856</v>
-      </c>
-    </row>
-    <row r="151" spans="2:14" x14ac:dyDescent="0.25">
+        <v>29674</v>
+      </c>
+    </row>
+    <row r="151" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B151" s="10" t="s">
         <v>35</v>
       </c>
       <c r="C151" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D151" s="11"/>
       <c r="E151" s="11">
@@ -5613,22 +5613,22 @@
         <v>5384</v>
       </c>
       <c r="G151" s="11">
-        <v>5384</v>
+        <v>5699</v>
       </c>
       <c r="H151" s="11">
-        <v>5699</v>
+        <v>5191</v>
       </c>
       <c r="I151" s="11">
-        <v>5191</v>
+        <v>4646</v>
       </c>
       <c r="J151" s="11">
-        <v>4646</v>
+        <v>4705</v>
       </c>
       <c r="K151" s="11">
-        <v>4705</v>
+        <v>2107</v>
       </c>
       <c r="L151" s="11">
-        <v>2107</v>
+        <v>1928</v>
       </c>
       <c r="M151" s="11">
         <v>1928</v>
@@ -5637,12 +5637,12 @@
         <v>1928</v>
       </c>
     </row>
-    <row r="152" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B152" s="8" t="s">
         <v>36</v>
       </c>
       <c r="C152" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D152" s="9"/>
       <c r="E152" s="9">
@@ -5658,10 +5658,10 @@
         <v>159</v>
       </c>
       <c r="I152" s="9">
-        <v>159</v>
+        <v>10022</v>
       </c>
       <c r="J152" s="9">
-        <v>10022</v>
+        <v>152</v>
       </c>
       <c r="K152" s="9">
         <v>152</v>
@@ -5676,168 +5676,168 @@
         <v>152</v>
       </c>
     </row>
-    <row r="153" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B153" s="10" t="s">
         <v>37</v>
       </c>
       <c r="C153" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D153" s="11"/>
       <c r="E153" s="11">
-        <v>3982</v>
+        <v>9302</v>
       </c>
       <c r="F153" s="11">
-        <v>9302</v>
+        <v>24141</v>
       </c>
       <c r="G153" s="11">
-        <v>24141</v>
+        <v>15971</v>
       </c>
       <c r="H153" s="11">
-        <v>15971</v>
+        <v>56393</v>
       </c>
       <c r="I153" s="11">
-        <v>56393</v>
+        <v>112535</v>
       </c>
       <c r="J153" s="11">
-        <v>112535</v>
+        <v>146710</v>
       </c>
       <c r="K153" s="11">
-        <v>146710</v>
+        <v>141325</v>
       </c>
       <c r="L153" s="11">
-        <v>141325</v>
+        <v>173428</v>
       </c>
       <c r="M153" s="11">
-        <v>173428</v>
+        <v>160702</v>
       </c>
       <c r="N153" s="11">
-        <v>160702</v>
-      </c>
-    </row>
-    <row r="154" spans="2:14" x14ac:dyDescent="0.25">
+        <v>172678</v>
+      </c>
+    </row>
+    <row r="154" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B154" s="8" t="s">
         <v>38</v>
       </c>
       <c r="C154" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D154" s="9"/>
       <c r="E154" s="9">
-        <v>22731</v>
+        <v>36648</v>
       </c>
       <c r="F154" s="9">
-        <v>36648</v>
+        <v>50498</v>
       </c>
       <c r="G154" s="9">
-        <v>50498</v>
+        <v>52517</v>
       </c>
       <c r="H154" s="9">
-        <v>52517</v>
+        <v>124108</v>
       </c>
       <c r="I154" s="9">
-        <v>124108</v>
+        <v>140457</v>
       </c>
       <c r="J154" s="9">
-        <v>140457</v>
+        <v>145597</v>
       </c>
       <c r="K154" s="9">
-        <v>145597</v>
+        <v>201189</v>
       </c>
       <c r="L154" s="9">
-        <v>201189</v>
+        <v>140166</v>
       </c>
       <c r="M154" s="9">
-        <v>140166</v>
+        <v>163203</v>
       </c>
       <c r="N154" s="9">
-        <v>163203</v>
-      </c>
-    </row>
-    <row r="155" spans="2:14" x14ac:dyDescent="0.25">
+        <v>230474</v>
+      </c>
+    </row>
+    <row r="155" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B155" s="10" t="s">
         <v>39</v>
       </c>
       <c r="C155" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D155" s="11"/>
       <c r="E155" s="11">
-        <v>6358</v>
+        <v>6274</v>
       </c>
       <c r="F155" s="11">
-        <v>6274</v>
+        <v>826</v>
       </c>
       <c r="G155" s="11">
-        <v>826</v>
+        <v>25915</v>
       </c>
       <c r="H155" s="11">
-        <v>25915</v>
+        <v>1124</v>
       </c>
       <c r="I155" s="11">
-        <v>1124</v>
+        <v>62905</v>
       </c>
       <c r="J155" s="11">
-        <v>62905</v>
+        <v>54258</v>
       </c>
       <c r="K155" s="11">
-        <v>54258</v>
+        <v>4695</v>
       </c>
       <c r="L155" s="11">
-        <v>4695</v>
+        <v>94344</v>
       </c>
       <c r="M155" s="11">
-        <v>94344</v>
+        <v>57307</v>
       </c>
       <c r="N155" s="11">
-        <v>57307</v>
-      </c>
-    </row>
-    <row r="156" spans="2:14" x14ac:dyDescent="0.25">
+        <v>326258</v>
+      </c>
+    </row>
+    <row r="156" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B156" s="8" t="s">
         <v>40</v>
       </c>
       <c r="C156" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D156" s="9"/>
-      <c r="E156" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F156" s="9">
-        <v>0</v>
-      </c>
-      <c r="G156" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="H156" s="9">
-        <v>0</v>
+      <c r="E156" s="9">
+        <v>0</v>
+      </c>
+      <c r="F156" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G156" s="9">
+        <v>0</v>
+      </c>
+      <c r="H156" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="I156" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J156" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K156" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L156" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M156" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N156" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="157" spans="2:14" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="157" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B157" s="10" t="s">
         <v>41</v>
       </c>
       <c r="C157" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D157" s="11"/>
       <c r="E157" s="11">
@@ -5852,56 +5852,56 @@
       <c r="H157" s="11">
         <v>0</v>
       </c>
-      <c r="I157" s="11">
-        <v>0</v>
+      <c r="I157" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="J157" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K157" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L157" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M157" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N157" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="158" spans="2:14" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="158" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B158" s="8" t="s">
         <v>42</v>
       </c>
       <c r="C158" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D158" s="9"/>
       <c r="E158" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F158" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="G158" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="H158" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="I158" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
+      </c>
+      <c r="I158" s="9">
+        <v>1951</v>
       </c>
       <c r="J158" s="9">
-        <v>1951</v>
+        <v>2827</v>
       </c>
       <c r="K158" s="9">
         <v>2827</v>
       </c>
       <c r="L158" s="9">
-        <v>2827</v>
+        <v>2747</v>
       </c>
       <c r="M158" s="9">
         <v>2747</v>
@@ -5910,44 +5910,44 @@
         <v>2747</v>
       </c>
     </row>
-    <row r="159" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B159" s="12" t="s">
         <v>17</v>
       </c>
       <c r="C159" s="13"/>
       <c r="D159" s="13"/>
       <c r="E159" s="13">
-        <v>47363</v>
+        <v>68669</v>
       </c>
       <c r="F159" s="13">
-        <v>68669</v>
+        <v>93795</v>
       </c>
       <c r="G159" s="13">
-        <v>93795</v>
+        <v>109918</v>
       </c>
       <c r="H159" s="13">
-        <v>109918</v>
+        <v>198450</v>
       </c>
       <c r="I159" s="13">
-        <v>198450</v>
+        <v>348698</v>
       </c>
       <c r="J159" s="13">
-        <v>348698</v>
+        <v>379193</v>
       </c>
       <c r="K159" s="13">
-        <v>379193</v>
+        <v>370995</v>
       </c>
       <c r="L159" s="13">
-        <v>370995</v>
+        <v>436858</v>
       </c>
       <c r="M159" s="13">
-        <v>436858</v>
+        <v>411895</v>
       </c>
       <c r="N159" s="13">
-        <v>411895</v>
-      </c>
-    </row>
-    <row r="160" spans="2:14" x14ac:dyDescent="0.25">
+        <v>763911</v>
+      </c>
+    </row>
+    <row r="160" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
       <c r="D160" s="1"/>
@@ -5962,7 +5962,7 @@
       <c r="M160" s="1"/>
       <c r="N160" s="1"/>
     </row>
-    <row r="161" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
       <c r="D161" s="1"/>
@@ -5977,7 +5977,7 @@
       <c r="M161" s="1"/>
       <c r="N161" s="1"/>
     </row>
-    <row r="162" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
       <c r="D162" s="1"/>
@@ -5992,7 +5992,7 @@
       <c r="M162" s="1"/>
       <c r="N162" s="1"/>
     </row>
-    <row r="163" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B163" s="7" t="s">
         <v>51</v>
       </c>
@@ -6029,7 +6029,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="164" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
       <c r="D164" s="1"/>
@@ -6044,7 +6044,7 @@
       <c r="M164" s="1"/>
       <c r="N164" s="1"/>
     </row>
-    <row r="165" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B165" s="8" t="s">
         <v>32</v>
       </c>
@@ -6053,37 +6053,37 @@
       </c>
       <c r="D165" s="9"/>
       <c r="E165" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F165" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="G165" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="H165" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I165" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J165" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K165" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L165" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M165" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N165" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="166" spans="2:14" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="166" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B166" s="10" t="s">
         <v>34</v>
       </c>
@@ -6092,37 +6092,37 @@
       </c>
       <c r="D166" s="11"/>
       <c r="E166" s="11">
-        <v>42191</v>
+        <v>37116</v>
       </c>
       <c r="F166" s="11">
-        <v>37116</v>
+        <v>55158</v>
       </c>
       <c r="G166" s="11">
-        <v>55158</v>
+        <v>80963</v>
       </c>
       <c r="H166" s="11">
-        <v>80963</v>
+        <v>101493</v>
       </c>
       <c r="I166" s="11">
-        <v>101493</v>
+        <v>57546</v>
       </c>
       <c r="J166" s="11">
-        <v>57546</v>
+        <v>82636</v>
       </c>
       <c r="K166" s="11">
-        <v>82636</v>
+        <v>158439</v>
       </c>
       <c r="L166" s="11">
-        <v>158439</v>
+        <v>160197</v>
       </c>
       <c r="M166" s="11">
-        <v>160197</v>
+        <v>177654</v>
       </c>
       <c r="N166" s="11">
-        <v>177654</v>
-      </c>
-    </row>
-    <row r="167" spans="2:14" x14ac:dyDescent="0.25">
+        <v>233699</v>
+      </c>
+    </row>
+    <row r="167" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B167" s="8" t="s">
         <v>35</v>
       </c>
@@ -6131,37 +6131,37 @@
       </c>
       <c r="D167" s="9"/>
       <c r="E167" s="9">
-        <v>640647</v>
+        <v>641029</v>
       </c>
       <c r="F167" s="9">
         <v>641029</v>
       </c>
       <c r="G167" s="9">
-        <v>641029</v>
+        <v>640952</v>
       </c>
       <c r="H167" s="9">
-        <v>640952</v>
+        <v>670076</v>
       </c>
       <c r="I167" s="9">
-        <v>670076</v>
+        <v>1337458</v>
       </c>
       <c r="J167" s="9">
-        <v>1337458</v>
+        <v>1337748</v>
       </c>
       <c r="K167" s="9">
-        <v>1337748</v>
+        <v>1468019</v>
       </c>
       <c r="L167" s="9">
-        <v>1468019</v>
+        <v>1468293</v>
       </c>
       <c r="M167" s="9">
-        <v>1468293</v>
+        <v>1468393</v>
       </c>
       <c r="N167" s="9">
         <v>1468393</v>
       </c>
     </row>
-    <row r="168" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B168" s="10" t="s">
         <v>36</v>
       </c>
@@ -6170,7 +6170,7 @@
       </c>
       <c r="D168" s="11"/>
       <c r="E168" s="11">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="F168" s="11">
         <v>944</v>
@@ -6182,13 +6182,13 @@
         <v>944</v>
       </c>
       <c r="I168" s="11">
-        <v>944</v>
+        <v>60102</v>
       </c>
       <c r="J168" s="11">
         <v>60102</v>
       </c>
       <c r="K168" s="11">
-        <v>60102</v>
+        <v>912</v>
       </c>
       <c r="L168" s="11">
         <v>912</v>
@@ -6200,7 +6200,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="169" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B169" s="8" t="s">
         <v>37</v>
       </c>
@@ -6209,37 +6209,37 @@
       </c>
       <c r="D169" s="9"/>
       <c r="E169" s="9">
-        <v>514728</v>
+        <v>539493</v>
       </c>
       <c r="F169" s="9">
-        <v>539493</v>
+        <v>635513</v>
       </c>
       <c r="G169" s="9">
-        <v>635513</v>
+        <v>720584</v>
       </c>
       <c r="H169" s="9">
-        <v>720584</v>
+        <v>843866</v>
       </c>
       <c r="I169" s="9">
-        <v>843866</v>
+        <v>947665</v>
       </c>
       <c r="J169" s="9">
-        <v>947665</v>
+        <v>1016393</v>
       </c>
       <c r="K169" s="9">
-        <v>1016393</v>
+        <v>1000907</v>
       </c>
       <c r="L169" s="9">
-        <v>1000907</v>
+        <v>990566</v>
       </c>
       <c r="M169" s="9">
-        <v>990566</v>
+        <v>1066002</v>
       </c>
       <c r="N169" s="9">
-        <v>1066002</v>
-      </c>
-    </row>
-    <row r="170" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1077799</v>
+      </c>
+    </row>
+    <row r="170" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B170" s="10" t="s">
         <v>38</v>
       </c>
@@ -6248,37 +6248,37 @@
       </c>
       <c r="D170" s="11"/>
       <c r="E170" s="11">
-        <v>57321</v>
+        <v>57041</v>
       </c>
       <c r="F170" s="11">
-        <v>57041</v>
+        <v>87329</v>
       </c>
       <c r="G170" s="11">
-        <v>87329</v>
+        <v>101058</v>
       </c>
       <c r="H170" s="11">
-        <v>101058</v>
+        <v>107298</v>
       </c>
       <c r="I170" s="11">
-        <v>107298</v>
+        <v>132879</v>
       </c>
       <c r="J170" s="11">
-        <v>132879</v>
+        <v>223518</v>
       </c>
       <c r="K170" s="11">
-        <v>223518</v>
+        <v>232345</v>
       </c>
       <c r="L170" s="11">
-        <v>232345</v>
+        <v>367480</v>
       </c>
       <c r="M170" s="11">
-        <v>367480</v>
+        <v>250429</v>
       </c>
       <c r="N170" s="11">
-        <v>250429</v>
-      </c>
-    </row>
-    <row r="171" spans="2:14" x14ac:dyDescent="0.25">
+        <v>303055</v>
+      </c>
+    </row>
+    <row r="171" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B171" s="8" t="s">
         <v>39</v>
       </c>
@@ -6287,37 +6287,37 @@
       </c>
       <c r="D171" s="9"/>
       <c r="E171" s="9">
-        <v>744064</v>
+        <v>1070551</v>
       </c>
       <c r="F171" s="9">
-        <v>1070551</v>
+        <v>1403893</v>
       </c>
       <c r="G171" s="9">
-        <v>1403893</v>
+        <v>1852018</v>
       </c>
       <c r="H171" s="9">
-        <v>1852018</v>
+        <v>2025242</v>
       </c>
       <c r="I171" s="9">
-        <v>2025242</v>
+        <v>161987</v>
       </c>
       <c r="J171" s="9">
-        <v>161987</v>
+        <v>2282226</v>
       </c>
       <c r="K171" s="9">
-        <v>2282226</v>
+        <v>2611320</v>
       </c>
       <c r="L171" s="9">
-        <v>2611320</v>
+        <v>3777152</v>
       </c>
       <c r="M171" s="9">
-        <v>3777152</v>
+        <v>5995425</v>
       </c>
       <c r="N171" s="9">
-        <v>5995425</v>
-      </c>
-    </row>
-    <row r="172" spans="2:14" x14ac:dyDescent="0.25">
+        <v>5318022</v>
+      </c>
+    </row>
+    <row r="172" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B172" s="10" t="s">
         <v>42</v>
       </c>
@@ -6326,37 +6326,37 @@
       </c>
       <c r="D172" s="11"/>
       <c r="E172" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F172" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="G172" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="H172" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I172" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J172" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K172" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L172" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="M172" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
+      </c>
+      <c r="M172" s="11">
+        <v>646962</v>
       </c>
       <c r="N172" s="11">
         <v>646962</v>
       </c>
     </row>
-    <row r="173" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
       <c r="D173" s="1"/>
@@ -6371,7 +6371,7 @@
       <c r="M173" s="1"/>
       <c r="N173" s="1"/>
     </row>
-    <row r="174" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
       <c r="D174" s="1"/>
@@ -6386,7 +6386,7 @@
       <c r="M174" s="1"/>
       <c r="N174" s="1"/>
     </row>
-    <row r="175" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
       <c r="D175" s="1"/>
@@ -6401,7 +6401,7 @@
       <c r="M175" s="1"/>
       <c r="N175" s="1"/>
     </row>
-    <row r="176" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B176" s="7" t="s">
         <v>53</v>
       </c>
@@ -6438,7 +6438,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="177" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
       <c r="D177" s="1"/>
@@ -6453,7 +6453,7 @@
       <c r="M177" s="1"/>
       <c r="N177" s="1"/>
     </row>
-    <row r="178" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B178" s="8" t="s">
         <v>32</v>
       </c>
@@ -6462,37 +6462,37 @@
       </c>
       <c r="D178" s="9"/>
       <c r="E178" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F178" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="G178" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="H178" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I178" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J178" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K178" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L178" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M178" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N178" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="179" spans="2:14" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="179" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B179" s="10" t="s">
         <v>34</v>
       </c>
@@ -6501,37 +6501,37 @@
       </c>
       <c r="D179" s="11"/>
       <c r="E179" s="11">
-        <v>43371</v>
+        <v>64988</v>
       </c>
       <c r="F179" s="11">
-        <v>64988</v>
+        <v>121329</v>
       </c>
       <c r="G179" s="11">
-        <v>121329</v>
+        <v>92259</v>
       </c>
       <c r="H179" s="11">
-        <v>92259</v>
+        <v>172012</v>
       </c>
       <c r="I179" s="11">
-        <v>172012</v>
+        <v>95038</v>
       </c>
       <c r="J179" s="11">
-        <v>95038</v>
+        <v>241684</v>
       </c>
       <c r="K179" s="11">
-        <v>241684</v>
+        <v>160507</v>
       </c>
       <c r="L179" s="11">
-        <v>160507</v>
+        <v>268925</v>
       </c>
       <c r="M179" s="11">
-        <v>268925</v>
+        <v>240000</v>
       </c>
       <c r="N179" s="11">
-        <v>240000</v>
-      </c>
-    </row>
-    <row r="180" spans="2:14" x14ac:dyDescent="0.25">
+        <v>248639</v>
+      </c>
+    </row>
+    <row r="180" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B180" s="8" t="s">
         <v>35</v>
       </c>
@@ -6540,37 +6540,37 @@
       </c>
       <c r="D180" s="9"/>
       <c r="E180" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F180" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="G180" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="H180" s="9">
+        <v>31</v>
+      </c>
+      <c r="G180" s="9">
         <v>3000000</v>
       </c>
+      <c r="H180" s="9" t="s">
+        <v>31</v>
+      </c>
       <c r="I180" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="J180" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="K180" s="9">
+        <v>31</v>
+      </c>
+      <c r="J180" s="9">
         <v>3596244</v>
       </c>
+      <c r="K180" s="9" t="s">
+        <v>31</v>
+      </c>
       <c r="L180" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M180" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N180" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="181" spans="2:14" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="181" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B181" s="10" t="s">
         <v>37</v>
       </c>
@@ -6579,37 +6579,37 @@
       </c>
       <c r="D181" s="11"/>
       <c r="E181" s="11">
-        <v>466270</v>
+        <v>624177</v>
       </c>
       <c r="F181" s="11">
-        <v>624177</v>
+        <v>744388</v>
       </c>
       <c r="G181" s="11">
-        <v>744388</v>
+        <v>1165841</v>
       </c>
       <c r="H181" s="11">
-        <v>1165841</v>
+        <v>1045273</v>
       </c>
       <c r="I181" s="11">
-        <v>1045273</v>
+        <v>1025606</v>
       </c>
       <c r="J181" s="11">
-        <v>1025606</v>
+        <v>1035778</v>
       </c>
       <c r="K181" s="11">
-        <v>1035778</v>
+        <v>865666</v>
       </c>
       <c r="L181" s="11">
-        <v>865666</v>
+        <v>1363850</v>
       </c>
       <c r="M181" s="11">
-        <v>1363850</v>
+        <v>1400136</v>
       </c>
       <c r="N181" s="11">
-        <v>1400136</v>
-      </c>
-    </row>
-    <row r="182" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1399947</v>
+      </c>
+    </row>
+    <row r="182" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B182" s="8" t="s">
         <v>38</v>
       </c>
@@ -6618,37 +6618,37 @@
       </c>
       <c r="D182" s="9"/>
       <c r="E182" s="9">
-        <v>95788</v>
+        <v>161100</v>
       </c>
       <c r="F182" s="9">
-        <v>161100</v>
+        <v>165146</v>
       </c>
       <c r="G182" s="9">
-        <v>165146</v>
+        <v>174813</v>
       </c>
       <c r="H182" s="9">
-        <v>174813</v>
+        <v>173225</v>
       </c>
       <c r="I182" s="9">
-        <v>173225</v>
+        <v>313986</v>
       </c>
       <c r="J182" s="9">
-        <v>313986</v>
+        <v>222093</v>
       </c>
       <c r="K182" s="9">
-        <v>222093</v>
+        <v>395214</v>
       </c>
       <c r="L182" s="9">
-        <v>395214</v>
+        <v>10509</v>
       </c>
       <c r="M182" s="9">
-        <v>10509</v>
+        <v>499863</v>
       </c>
       <c r="N182" s="9">
-        <v>499863</v>
-      </c>
-    </row>
-    <row r="183" spans="2:14" x14ac:dyDescent="0.25">
+        <v>463383</v>
+      </c>
+    </row>
+    <row r="183" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B183" s="10" t="s">
         <v>39</v>
       </c>
@@ -6657,37 +6657,37 @@
       </c>
       <c r="D183" s="11"/>
       <c r="E183" s="11">
-        <v>1272252</v>
+        <v>1305177</v>
       </c>
       <c r="F183" s="11">
-        <v>1305177</v>
+        <v>2182830</v>
       </c>
       <c r="G183" s="11">
-        <v>2182830</v>
+        <v>1742817</v>
       </c>
       <c r="H183" s="11">
-        <v>1742817</v>
+        <v>3307957</v>
       </c>
       <c r="I183" s="11">
-        <v>3307957</v>
+        <v>2616699</v>
       </c>
       <c r="J183" s="11">
-        <v>2616699</v>
+        <v>3326546</v>
       </c>
       <c r="K183" s="11">
-        <v>3326546</v>
+        <v>6115081</v>
       </c>
       <c r="L183" s="11">
-        <v>6115081</v>
+        <v>6238552</v>
       </c>
       <c r="M183" s="11">
-        <v>6238552</v>
+        <v>4968004</v>
       </c>
       <c r="N183" s="11">
-        <v>4968004</v>
-      </c>
-    </row>
-    <row r="184" spans="2:14" x14ac:dyDescent="0.25">
+        <v>6588549</v>
+      </c>
+    </row>
+    <row r="184" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B184" s="8" t="s">
         <v>41</v>
       </c>
@@ -6695,38 +6695,38 @@
         <v>52</v>
       </c>
       <c r="D184" s="9"/>
-      <c r="E184" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F184" s="9">
+      <c r="E184" s="9">
         <v>1382753</v>
       </c>
+      <c r="F184" s="9" t="s">
+        <v>31</v>
+      </c>
       <c r="G184" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="H184" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I184" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J184" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K184" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L184" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M184" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N184" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="185" spans="2:14" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="185" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B185" s="10" t="s">
         <v>42</v>
       </c>
@@ -6735,37 +6735,37 @@
       </c>
       <c r="D185" s="11"/>
       <c r="E185" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F185" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="G185" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="H185" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="I185" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
+      </c>
+      <c r="I185" s="11">
+        <v>660094</v>
       </c>
       <c r="J185" s="11">
-        <v>660094</v>
-      </c>
-      <c r="K185" s="11">
         <v>650000</v>
       </c>
+      <c r="K185" s="11" t="s">
+        <v>31</v>
+      </c>
       <c r="L185" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M185" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N185" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="186" spans="2:14" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="186" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
       <c r="D186" s="1"/>
@@ -6780,7 +6780,7 @@
       <c r="M186" s="1"/>
       <c r="N186" s="1"/>
     </row>
-    <row r="187" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
       <c r="D187" s="1"/>
@@ -6795,7 +6795,7 @@
       <c r="M187" s="1"/>
       <c r="N187" s="1"/>
     </row>
-    <row r="188" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
       <c r="D188" s="1"/>
@@ -6810,7 +6810,7 @@
       <c r="M188" s="1"/>
       <c r="N188" s="1"/>
     </row>
-    <row r="189" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B189" s="7" t="s">
         <v>54</v>
       </c>
@@ -6847,7 +6847,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="190" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
       <c r="D190" s="1"/>
@@ -6862,7 +6862,7 @@
       <c r="M190" s="1"/>
       <c r="N190" s="1"/>
     </row>
-    <row r="191" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B191" s="8" t="s">
         <v>32</v>
       </c>
@@ -6871,37 +6871,37 @@
       </c>
       <c r="D191" s="9"/>
       <c r="E191" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F191" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="G191" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="H191" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I191" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J191" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K191" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L191" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M191" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N191" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="192" spans="2:14" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="192" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B192" s="10" t="s">
         <v>34</v>
       </c>
@@ -6910,37 +6910,37 @@
       </c>
       <c r="D192" s="11"/>
       <c r="E192" s="11">
-        <v>47162</v>
+        <v>50363</v>
       </c>
       <c r="F192" s="11">
-        <v>50363</v>
+        <v>98251</v>
       </c>
       <c r="G192" s="11">
-        <v>98251</v>
+        <v>85304</v>
       </c>
       <c r="H192" s="11">
-        <v>85304</v>
+        <v>166993</v>
       </c>
       <c r="I192" s="11">
-        <v>166993</v>
+        <v>78490</v>
       </c>
       <c r="J192" s="11">
-        <v>78490</v>
+        <v>178792</v>
       </c>
       <c r="K192" s="11">
-        <v>178792</v>
+        <v>159796</v>
       </c>
       <c r="L192" s="11">
-        <v>159796</v>
+        <v>268061</v>
       </c>
       <c r="M192" s="11">
-        <v>268061</v>
+        <v>219753</v>
       </c>
       <c r="N192" s="11">
-        <v>219753</v>
-      </c>
-    </row>
-    <row r="193" spans="2:14" x14ac:dyDescent="0.25">
+        <v>246763</v>
+      </c>
+    </row>
+    <row r="193" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B193" s="8" t="s">
         <v>35</v>
       </c>
@@ -6948,38 +6948,38 @@
         <v>52</v>
       </c>
       <c r="D193" s="9"/>
-      <c r="E193" s="9">
-        <v>600000</v>
+      <c r="E193" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="F193" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="G193" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="H193" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
+      </c>
+      <c r="H193" s="9">
+        <v>668857</v>
       </c>
       <c r="I193" s="9">
-        <v>668857</v>
+        <v>1334975</v>
       </c>
       <c r="J193" s="9">
-        <v>1334975</v>
+        <v>1469854</v>
       </c>
       <c r="K193" s="9">
-        <v>1469854</v>
+        <v>1467797</v>
       </c>
       <c r="L193" s="9">
-        <v>1467797</v>
-      </c>
-      <c r="M193" s="9">
         <v>1467213</v>
       </c>
+      <c r="M193" s="9" t="s">
+        <v>31</v>
+      </c>
       <c r="N193" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="194" spans="2:14" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="194" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B194" s="10" t="s">
         <v>36</v>
       </c>
@@ -6988,37 +6988,37 @@
       </c>
       <c r="D194" s="11"/>
       <c r="E194" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F194" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="G194" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="H194" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I194" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J194" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K194" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L194" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M194" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N194" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="195" spans="2:14" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="195" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B195" s="8" t="s">
         <v>37</v>
       </c>
@@ -7027,37 +7027,37 @@
       </c>
       <c r="D195" s="9"/>
       <c r="E195" s="9">
-        <v>456007</v>
+        <v>584184</v>
       </c>
       <c r="F195" s="9">
-        <v>584184</v>
+        <v>697711</v>
       </c>
       <c r="G195" s="9">
-        <v>697711</v>
+        <v>830176</v>
       </c>
       <c r="H195" s="9">
-        <v>830176</v>
+        <v>1032723</v>
       </c>
       <c r="I195" s="9">
-        <v>1032723</v>
+        <v>819686</v>
       </c>
       <c r="J195" s="9">
-        <v>819686</v>
+        <v>1254822</v>
       </c>
       <c r="K195" s="9">
-        <v>1254822</v>
+        <v>1008482</v>
       </c>
       <c r="L195" s="9">
-        <v>1008482</v>
+        <v>1034918</v>
       </c>
       <c r="M195" s="9">
-        <v>1034918</v>
+        <v>1077767</v>
       </c>
       <c r="N195" s="9">
-        <v>1077767</v>
-      </c>
-    </row>
-    <row r="196" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1109658</v>
+      </c>
+    </row>
+    <row r="196" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B196" s="10" t="s">
         <v>38</v>
       </c>
@@ -7066,37 +7066,37 @@
       </c>
       <c r="D196" s="11"/>
       <c r="E196" s="11">
-        <v>91682</v>
+        <v>136836</v>
       </c>
       <c r="F196" s="11">
-        <v>136836</v>
+        <v>163324</v>
       </c>
       <c r="G196" s="11">
-        <v>163324</v>
+        <v>166976</v>
       </c>
       <c r="H196" s="11">
-        <v>166976</v>
+        <v>91221</v>
       </c>
       <c r="I196" s="11">
-        <v>91221</v>
+        <v>213253</v>
       </c>
       <c r="J196" s="11">
-        <v>213253</v>
+        <v>211207</v>
       </c>
       <c r="K196" s="11">
-        <v>211207</v>
+        <v>249241</v>
       </c>
       <c r="L196" s="11">
-        <v>249241</v>
+        <v>130663</v>
       </c>
       <c r="M196" s="11">
-        <v>130663</v>
+        <v>411862</v>
       </c>
       <c r="N196" s="11">
-        <v>411862</v>
-      </c>
-    </row>
-    <row r="197" spans="2:14" x14ac:dyDescent="0.25">
+        <v>473122</v>
+      </c>
+    </row>
+    <row r="197" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B197" s="8" t="s">
         <v>39</v>
       </c>
@@ -7105,37 +7105,37 @@
       </c>
       <c r="D197" s="9"/>
       <c r="E197" s="9">
-        <v>1145914</v>
+        <v>1175623</v>
       </c>
       <c r="F197" s="9">
-        <v>1175623</v>
+        <v>1938169</v>
       </c>
       <c r="G197" s="9">
-        <v>1938169</v>
+        <v>1548877</v>
       </c>
       <c r="H197" s="9">
-        <v>1548877</v>
+        <v>2557809</v>
       </c>
       <c r="I197" s="9">
-        <v>2557809</v>
+        <v>2150304</v>
       </c>
       <c r="J197" s="9">
-        <v>2150304</v>
+        <v>2689630</v>
       </c>
       <c r="K197" s="9">
-        <v>2689630</v>
+        <v>3642493</v>
       </c>
       <c r="L197" s="9">
-        <v>3642493</v>
+        <v>6285133</v>
       </c>
       <c r="M197" s="9">
-        <v>6285133</v>
+        <v>5532420</v>
       </c>
       <c r="N197" s="9">
-        <v>5532420</v>
-      </c>
-    </row>
-    <row r="198" spans="2:14" x14ac:dyDescent="0.25">
+        <v>6493737</v>
+      </c>
+    </row>
+    <row r="198" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B198" s="10" t="s">
         <v>41</v>
       </c>
@@ -7143,38 +7143,38 @@
         <v>52</v>
       </c>
       <c r="D198" s="11"/>
-      <c r="E198" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="F198" s="11">
+      <c r="E198" s="11">
         <v>1382753</v>
       </c>
+      <c r="F198" s="11" t="s">
+        <v>31</v>
+      </c>
       <c r="G198" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="H198" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I198" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J198" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K198" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L198" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M198" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N198" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="199" spans="2:14" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="199" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B199" s="8" t="s">
         <v>42</v>
       </c>
@@ -7183,37 +7183,37 @@
       </c>
       <c r="D199" s="9"/>
       <c r="E199" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F199" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="G199" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="H199" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="I199" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
+      </c>
+      <c r="I199" s="9">
+        <v>644898</v>
       </c>
       <c r="J199" s="9">
-        <v>644898</v>
-      </c>
-      <c r="K199" s="9">
         <v>660000</v>
       </c>
-      <c r="L199" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="M199" s="9">
+      <c r="K199" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L199" s="9">
         <v>611111</v>
       </c>
+      <c r="M199" s="9" t="s">
+        <v>31</v>
+      </c>
       <c r="N199" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="200" spans="2:14" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="200" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
       <c r="D200" s="1"/>
@@ -7228,7 +7228,7 @@
       <c r="M200" s="1"/>
       <c r="N200" s="1"/>
     </row>
-    <row r="201" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B201" s="1"/>
       <c r="C201" s="1"/>
       <c r="D201" s="1"/>
@@ -7243,7 +7243,7 @@
       <c r="M201" s="1"/>
       <c r="N201" s="1"/>
     </row>
-    <row r="202" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B202" s="1"/>
       <c r="C202" s="1"/>
       <c r="D202" s="1"/>
@@ -7258,7 +7258,7 @@
       <c r="M202" s="1"/>
       <c r="N202" s="1"/>
     </row>
-    <row r="203" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B203" s="7" t="s">
         <v>55</v>
       </c>
@@ -7295,7 +7295,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="204" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B204" s="1"/>
       <c r="C204" s="1"/>
       <c r="D204" s="1"/>
@@ -7310,7 +7310,7 @@
       <c r="M204" s="1"/>
       <c r="N204" s="1"/>
     </row>
-    <row r="205" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="205" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B205" s="8" t="s">
         <v>32</v>
       </c>
@@ -7319,37 +7319,37 @@
       </c>
       <c r="D205" s="9"/>
       <c r="E205" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F205" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="G205" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="H205" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I205" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J205" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K205" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L205" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M205" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N205" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="206" spans="2:14" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="206" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B206" s="10" t="s">
         <v>34</v>
       </c>
@@ -7357,38 +7357,38 @@
         <v>33</v>
       </c>
       <c r="D206" s="11"/>
-      <c r="E206" s="11" t="s">
-        <v>25</v>
+      <c r="E206" s="11">
+        <v>55158</v>
       </c>
       <c r="F206" s="11">
-        <v>55158</v>
+        <v>80963</v>
       </c>
       <c r="G206" s="11">
-        <v>80963</v>
+        <v>101493</v>
       </c>
       <c r="H206" s="11">
-        <v>101493</v>
+        <v>118466</v>
       </c>
       <c r="I206" s="11">
-        <v>118466</v>
+        <v>82636</v>
       </c>
       <c r="J206" s="11">
-        <v>82636</v>
+        <v>158439</v>
       </c>
       <c r="K206" s="11">
-        <v>158439</v>
+        <v>160197</v>
       </c>
       <c r="L206" s="11">
-        <v>160197</v>
+        <v>177647</v>
       </c>
       <c r="M206" s="11">
-        <v>177647</v>
+        <v>233699</v>
       </c>
       <c r="N206" s="11">
-        <v>233699</v>
-      </c>
-    </row>
-    <row r="207" spans="2:14" x14ac:dyDescent="0.25">
+        <v>239372</v>
+      </c>
+    </row>
+    <row r="207" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B207" s="8" t="s">
         <v>35</v>
       </c>
@@ -7396,29 +7396,29 @@
         <v>33</v>
       </c>
       <c r="D207" s="9"/>
-      <c r="E207" s="9" t="s">
-        <v>25</v>
+      <c r="E207" s="9">
+        <v>641029</v>
       </c>
       <c r="F207" s="9">
-        <v>641029</v>
+        <v>640952</v>
       </c>
       <c r="G207" s="9">
-        <v>640952</v>
+        <v>670076</v>
       </c>
       <c r="H207" s="9">
-        <v>670076</v>
+        <v>670325</v>
       </c>
       <c r="I207" s="9">
-        <v>670325</v>
+        <v>1337748</v>
       </c>
       <c r="J207" s="9">
-        <v>1337748</v>
+        <v>1468019</v>
       </c>
       <c r="K207" s="9">
-        <v>1468019</v>
+        <v>1468293</v>
       </c>
       <c r="L207" s="9">
-        <v>1468293</v>
+        <v>1468393</v>
       </c>
       <c r="M207" s="9">
         <v>1468393</v>
@@ -7427,7 +7427,7 @@
         <v>1468393</v>
       </c>
     </row>
-    <row r="208" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="208" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B208" s="10" t="s">
         <v>36</v>
       </c>
@@ -7435,8 +7435,8 @@
         <v>33</v>
       </c>
       <c r="D208" s="11"/>
-      <c r="E208" s="11" t="s">
-        <v>25</v>
+      <c r="E208" s="11">
+        <v>944</v>
       </c>
       <c r="F208" s="11">
         <v>944</v>
@@ -7448,10 +7448,10 @@
         <v>944</v>
       </c>
       <c r="I208" s="11">
-        <v>944</v>
+        <v>60102</v>
       </c>
       <c r="J208" s="11">
-        <v>60102</v>
+        <v>912</v>
       </c>
       <c r="K208" s="11">
         <v>912</v>
@@ -7466,7 +7466,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="209" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="209" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B209" s="8" t="s">
         <v>37</v>
       </c>
@@ -7474,38 +7474,38 @@
         <v>33</v>
       </c>
       <c r="D209" s="9"/>
-      <c r="E209" s="9" t="s">
-        <v>25</v>
+      <c r="E209" s="9">
+        <v>635513</v>
       </c>
       <c r="F209" s="9">
-        <v>635513</v>
+        <v>720584</v>
       </c>
       <c r="G209" s="9">
-        <v>720584</v>
+        <v>843866</v>
       </c>
       <c r="H209" s="9">
-        <v>843866</v>
+        <v>982371</v>
       </c>
       <c r="I209" s="9">
-        <v>982371</v>
+        <v>1016393</v>
       </c>
       <c r="J209" s="9">
-        <v>1016393</v>
+        <v>1000907</v>
       </c>
       <c r="K209" s="9">
-        <v>1000907</v>
+        <v>990566</v>
       </c>
       <c r="L209" s="9">
-        <v>990566</v>
+        <v>1068387</v>
       </c>
       <c r="M209" s="9">
-        <v>1068387</v>
+        <v>1077799</v>
       </c>
       <c r="N209" s="9">
-        <v>1077799</v>
-      </c>
-    </row>
-    <row r="210" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1121220</v>
+      </c>
+    </row>
+    <row r="210" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B210" s="10" t="s">
         <v>38</v>
       </c>
@@ -7513,38 +7513,38 @@
         <v>33</v>
       </c>
       <c r="D210" s="11"/>
-      <c r="E210" s="11" t="s">
-        <v>25</v>
+      <c r="E210" s="11">
+        <v>87329</v>
       </c>
       <c r="F210" s="11">
-        <v>87329</v>
+        <v>101058</v>
       </c>
       <c r="G210" s="11">
-        <v>101058</v>
+        <v>107298</v>
       </c>
       <c r="H210" s="11">
-        <v>107298</v>
+        <v>226190</v>
       </c>
       <c r="I210" s="11">
-        <v>226190</v>
+        <v>223518</v>
       </c>
       <c r="J210" s="11">
-        <v>223518</v>
+        <v>232345</v>
       </c>
       <c r="K210" s="11">
-        <v>232345</v>
+        <v>367480</v>
       </c>
       <c r="L210" s="11">
-        <v>367480</v>
+        <v>250934</v>
       </c>
       <c r="M210" s="11">
-        <v>250934</v>
+        <v>303055</v>
       </c>
       <c r="N210" s="11">
-        <v>303055</v>
-      </c>
-    </row>
-    <row r="211" spans="2:14" x14ac:dyDescent="0.25">
+        <v>334665</v>
+      </c>
+    </row>
+    <row r="211" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B211" s="8" t="s">
         <v>39</v>
       </c>
@@ -7552,38 +7552,38 @@
         <v>33</v>
       </c>
       <c r="D211" s="9"/>
-      <c r="E211" s="9" t="s">
-        <v>25</v>
+      <c r="E211" s="9">
+        <v>1403893</v>
       </c>
       <c r="F211" s="9">
-        <v>1403893</v>
+        <v>1852018</v>
       </c>
       <c r="G211" s="9">
-        <v>1852018</v>
+        <v>2025242</v>
       </c>
       <c r="H211" s="9">
-        <v>2025242</v>
+        <v>2438178</v>
       </c>
       <c r="I211" s="9">
-        <v>2438178</v>
+        <v>2282226</v>
       </c>
       <c r="J211" s="9">
-        <v>2282226</v>
+        <v>2611320</v>
       </c>
       <c r="K211" s="9">
-        <v>2611320</v>
+        <v>3777152</v>
       </c>
       <c r="L211" s="9">
-        <v>3777152</v>
+        <v>5995425</v>
       </c>
       <c r="M211" s="9">
-        <v>5995425</v>
+        <v>5318022</v>
       </c>
       <c r="N211" s="9">
-        <v>5318022</v>
-      </c>
-    </row>
-    <row r="212" spans="2:14" x14ac:dyDescent="0.25">
+        <v>6349779</v>
+      </c>
+    </row>
+    <row r="212" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B212" s="10" t="s">
         <v>42</v>
       </c>
@@ -7592,28 +7592,28 @@
       </c>
       <c r="D212" s="11"/>
       <c r="E212" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F212" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="G212" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="H212" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="I212" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
+      </c>
+      <c r="I212" s="11">
+        <v>661356</v>
       </c>
       <c r="J212" s="11">
-        <v>661356</v>
+        <v>657442</v>
       </c>
       <c r="K212" s="11">
         <v>657442</v>
       </c>
       <c r="L212" s="11">
-        <v>657442</v>
+        <v>646962</v>
       </c>
       <c r="M212" s="11">
         <v>646962</v>
@@ -7622,7 +7622,7 @@
         <v>646962</v>
       </c>
     </row>
-    <row r="213" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="213" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B213" s="1"/>
       <c r="C213" s="1"/>
       <c r="D213" s="1"/>
@@ -7637,7 +7637,7 @@
       <c r="M213" s="1"/>
       <c r="N213" s="1"/>
     </row>
-    <row r="214" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="214" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B214" s="1"/>
       <c r="C214" s="1"/>
       <c r="D214" s="1"/>
@@ -7652,7 +7652,7 @@
       <c r="M214" s="1"/>
       <c r="N214" s="1"/>
     </row>
-    <row r="215" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="215" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B215" s="1"/>
       <c r="C215" s="1"/>
       <c r="D215" s="1"/>
@@ -7667,7 +7667,7 @@
       <c r="M215" s="1"/>
       <c r="N215" s="1"/>
     </row>
-    <row r="216" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="216" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B216" s="7" t="s">
         <v>56</v>
       </c>
@@ -7704,7 +7704,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="217" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="217" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B217" s="1"/>
       <c r="C217" s="1"/>
       <c r="D217" s="1"/>
@@ -7719,44 +7719,44 @@
       <c r="M217" s="1"/>
       <c r="N217" s="1"/>
     </row>
-    <row r="218" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="218" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B218" s="8" t="s">
         <v>57</v>
       </c>
       <c r="C218" s="9"/>
       <c r="D218" s="9"/>
       <c r="E218" s="9">
-        <v>25376</v>
+        <v>28740</v>
       </c>
       <c r="F218" s="9">
-        <v>28740</v>
+        <v>25307</v>
       </c>
       <c r="G218" s="9">
-        <v>25307</v>
+        <v>2172</v>
       </c>
       <c r="H218" s="9">
-        <v>2172</v>
+        <v>84230</v>
       </c>
       <c r="I218" s="9">
-        <v>84230</v>
+        <v>16224</v>
       </c>
       <c r="J218" s="9">
-        <v>16224</v>
+        <v>48145</v>
       </c>
       <c r="K218" s="9">
-        <v>48145</v>
+        <v>36108</v>
       </c>
       <c r="L218" s="9">
-        <v>36108</v>
+        <v>-36108</v>
       </c>
       <c r="M218" s="9">
-        <v>-36108</v>
+        <v>25000</v>
       </c>
       <c r="N218" s="9">
-        <v>25000</v>
-      </c>
-    </row>
-    <row r="219" spans="2:14" x14ac:dyDescent="0.25">
+        <v>51214</v>
+      </c>
+    </row>
+    <row r="219" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B219" s="10" t="s">
         <v>58</v>
       </c>
@@ -7793,7 +7793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="220" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B220" s="8" t="s">
         <v>59</v>
       </c>
@@ -7830,7 +7830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="221" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B221" s="10" t="s">
         <v>60</v>
       </c>
@@ -7867,7 +7867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="222" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B222" s="8" t="s">
         <v>61</v>
       </c>
@@ -7904,118 +7904,118 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="223" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B223" s="10" t="s">
         <v>62</v>
       </c>
       <c r="C223" s="11"/>
       <c r="D223" s="11"/>
       <c r="E223" s="11">
-        <v>99584</v>
+        <v>85303</v>
       </c>
       <c r="F223" s="11">
-        <v>85303</v>
+        <v>62402</v>
       </c>
       <c r="G223" s="11">
-        <v>62402</v>
+        <v>188735</v>
       </c>
       <c r="H223" s="11">
-        <v>188735</v>
+        <v>213700</v>
       </c>
       <c r="I223" s="11">
-        <v>213700</v>
+        <v>227997</v>
       </c>
       <c r="J223" s="11">
-        <v>227997</v>
+        <v>358828</v>
       </c>
       <c r="K223" s="11">
-        <v>358828</v>
+        <v>369304</v>
       </c>
       <c r="L223" s="11">
-        <v>369304</v>
+        <v>-369304</v>
       </c>
       <c r="M223" s="11">
-        <v>-369304</v>
+        <v>453276</v>
       </c>
       <c r="N223" s="11">
-        <v>453276</v>
-      </c>
-    </row>
-    <row r="224" spans="2:14" x14ac:dyDescent="0.25">
+        <v>261522</v>
+      </c>
+    </row>
+    <row r="224" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B224" s="8" t="s">
         <v>63</v>
       </c>
       <c r="C224" s="9"/>
       <c r="D224" s="9"/>
       <c r="E224" s="9">
-        <v>23636</v>
+        <v>23346</v>
       </c>
       <c r="F224" s="9">
-        <v>23346</v>
+        <v>23499</v>
       </c>
       <c r="G224" s="9">
-        <v>23499</v>
+        <v>23794</v>
       </c>
       <c r="H224" s="9">
-        <v>23794</v>
+        <v>21089</v>
       </c>
       <c r="I224" s="9">
-        <v>21089</v>
+        <v>23961</v>
       </c>
       <c r="J224" s="9">
-        <v>23961</v>
+        <v>23580</v>
       </c>
       <c r="K224" s="9">
-        <v>23580</v>
+        <v>24531</v>
       </c>
       <c r="L224" s="9">
-        <v>24531</v>
+        <v>-24531</v>
       </c>
       <c r="M224" s="9">
-        <v>-24531</v>
+        <v>22770</v>
       </c>
       <c r="N224" s="9">
-        <v>22770</v>
-      </c>
-    </row>
-    <row r="225" spans="2:14" x14ac:dyDescent="0.25">
+        <v>22577</v>
+      </c>
+    </row>
+    <row r="225" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B225" s="10" t="s">
         <v>64</v>
       </c>
       <c r="C225" s="11"/>
       <c r="D225" s="11"/>
       <c r="E225" s="11">
-        <v>137652</v>
+        <v>107614</v>
       </c>
       <c r="F225" s="11">
-        <v>107614</v>
+        <v>220824</v>
       </c>
       <c r="G225" s="11">
-        <v>220824</v>
+        <v>216800</v>
       </c>
       <c r="H225" s="11">
-        <v>216800</v>
+        <v>-10332</v>
       </c>
       <c r="I225" s="11">
-        <v>-10332</v>
+        <v>118185</v>
       </c>
       <c r="J225" s="11">
-        <v>118185</v>
+        <v>148767</v>
       </c>
       <c r="K225" s="11">
-        <v>148767</v>
+        <v>214593</v>
       </c>
       <c r="L225" s="11">
-        <v>214593</v>
+        <v>267891</v>
       </c>
       <c r="M225" s="11">
-        <v>267891</v>
+        <v>234659</v>
       </c>
       <c r="N225" s="11">
-        <v>234659</v>
-      </c>
-    </row>
-    <row r="226" spans="2:14" x14ac:dyDescent="0.25">
+        <v>356427</v>
+      </c>
+    </row>
+    <row r="226" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B226" s="8" t="s">
         <v>65</v>
       </c>
@@ -8052,81 +8052,81 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="227" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B227" s="10" t="s">
         <v>66</v>
       </c>
       <c r="C227" s="11"/>
       <c r="D227" s="11"/>
       <c r="E227" s="11">
-        <v>131777</v>
+        <v>359879</v>
       </c>
       <c r="F227" s="11">
-        <v>359879</v>
+        <v>258898</v>
       </c>
       <c r="G227" s="11">
-        <v>258898</v>
+        <v>381768</v>
       </c>
       <c r="H227" s="11">
-        <v>381768</v>
+        <v>673102</v>
       </c>
       <c r="I227" s="11">
-        <v>673102</v>
+        <v>506172</v>
       </c>
       <c r="J227" s="11">
-        <v>506172</v>
+        <v>688779</v>
       </c>
       <c r="K227" s="11">
-        <v>688779</v>
+        <v>544851</v>
       </c>
       <c r="L227" s="11">
-        <v>544851</v>
+        <v>1263659</v>
       </c>
       <c r="M227" s="11">
-        <v>1263659</v>
+        <v>569890</v>
       </c>
       <c r="N227" s="11">
-        <v>569890</v>
-      </c>
-    </row>
-    <row r="228" spans="2:14" x14ac:dyDescent="0.25">
+        <v>574132</v>
+      </c>
+    </row>
+    <row r="228" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B228" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C228" s="15"/>
       <c r="D228" s="15"/>
       <c r="E228" s="15">
-        <v>418025</v>
+        <v>604882</v>
       </c>
       <c r="F228" s="15">
-        <v>604882</v>
+        <v>590930</v>
       </c>
       <c r="G228" s="15">
-        <v>590930</v>
+        <v>813269</v>
       </c>
       <c r="H228" s="15">
-        <v>813269</v>
+        <v>981789</v>
       </c>
       <c r="I228" s="15">
-        <v>981789</v>
+        <v>892539</v>
       </c>
       <c r="J228" s="15">
-        <v>892539</v>
+        <v>1268099</v>
       </c>
       <c r="K228" s="15">
-        <v>1268099</v>
+        <v>1189387</v>
       </c>
       <c r="L228" s="15">
-        <v>1189387</v>
+        <v>1101607</v>
       </c>
       <c r="M228" s="15">
-        <v>1101607</v>
+        <v>1305595</v>
       </c>
       <c r="N228" s="15">
-        <v>1305595</v>
-      </c>
-    </row>
-    <row r="229" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1265872</v>
+      </c>
+    </row>
+    <row r="229" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B229" s="1"/>
       <c r="C229" s="1"/>
       <c r="D229" s="1"/>
@@ -8141,7 +8141,7 @@
       <c r="M229" s="1"/>
       <c r="N229" s="1"/>
     </row>
-    <row r="230" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="230" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B230" s="1"/>
       <c r="C230" s="1"/>
       <c r="D230" s="1"/>
@@ -8156,7 +8156,7 @@
       <c r="M230" s="1"/>
       <c r="N230" s="1"/>
     </row>
-    <row r="231" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="231" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B231" s="1"/>
       <c r="C231" s="1"/>
       <c r="D231" s="1"/>
@@ -8171,7 +8171,7 @@
       <c r="M231" s="1"/>
       <c r="N231" s="1"/>
     </row>
-    <row r="232" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="232" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B232" s="7" t="s">
         <v>67</v>
       </c>
@@ -8188,7 +8188,7 @@
       <c r="M232" s="1"/>
       <c r="N232" s="1"/>
     </row>
-    <row r="233" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="233" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B233" s="1"/>
       <c r="C233" s="1"/>
       <c r="D233" s="1"/>
@@ -8203,7 +8203,7 @@
       <c r="M233" s="1"/>
       <c r="N233" s="1"/>
     </row>
-    <row r="234" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="234" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B234" s="8" t="s">
         <v>68</v>
       </c>
@@ -8222,7 +8222,7 @@
       <c r="M234" s="1"/>
       <c r="N234" s="1"/>
     </row>
-    <row r="235" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="235" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B235" s="10" t="s">
         <v>70</v>
       </c>
@@ -8233,7 +8233,7 @@
       <c r="E235" s="11"/>
       <c r="F235" s="11"/>
     </row>
-    <row r="236" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="236" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B236" s="8" t="s">
         <v>72</v>
       </c>
@@ -8244,7 +8244,7 @@
       <c r="E236" s="9"/>
       <c r="F236" s="9"/>
     </row>
-    <row r="237" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="237" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B237" s="10" t="s">
         <v>74</v>
       </c>
@@ -8255,7 +8255,7 @@
       <c r="E237" s="11"/>
       <c r="F237" s="11"/>
     </row>
-    <row r="238" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="238" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B238" s="8" t="s">
         <v>76</v>
       </c>
@@ -8266,7 +8266,7 @@
       <c r="E238" s="9"/>
       <c r="F238" s="9"/>
     </row>
-    <row r="239" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="239" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B239" s="10" t="s">
         <v>78</v>
       </c>
@@ -8277,7 +8277,7 @@
       <c r="E239" s="11"/>
       <c r="F239" s="11"/>
     </row>
-    <row r="240" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="240" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B240" s="8" t="s">
         <v>80</v>
       </c>
@@ -8288,7 +8288,7 @@
       <c r="E240" s="9"/>
       <c r="F240" s="9"/>
     </row>
-    <row r="241" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="241" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B241" s="10" t="s">
         <v>82</v>
       </c>
@@ -8299,7 +8299,7 @@
       <c r="E241" s="11"/>
       <c r="F241" s="11"/>
     </row>
-    <row r="242" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="242" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B242" s="8" t="s">
         <v>84</v>
       </c>
@@ -8310,7 +8310,7 @@
       <c r="E242" s="9"/>
       <c r="F242" s="9"/>
     </row>
-    <row r="243" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="243" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B243" s="10" t="s">
         <v>86</v>
       </c>
@@ -8321,7 +8321,7 @@
       <c r="E243" s="11"/>
       <c r="F243" s="11"/>
     </row>
-    <row r="244" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="244" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B244" s="8" t="s">
         <v>88</v>
       </c>
@@ -8332,7 +8332,7 @@
       <c r="E244" s="9"/>
       <c r="F244" s="9"/>
     </row>
-    <row r="245" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="245" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B245" s="10" t="s">
         <v>90</v>
       </c>
